--- a/rotor-ring-map-remapped.xlsx
+++ b/rotor-ring-map-remapped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E17658D-54DF-5244-B270-0F4C253EA931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D6DCE-2A34-1E46-8E4D-CF830F3C0921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="110">
   <si>
     <t>A</t>
   </si>
@@ -233,12 +233,6 @@
     <t>FWPOVAYMLRNIHKDCUJXZQEBSGT</t>
   </si>
   <si>
-    <t>R1M2L3 / B</t>
-  </si>
-  <si>
-    <t>AAB - 0ring</t>
-  </si>
-  <si>
     <t>RR</t>
   </si>
   <si>
@@ -315,13 +309,91 @@
   </si>
   <si>
     <t>I-II-III=B / 0-0-0 / 0-0-0</t>
+  </si>
+  <si>
+    <t>GVURPWXIQJANZLYKMEOFBSTCHD</t>
+  </si>
+  <si>
+    <t>Forward direction only</t>
+  </si>
+  <si>
+    <t>NFXUHBJERGOPWAKLSIQVDTMCZY</t>
+  </si>
+  <si>
+    <t>Full cipher</t>
+  </si>
+  <si>
+    <t>KUXZRTAYHJPNQLSEIDVWCBFGOM</t>
+  </si>
+  <si>
+    <t>Reverse direction only</t>
+  </si>
+  <si>
+    <t>DPGVRHFEYUOAQMWLNCZJKBITSX</t>
+  </si>
+  <si>
+    <t>LVRAHGCFWTUPNQKBMEYXJDOZIS</t>
+  </si>
+  <si>
+    <t>XKLRFEYWSZBCTVQUODIMPNHAGJ</t>
+  </si>
+  <si>
+    <t>VFRAZTJHIESBKOUGCYPNLMDWXQ</t>
+  </si>
+  <si>
+    <t>DLQWJBPHIGMUVTNSZCKFOAXYRE</t>
+  </si>
+  <si>
+    <t>SVJTUXYWOCNZRKIQPMADEBHFGL</t>
+  </si>
+  <si>
+    <t>UBZFMSDIKLCEQARYXOHJPVNGTW</t>
+  </si>
+  <si>
+    <t>KGLDXSHTIJEWRUMOFYAVZQPCNB</t>
+  </si>
+  <si>
+    <t>WDXBSPYNVKJRQHTFMLEOZIACGU</t>
+  </si>
+  <si>
+    <t>FLMGYCTIQWVBJPNUXRAKDESOZH</t>
+  </si>
+  <si>
+    <t>SLFUVADZHMTBCOXNIRWGPKJQEY</t>
+  </si>
+  <si>
+    <t>UWZNJYRPKEISTDQHOGLMAXBVFC</t>
+  </si>
+  <si>
+    <t>LQTMKJSHVWCBOGDPRFZENXUAIY</t>
+  </si>
+  <si>
+    <t>UMPBQGCWIJVZSXLKOTRNHYFEAD</t>
+  </si>
+  <si>
+    <t>TUYMFEXPQKJODWLHISRABZNGCV</t>
+  </si>
+  <si>
+    <t>VXDGTZNMPCUELRQOIAYWJFBKHS</t>
+  </si>
+  <si>
+    <t>RWJCLVDYQUXMHGPIONZEKATBSF</t>
+  </si>
+  <si>
+    <t>ENRIATQLDWPHOBMKGCZFYXJVUS</t>
+  </si>
+  <si>
+    <t>HUPAGFMDTEJQSIOLCBXNVRKWYZ</t>
+  </si>
+  <si>
+    <t>PGTOCLVMIBUXSYZDRQHJFEANKW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,13 +420,6 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,12 +537,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -528,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -537,10 +596,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -555,7 +614,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -571,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -599,50 +658,53 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,7 +1023,7 @@
   <dimension ref="A1:AW77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,53 +1208,53 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="49">
+        <v>83</v>
+      </c>
+      <c r="D5" s="48">
         <f>INDEX(records!$B$7:$B$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="49" t="str">
+      <c r="E5" s="48" t="str">
         <f>INDEX(records!$C$7:$C$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
         <v>I</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="49">
-        <f>INDEX(records!$D$7:$D$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
+      <c r="G5" s="48">
         <f>INDEX(records!$E$7:$E$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
         <v>0</v>
       </c>
-      <c r="J5" s="49" t="str">
-        <f>INDEX(records!$F$7:$F$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>II</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="49">
+      <c r="I5" s="48">
         <f>INDEX(records!$G$7:$G$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="49">
+      <c r="J5" s="48" t="str">
         <f>INDEX(records!$H$7:$H$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="49" t="str">
-        <f>INDEX(records!$I$7:$I$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>III</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="49">
+        <v>II</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="48">
         <f>INDEX(records!$J$7:$J$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
         <v>0</v>
       </c>
+      <c r="N5" s="48">
+        <f>INDEX(records!$L$7:$L$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="48" t="str">
+        <f>INDEX(records!$M$7:$M$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
+        <v>III</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="48">
+        <f>INDEX(records!$O$7:$O$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="2"/>
-      <c r="U5" s="49" t="str">
-        <f>INDEX(records!$K$7:$K$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
+      <c r="U5" s="48" t="str">
+        <f>INDEX(records!$S$7:$S$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
         <v>B</v>
       </c>
       <c r="X5" s="13"/>
@@ -1212,37 +1274,37 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="48">
+        <v>74</v>
+      </c>
+      <c r="D6" s="47">
         <v>0</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>0</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="47">
         <v>0</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <v>0</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="47">
         <v>0</v>
       </c>
-      <c r="U6" s="48" t="s">
+      <c r="U6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="AC6" s="11" t="s">
@@ -1286,7 +1348,7 @@
       <c r="F7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="8"/>
@@ -1299,7 +1361,7 @@
       <c r="K7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1311,11 +1373,11 @@
       <c r="P7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="45" t="s">
         <v>54</v>
       </c>
       <c r="X7" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y7" s="36"/>
       <c r="Z7" s="36" t="str">
@@ -1414,7 +1476,7 @@
         <f t="array" ref="D8">INDEX(rotors!$A$2:$A$27,D9+1)</f>
         <v>A</v>
       </c>
-      <c r="G8" s="46" t="str" cm="1">
+      <c r="G8" s="45" t="str" cm="1">
         <f t="array" ref="G8">INDEX(rotors!$A$2:$A$27,G9+1)</f>
         <v>A</v>
       </c>
@@ -1422,7 +1484,7 @@
         <f t="array" ref="I8">INDEX(rotors!$A$2:$A$27,I9+1)</f>
         <v>A</v>
       </c>
-      <c r="L8" s="46" t="str" cm="1">
+      <c r="L8" s="45" t="str" cm="1">
         <f t="array" ref="L8">INDEX(rotors!$A$2:$A$27,L9+1)</f>
         <v>A</v>
       </c>
@@ -1430,7 +1492,7 @@
         <f t="array" ref="N8">INDEX(rotors!$A$2:$A$27,N9+1)</f>
         <v>A</v>
       </c>
-      <c r="Q8" s="46" t="str" cm="1">
+      <c r="Q8" s="45" t="str" cm="1">
         <f t="array" ref="Q8">INDEX(rotors!$A$2:$A$27,Q9+1)</f>
         <v>A</v>
       </c>
@@ -1534,7 +1596,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="9" t="b">
@@ -1717,80 +1779,80 @@
         <v>26</v>
       </c>
       <c r="Z10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" s="39" t="s">
+      <c r="AC10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="AB10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD10" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AF10" s="39" t="s">
         <v>68</v>
-      </c>
-      <c r="AF10" s="39" t="s">
-        <v>70</v>
       </c>
       <c r="AG10" s="39" t="s">
         <v>41</v>
       </c>
       <c r="AH10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="AI10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>73</v>
       </c>
       <c r="AP10" s="39" t="s">
         <v>41</v>
       </c>
       <c r="AQ10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW10" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="AR10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW10" s="39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="5"/>
@@ -1806,7 +1868,7 @@
         <f>D11</f>
         <v>A</v>
       </c>
-      <c r="G11" s="45" t="str" cm="1">
+      <c r="G11" s="44" t="str" cm="1">
         <f t="array" ref="G11">INDEX($B$11:$B$36,MOD(MATCH(F11,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>A</v>
       </c>
@@ -1823,7 +1885,7 @@
         <f>I11</f>
         <v>A</v>
       </c>
-      <c r="L11" s="45" t="str" cm="1">
+      <c r="L11" s="44" t="str" cm="1">
         <f t="array" ref="L11">INDEX($B$11:$B$36,MOD(MATCH(K11,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>A</v>
       </c>
@@ -1840,7 +1902,7 @@
         <f>N11</f>
         <v>A</v>
       </c>
-      <c r="Q11" s="45" t="str" cm="1">
+      <c r="Q11" s="44" t="str" cm="1">
         <f t="array" ref="Q11">INDEX($B$11:$B$36,MOD(MATCH(P11,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>A</v>
       </c>
@@ -1859,62 +1921,62 @@
       </c>
       <c r="W11" s="14"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="44" t="s">
+      <c r="Y11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" s="46" t="str">
+      <c r="Z11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(Z$8),MATCH(Y11,INDIRECT(Z$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AA11" s="43" t="str">
+      <c r="AA11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AA$8),MATCH(Z11,INDIRECT(AA$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AB11" s="46" t="str">
+      <c r="AB11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AB$8),MATCH(AA11,INDIRECT(AB$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AC11" s="46" t="str">
+      <c r="AC11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB11,INDIRECT(AC$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AD11" s="43" t="str">
+      <c r="AD11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC11,INDIRECT(AD$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AE11" s="47" t="str">
+      <c r="AE11" s="46" t="str">
         <f ca="1">INDEX(INDIRECT(AE$8),MATCH(AD11,INDIRECT(AE$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AF11" s="46" t="str">
+      <c r="AF11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE11,INDIRECT(AF$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AG11" s="43" t="str">
+      <c r="AG11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AG$8),MATCH(AF11,INDIRECT(AG$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AH11" s="43" t="str">
+      <c r="AH11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AH$8),MATCH(AG11,INDIRECT(AH$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AI11" s="43" t="str">
+      <c r="AI11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AI$8),MATCH(AH11,INDIRECT(AI$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AJ11" s="46" t="str">
+      <c r="AJ11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AJ$8),MATCH(AI11,INDIRECT(AJ$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AK11" s="46" t="str">
+      <c r="AK11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AK$8),MATCH(AJ11,INDIRECT(AK$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AL11" s="43" t="str">
+      <c r="AL11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AL$8),MATCH(AK11,INDIRECT(AL$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AM11" s="43" t="str">
+      <c r="AM11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AM$8),MATCH(AL11,INDIRECT(AM$9),0))</f>
         <v>N</v>
       </c>
@@ -1925,27 +1987,27 @@
       <c r="AP11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AQ11" s="43" t="str">
+      <c r="AQ11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP11,INDIRECT(AQ$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AR11" s="43" t="str">
+      <c r="AR11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ11,INDIRECT(AR$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AS11" s="46" t="str">
+      <c r="AS11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR11,INDIRECT(AS$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AT11" s="46" t="str">
+      <c r="AT11" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS11,INDIRECT(AT$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AU11" s="43" t="str">
+      <c r="AU11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT11,INDIRECT(AU$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AV11" s="43" t="str">
+      <c r="AV11" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU11,INDIRECT(AV$9),0))</f>
         <v>K</v>
       </c>
@@ -1958,7 +2020,7 @@
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="5"/>
@@ -1974,7 +2036,7 @@
         <f t="shared" ref="F12:F36" si="1">D12</f>
         <v>B</v>
       </c>
-      <c r="G12" s="45" t="str" cm="1">
+      <c r="G12" s="44" t="str" cm="1">
         <f t="array" ref="G12">INDEX($B$11:$B$36,MOD(MATCH(F12,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>B</v>
       </c>
@@ -1991,7 +2053,7 @@
         <f t="shared" ref="K12:K36" si="2">I12</f>
         <v>B</v>
       </c>
-      <c r="L12" s="45" t="str" cm="1">
+      <c r="L12" s="44" t="str" cm="1">
         <f t="array" ref="L12">INDEX($B$11:$B$36,MOD(MATCH(K12,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>B</v>
       </c>
@@ -2008,7 +2070,7 @@
         <f t="shared" ref="P12:P36" si="3">N12</f>
         <v>B</v>
       </c>
-      <c r="Q12" s="45" t="str" cm="1">
+      <c r="Q12" s="44" t="str" cm="1">
         <f t="array" ref="Q12">INDEX($B$11:$B$36,MOD(MATCH(P12,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>B</v>
       </c>
@@ -2027,62 +2089,62 @@
       </c>
       <c r="W12" s="14"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="44" t="s">
+      <c r="Y12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" s="46" t="str">
+      <c r="Z12" s="45" t="str">
         <f t="shared" ref="Z12:AL36" ca="1" si="4">INDEX(INDIRECT(Z$8),MATCH(Y12,INDIRECT(Z$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AA12" s="43" t="str">
+      <c r="AA12" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>K</v>
       </c>
-      <c r="AB12" s="46" t="str">
+      <c r="AB12" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>K</v>
       </c>
-      <c r="AC12" s="46" t="str">
+      <c r="AC12" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB12,INDIRECT(AC$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AD12" s="43" t="str">
+      <c r="AD12" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC12,INDIRECT(AD$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AE12" s="47" t="str">
+      <c r="AE12" s="46" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>V</v>
       </c>
-      <c r="AF12" s="46" t="str">
+      <c r="AF12" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE12,INDIRECT(AF$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AG12" s="43" t="str">
+      <c r="AG12" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="AH12" s="43" t="str">
+      <c r="AH12" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="AI12" s="43" t="str">
+      <c r="AI12" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>R</v>
       </c>
-      <c r="AJ12" s="46" t="str">
+      <c r="AJ12" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>R</v>
       </c>
-      <c r="AK12" s="46" t="str">
+      <c r="AK12" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>G</v>
       </c>
-      <c r="AL12" s="43" t="str">
+      <c r="AL12" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>G</v>
       </c>
-      <c r="AM12" s="43" t="str">
+      <c r="AM12" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
@@ -2093,27 +2155,27 @@
       <c r="AP12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AQ12" s="43" t="str">
+      <c r="AQ12" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP12,INDIRECT(AQ$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AR12" s="43" t="str">
+      <c r="AR12" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ12,INDIRECT(AR$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AS12" s="46" t="str">
+      <c r="AS12" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR12,INDIRECT(AS$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AT12" s="46" t="str">
+      <c r="AT12" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS12,INDIRECT(AT$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AU12" s="43" t="str">
+      <c r="AU12" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT12,INDIRECT(AU$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AV12" s="43" t="str">
+      <c r="AV12" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU12,INDIRECT(AV$9),0))</f>
         <v>U</v>
       </c>
@@ -2126,7 +2188,7 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="5"/>
@@ -2142,7 +2204,7 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="G13" s="45" t="str" cm="1">
+      <c r="G13" s="44" t="str" cm="1">
         <f t="array" ref="G13">INDEX($B$11:$B$36,MOD(MATCH(F13,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>C</v>
       </c>
@@ -2159,7 +2221,7 @@
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="L13" s="45" t="str" cm="1">
+      <c r="L13" s="44" t="str" cm="1">
         <f t="array" ref="L13">INDEX($B$11:$B$36,MOD(MATCH(K13,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>C</v>
       </c>
@@ -2176,7 +2238,7 @@
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="Q13" s="45" t="str" cm="1">
+      <c r="Q13" s="44" t="str" cm="1">
         <f t="array" ref="Q13">INDEX($B$11:$B$36,MOD(MATCH(P13,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>C</v>
       </c>
@@ -2195,62 +2257,62 @@
       </c>
       <c r="W13" s="14"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="44" t="s">
+      <c r="Y13" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="46" t="str">
+      <c r="Z13" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>C</v>
       </c>
-      <c r="AA13" s="43" t="str">
+      <c r="AA13" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>M</v>
       </c>
-      <c r="AB13" s="46" t="str">
+      <c r="AB13" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>M</v>
       </c>
-      <c r="AC13" s="46" t="str">
+      <c r="AC13" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB13,INDIRECT(AC$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AD13" s="43" t="str">
+      <c r="AD13" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC13,INDIRECT(AD$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AE13" s="47" t="str">
+      <c r="AE13" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>U</v>
       </c>
-      <c r="AF13" s="46" t="str">
+      <c r="AF13" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE13,INDIRECT(AF$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AG13" s="43" t="str">
+      <c r="AG13" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="AH13" s="43" t="str">
+      <c r="AH13" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>C</v>
       </c>
-      <c r="AI13" s="43" t="str">
+      <c r="AI13" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
-      <c r="AJ13" s="46" t="str">
+      <c r="AJ13" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
-      <c r="AK13" s="46" t="str">
+      <c r="AK13" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>R</v>
       </c>
-      <c r="AL13" s="43" t="str">
+      <c r="AL13" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>R</v>
       </c>
-      <c r="AM13" s="43" t="str">
+      <c r="AM13" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>X</v>
       </c>
@@ -2261,27 +2323,27 @@
       <c r="AP13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AQ13" s="43" t="str">
+      <c r="AQ13" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP13,INDIRECT(AQ$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AR13" s="43" t="str">
+      <c r="AR13" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ13,INDIRECT(AR$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AS13" s="46" t="str">
+      <c r="AS13" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR13,INDIRECT(AS$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AT13" s="46" t="str">
+      <c r="AT13" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS13,INDIRECT(AT$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AU13" s="43" t="str">
+      <c r="AU13" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT13,INDIRECT(AU$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AV13" s="43" t="str">
+      <c r="AV13" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU13,INDIRECT(AV$9),0))</f>
         <v>X</v>
       </c>
@@ -2294,7 +2356,7 @@
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5"/>
@@ -2310,7 +2372,7 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="G14" s="45" t="str" cm="1">
+      <c r="G14" s="44" t="str" cm="1">
         <f t="array" ref="G14">INDEX($B$11:$B$36,MOD(MATCH(F14,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>D</v>
       </c>
@@ -2327,7 +2389,7 @@
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="L14" s="45" t="str" cm="1">
+      <c r="L14" s="44" t="str" cm="1">
         <f t="array" ref="L14">INDEX($B$11:$B$36,MOD(MATCH(K14,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>D</v>
       </c>
@@ -2344,7 +2406,7 @@
         <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="Q14" s="45" t="str" cm="1">
+      <c r="Q14" s="44" t="str" cm="1">
         <f t="array" ref="Q14">INDEX($B$11:$B$36,MOD(MATCH(P14,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>D</v>
       </c>
@@ -2363,62 +2425,62 @@
       </c>
       <c r="W14" s="14"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="44" t="s">
+      <c r="Y14" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="46" t="str">
+      <c r="Z14" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="AA14" s="43" t="str">
+      <c r="AA14" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-      <c r="AB14" s="46" t="str">
+      <c r="AB14" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>F</v>
       </c>
-      <c r="AC14" s="46" t="str">
+      <c r="AC14" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB14,INDIRECT(AC$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AD14" s="43" t="str">
+      <c r="AD14" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC14,INDIRECT(AD$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AE14" s="47" t="str">
+      <c r="AE14" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>R</v>
       </c>
-      <c r="AF14" s="46" t="str">
+      <c r="AF14" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE14,INDIRECT(AF$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AG14" s="43" t="str">
+      <c r="AG14" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="AH14" s="43" t="str">
+      <c r="AH14" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="AI14" s="43" t="str">
+      <c r="AI14" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AJ14" s="46" t="str">
+      <c r="AJ14" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AK14" s="46" t="str">
+      <c r="AK14" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AL14" s="43" t="str">
+      <c r="AL14" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AM14" s="43" t="str">
+      <c r="AM14" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>U</v>
       </c>
@@ -2429,27 +2491,27 @@
       <c r="AP14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AQ14" s="43" t="str">
+      <c r="AQ14" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP14,INDIRECT(AQ$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AR14" s="43" t="str">
+      <c r="AR14" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ14,INDIRECT(AR$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AS14" s="46" t="str">
+      <c r="AS14" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR14,INDIRECT(AS$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AT14" s="46" t="str">
+      <c r="AT14" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS14,INDIRECT(AT$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AU14" s="43" t="str">
+      <c r="AU14" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT14,INDIRECT(AU$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AV14" s="43" t="str">
+      <c r="AV14" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU14,INDIRECT(AV$9),0))</f>
         <v>Z</v>
       </c>
@@ -2462,7 +2524,7 @@
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="5"/>
@@ -2478,7 +2540,7 @@
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="G15" s="45" t="str" cm="1">
+      <c r="G15" s="44" t="str" cm="1">
         <f t="array" ref="G15">INDEX($B$11:$B$36,MOD(MATCH(F15,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>E</v>
       </c>
@@ -2495,7 +2557,7 @@
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
-      <c r="L15" s="45" t="str" cm="1">
+      <c r="L15" s="44" t="str" cm="1">
         <f t="array" ref="L15">INDEX($B$11:$B$36,MOD(MATCH(K15,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>E</v>
       </c>
@@ -2512,7 +2574,7 @@
         <f t="shared" si="3"/>
         <v>E</v>
       </c>
-      <c r="Q15" s="45" t="str" cm="1">
+      <c r="Q15" s="44" t="str" cm="1">
         <f t="array" ref="Q15">INDEX($B$11:$B$36,MOD(MATCH(P15,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>E</v>
       </c>
@@ -2531,62 +2593,62 @@
       </c>
       <c r="W15" s="14"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="44" t="s">
+      <c r="Y15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="46" t="str">
+      <c r="Z15" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>E</v>
       </c>
-      <c r="AA15" s="43" t="str">
+      <c r="AA15" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AB15" s="46" t="str">
+      <c r="AB15" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AC15" s="46" t="str">
+      <c r="AC15" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB15,INDIRECT(AC$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AD15" s="43" t="str">
+      <c r="AD15" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC15,INDIRECT(AD$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AE15" s="47" t="str">
+      <c r="AE15" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
-      <c r="AF15" s="46" t="str">
+      <c r="AF15" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE15,INDIRECT(AF$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AG15" s="43" t="str">
+      <c r="AG15" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>I</v>
       </c>
-      <c r="AH15" s="43" t="str">
+      <c r="AH15" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>I</v>
       </c>
-      <c r="AI15" s="43" t="str">
+      <c r="AI15" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AJ15" s="46" t="str">
+      <c r="AJ15" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AK15" s="46" t="str">
+      <c r="AK15" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AL15" s="43" t="str">
+      <c r="AL15" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AM15" s="43" t="str">
+      <c r="AM15" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
@@ -2597,27 +2659,27 @@
       <c r="AP15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AQ15" s="43" t="str">
+      <c r="AQ15" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP15,INDIRECT(AQ$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AR15" s="43" t="str">
+      <c r="AR15" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ15,INDIRECT(AR$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AS15" s="46" t="str">
+      <c r="AS15" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR15,INDIRECT(AS$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AT15" s="46" t="str">
+      <c r="AT15" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS15,INDIRECT(AT$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AU15" s="43" t="str">
+      <c r="AU15" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT15,INDIRECT(AU$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AV15" s="43" t="str">
+      <c r="AV15" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU15,INDIRECT(AV$9),0))</f>
         <v>R</v>
       </c>
@@ -2630,7 +2692,7 @@
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5"/>
@@ -2646,7 +2708,7 @@
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="G16" s="45" t="str" cm="1">
+      <c r="G16" s="44" t="str" cm="1">
         <f t="array" ref="G16">INDEX($B$11:$B$36,MOD(MATCH(F16,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>F</v>
       </c>
@@ -2663,7 +2725,7 @@
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="L16" s="45" t="str" cm="1">
+      <c r="L16" s="44" t="str" cm="1">
         <f t="array" ref="L16">INDEX($B$11:$B$36,MOD(MATCH(K16,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>F</v>
       </c>
@@ -2680,7 +2742,7 @@
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="Q16" s="45" t="str" cm="1">
+      <c r="Q16" s="44" t="str" cm="1">
         <f t="array" ref="Q16">INDEX($B$11:$B$36,MOD(MATCH(P16,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>F</v>
       </c>
@@ -2699,62 +2761,62 @@
       </c>
       <c r="W16" s="14"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="44" t="s">
+      <c r="Y16" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Z16" s="46" t="str">
+      <c r="Z16" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="AA16" s="43" t="str">
+      <c r="AA16" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
-      <c r="AB16" s="46" t="str">
+      <c r="AB16" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
-      <c r="AC16" s="46" t="str">
+      <c r="AC16" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB16,INDIRECT(AC$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AD16" s="43" t="str">
+      <c r="AD16" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC16,INDIRECT(AD$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AE16" s="47" t="str">
+      <c r="AE16" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>W</v>
       </c>
-      <c r="AF16" s="46" t="str">
+      <c r="AF16" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE16,INDIRECT(AF$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AG16" s="43" t="str">
+      <c r="AG16" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>V</v>
       </c>
-      <c r="AH16" s="43" t="str">
+      <c r="AH16" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>V</v>
       </c>
-      <c r="AI16" s="43" t="str">
+      <c r="AI16" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AJ16" s="46" t="str">
+      <c r="AJ16" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AK16" s="46" t="str">
+      <c r="AK16" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AL16" s="43" t="str">
+      <c r="AL16" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AM16" s="43" t="str">
+      <c r="AM16" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
@@ -2765,27 +2827,27 @@
       <c r="AP16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AQ16" s="43" t="str">
+      <c r="AQ16" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP16,INDIRECT(AQ$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AR16" s="43" t="str">
+      <c r="AR16" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ16,INDIRECT(AR$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AS16" s="46" t="str">
+      <c r="AS16" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR16,INDIRECT(AS$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AT16" s="46" t="str">
+      <c r="AT16" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS16,INDIRECT(AT$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AU16" s="43" t="str">
+      <c r="AU16" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT16,INDIRECT(AU$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AV16" s="43" t="str">
+      <c r="AV16" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU16,INDIRECT(AV$9),0))</f>
         <v>T</v>
       </c>
@@ -2798,7 +2860,7 @@
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5"/>
@@ -2814,7 +2876,7 @@
         <f t="shared" si="1"/>
         <v>G</v>
       </c>
-      <c r="G17" s="45" t="str" cm="1">
+      <c r="G17" s="44" t="str" cm="1">
         <f t="array" ref="G17">INDEX($B$11:$B$36,MOD(MATCH(F17,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>G</v>
       </c>
@@ -2831,7 +2893,7 @@
         <f t="shared" si="2"/>
         <v>G</v>
       </c>
-      <c r="L17" s="45" t="str" cm="1">
+      <c r="L17" s="44" t="str" cm="1">
         <f t="array" ref="L17">INDEX($B$11:$B$36,MOD(MATCH(K17,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>G</v>
       </c>
@@ -2848,7 +2910,7 @@
         <f t="shared" si="3"/>
         <v>G</v>
       </c>
-      <c r="Q17" s="45" t="str" cm="1">
+      <c r="Q17" s="44" t="str" cm="1">
         <f t="array" ref="Q17">INDEX($B$11:$B$36,MOD(MATCH(P17,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>G</v>
       </c>
@@ -2867,62 +2929,62 @@
       </c>
       <c r="W17" s="14"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="44" t="s">
+      <c r="Y17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="46" t="str">
+      <c r="Z17" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>G</v>
       </c>
-      <c r="AA17" s="43" t="str">
+      <c r="AA17" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="AB17" s="46" t="str">
+      <c r="AB17" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="AC17" s="46" t="str">
+      <c r="AC17" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB17,INDIRECT(AC$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AD17" s="43" t="str">
+      <c r="AD17" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC17,INDIRECT(AD$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AE17" s="47" t="str">
+      <c r="AE17" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>X</v>
       </c>
-      <c r="AF17" s="46" t="str">
+      <c r="AF17" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE17,INDIRECT(AF$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AG17" s="43" t="str">
+      <c r="AG17" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>J</v>
       </c>
-      <c r="AH17" s="43" t="str">
+      <c r="AH17" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>J</v>
       </c>
-      <c r="AI17" s="43" t="str">
+      <c r="AI17" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="AJ17" s="46" t="str">
+      <c r="AJ17" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="AK17" s="46" t="str">
+      <c r="AK17" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Z</v>
       </c>
-      <c r="AL17" s="43" t="str">
+      <c r="AL17" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Z</v>
       </c>
-      <c r="AM17" s="43" t="str">
+      <c r="AM17" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>J</v>
       </c>
@@ -2933,27 +2995,27 @@
       <c r="AP17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AQ17" s="43" t="str">
+      <c r="AQ17" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP17,INDIRECT(AQ$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AR17" s="43" t="str">
+      <c r="AR17" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ17,INDIRECT(AR$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AS17" s="46" t="str">
+      <c r="AS17" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR17,INDIRECT(AS$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AT17" s="46" t="str">
+      <c r="AT17" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS17,INDIRECT(AT$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AU17" s="43" t="str">
+      <c r="AU17" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT17,INDIRECT(AU$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AV17" s="43" t="str">
+      <c r="AV17" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU17,INDIRECT(AV$9),0))</f>
         <v>A</v>
       </c>
@@ -2966,7 +3028,7 @@
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5"/>
@@ -2982,7 +3044,7 @@
         <f t="shared" si="1"/>
         <v>H</v>
       </c>
-      <c r="G18" s="45" t="str" cm="1">
+      <c r="G18" s="44" t="str" cm="1">
         <f t="array" ref="G18">INDEX($B$11:$B$36,MOD(MATCH(F18,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>H</v>
       </c>
@@ -2999,7 +3061,7 @@
         <f t="shared" si="2"/>
         <v>H</v>
       </c>
-      <c r="L18" s="45" t="str" cm="1">
+      <c r="L18" s="44" t="str" cm="1">
         <f t="array" ref="L18">INDEX($B$11:$B$36,MOD(MATCH(K18,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>H</v>
       </c>
@@ -3016,7 +3078,7 @@
         <f t="shared" si="3"/>
         <v>H</v>
       </c>
-      <c r="Q18" s="45" t="str" cm="1">
+      <c r="Q18" s="44" t="str" cm="1">
         <f t="array" ref="Q18">INDEX($B$11:$B$36,MOD(MATCH(P18,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>H</v>
       </c>
@@ -3035,62 +3097,62 @@
       </c>
       <c r="W18" s="14"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="44" t="s">
+      <c r="Y18" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Z18" s="46" t="str">
+      <c r="Z18" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>H</v>
       </c>
-      <c r="AA18" s="43" t="str">
+      <c r="AA18" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AB18" s="46" t="str">
+      <c r="AB18" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AC18" s="46" t="str">
+      <c r="AC18" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB18,INDIRECT(AC$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AD18" s="43" t="str">
+      <c r="AD18" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC18,INDIRECT(AD$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AE18" s="47" t="str">
+      <c r="AE18" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>I</v>
       </c>
-      <c r="AF18" s="46" t="str">
+      <c r="AF18" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE18,INDIRECT(AF$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AG18" s="43" t="str">
+      <c r="AG18" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
-      <c r="AH18" s="43" t="str">
+      <c r="AH18" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
-      <c r="AI18" s="43" t="str">
+      <c r="AI18" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
-      <c r="AJ18" s="46" t="str">
+      <c r="AJ18" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
-      <c r="AK18" s="46" t="str">
+      <c r="AK18" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AL18" s="43" t="str">
+      <c r="AL18" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AM18" s="43" t="str">
+      <c r="AM18" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
@@ -3101,27 +3163,27 @@
       <c r="AP18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AQ18" s="43" t="str">
+      <c r="AQ18" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP18,INDIRECT(AQ$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AR18" s="43" t="str">
+      <c r="AR18" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ18,INDIRECT(AR$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AS18" s="46" t="str">
+      <c r="AS18" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR18,INDIRECT(AS$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AT18" s="46" t="str">
+      <c r="AT18" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS18,INDIRECT(AT$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AU18" s="43" t="str">
+      <c r="AU18" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT18,INDIRECT(AU$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AV18" s="43" t="str">
+      <c r="AV18" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU18,INDIRECT(AV$9),0))</f>
         <v>Y</v>
       </c>
@@ -3134,7 +3196,7 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5"/>
@@ -3150,7 +3212,7 @@
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="G19" s="45" t="str" cm="1">
+      <c r="G19" s="44" t="str" cm="1">
         <f t="array" ref="G19">INDEX($B$11:$B$36,MOD(MATCH(F19,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>I</v>
       </c>
@@ -3167,7 +3229,7 @@
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
-      <c r="L19" s="45" t="str" cm="1">
+      <c r="L19" s="44" t="str" cm="1">
         <f t="array" ref="L19">INDEX($B$11:$B$36,MOD(MATCH(K19,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>I</v>
       </c>
@@ -3184,7 +3246,7 @@
         <f t="shared" si="3"/>
         <v>I</v>
       </c>
-      <c r="Q19" s="45" t="str" cm="1">
+      <c r="Q19" s="44" t="str" cm="1">
         <f t="array" ref="Q19">INDEX($B$11:$B$36,MOD(MATCH(P19,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>I</v>
       </c>
@@ -3203,62 +3265,62 @@
       </c>
       <c r="W19" s="14"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="44" t="s">
+      <c r="Y19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Z19" s="46" t="str">
+      <c r="Z19" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>I</v>
       </c>
-      <c r="AA19" s="43" t="str">
+      <c r="AA19" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>V</v>
       </c>
-      <c r="AB19" s="46" t="str">
+      <c r="AB19" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>V</v>
       </c>
-      <c r="AC19" s="46" t="str">
+      <c r="AC19" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB19,INDIRECT(AC$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AD19" s="43" t="str">
+      <c r="AD19" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC19,INDIRECT(AD$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AE19" s="47" t="str">
+      <c r="AE19" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Q</v>
       </c>
-      <c r="AF19" s="46" t="str">
+      <c r="AF19" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE19,INDIRECT(AF$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AG19" s="43" t="str">
+      <c r="AG19" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="AH19" s="43" t="str">
+      <c r="AH19" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="AI19" s="43" t="str">
+      <c r="AI19" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
-      <c r="AJ19" s="46" t="str">
+      <c r="AJ19" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
-      <c r="AK19" s="46" t="str">
+      <c r="AK19" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>U</v>
       </c>
-      <c r="AL19" s="43" t="str">
+      <c r="AL19" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>U</v>
       </c>
-      <c r="AM19" s="43" t="str">
+      <c r="AM19" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>R</v>
       </c>
@@ -3269,27 +3331,27 @@
       <c r="AP19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AQ19" s="43" t="str">
+      <c r="AQ19" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP19,INDIRECT(AQ$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AR19" s="43" t="str">
+      <c r="AR19" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ19,INDIRECT(AR$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AS19" s="46" t="str">
+      <c r="AS19" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR19,INDIRECT(AS$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AT19" s="46" t="str">
+      <c r="AT19" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS19,INDIRECT(AT$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AU19" s="43" t="str">
+      <c r="AU19" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT19,INDIRECT(AU$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AV19" s="43" t="str">
+      <c r="AV19" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU19,INDIRECT(AV$9),0))</f>
         <v>H</v>
       </c>
@@ -3302,7 +3364,7 @@
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="5"/>
@@ -3318,7 +3380,7 @@
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
-      <c r="G20" s="45" t="str" cm="1">
+      <c r="G20" s="44" t="str" cm="1">
         <f t="array" ref="G20">INDEX($B$11:$B$36,MOD(MATCH(F20,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>J</v>
       </c>
@@ -3335,7 +3397,7 @@
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="L20" s="45" t="str" cm="1">
+      <c r="L20" s="44" t="str" cm="1">
         <f t="array" ref="L20">INDEX($B$11:$B$36,MOD(MATCH(K20,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>J</v>
       </c>
@@ -3352,7 +3414,7 @@
         <f t="shared" si="3"/>
         <v>J</v>
       </c>
-      <c r="Q20" s="45" t="str" cm="1">
+      <c r="Q20" s="44" t="str" cm="1">
         <f t="array" ref="Q20">INDEX($B$11:$B$36,MOD(MATCH(P20,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>J</v>
       </c>
@@ -3371,62 +3433,62 @@
       </c>
       <c r="W20" s="14"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="44" t="s">
+      <c r="Y20" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="Z20" s="46" t="str">
+      <c r="Z20" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>J</v>
       </c>
-      <c r="AA20" s="43" t="str">
+      <c r="AA20" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Z</v>
       </c>
-      <c r="AB20" s="46" t="str">
+      <c r="AB20" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Z</v>
       </c>
-      <c r="AC20" s="46" t="str">
+      <c r="AC20" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB20,INDIRECT(AC$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AD20" s="43" t="str">
+      <c r="AD20" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC20,INDIRECT(AD$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AE20" s="47" t="str">
+      <c r="AE20" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>J</v>
       </c>
-      <c r="AF20" s="46" t="str">
+      <c r="AF20" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE20,INDIRECT(AF$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AG20" s="43" t="str">
+      <c r="AG20" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>X</v>
       </c>
-      <c r="AH20" s="43" t="str">
+      <c r="AH20" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>X</v>
       </c>
-      <c r="AI20" s="43" t="str">
+      <c r="AI20" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AJ20" s="46" t="str">
+      <c r="AJ20" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AK20" s="46" t="str">
+      <c r="AK20" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="AL20" s="43" t="str">
+      <c r="AL20" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>D</v>
       </c>
-      <c r="AM20" s="43" t="str">
+      <c r="AM20" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
@@ -3437,27 +3499,27 @@
       <c r="AP20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AQ20" s="43" t="str">
+      <c r="AQ20" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP20,INDIRECT(AQ$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AR20" s="43" t="str">
+      <c r="AR20" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ20,INDIRECT(AR$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AS20" s="46" t="str">
+      <c r="AS20" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR20,INDIRECT(AS$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AT20" s="46" t="str">
+      <c r="AT20" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS20,INDIRECT(AT$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AU20" s="43" t="str">
+      <c r="AU20" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT20,INDIRECT(AU$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AV20" s="43" t="str">
+      <c r="AV20" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU20,INDIRECT(AV$9),0))</f>
         <v>J</v>
       </c>
@@ -3470,7 +3532,7 @@
       <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="5"/>
@@ -3486,7 +3548,7 @@
         <f t="shared" si="1"/>
         <v>K</v>
       </c>
-      <c r="G21" s="45" t="str" cm="1">
+      <c r="G21" s="44" t="str" cm="1">
         <f t="array" ref="G21">INDEX($B$11:$B$36,MOD(MATCH(F21,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>K</v>
       </c>
@@ -3503,7 +3565,7 @@
         <f t="shared" si="2"/>
         <v>K</v>
       </c>
-      <c r="L21" s="45" t="str" cm="1">
+      <c r="L21" s="44" t="str" cm="1">
         <f t="array" ref="L21">INDEX($B$11:$B$36,MOD(MATCH(K21,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>K</v>
       </c>
@@ -3520,7 +3582,7 @@
         <f t="shared" si="3"/>
         <v>K</v>
       </c>
-      <c r="Q21" s="45" t="str" cm="1">
+      <c r="Q21" s="44" t="str" cm="1">
         <f t="array" ref="Q21">INDEX($B$11:$B$36,MOD(MATCH(P21,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>K</v>
       </c>
@@ -3539,62 +3601,62 @@
       </c>
       <c r="W21" s="14"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="44" t="s">
+      <c r="Y21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="46" t="str">
+      <c r="Z21" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>K</v>
       </c>
-      <c r="AA21" s="43" t="str">
+      <c r="AA21" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AB21" s="46" t="str">
+      <c r="AB21" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AC21" s="46" t="str">
+      <c r="AC21" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB21,INDIRECT(AC$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AD21" s="43" t="str">
+      <c r="AD21" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC21,INDIRECT(AD$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AE21" s="47" t="str">
+      <c r="AE21" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AF21" s="46" t="str">
+      <c r="AF21" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE21,INDIRECT(AF$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AG21" s="43" t="str">
+      <c r="AG21" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AH21" s="43" t="str">
+      <c r="AH21" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AI21" s="43" t="str">
+      <c r="AI21" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>O</v>
       </c>
-      <c r="AJ21" s="46" t="str">
+      <c r="AJ21" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>O</v>
       </c>
-      <c r="AK21" s="46" t="str">
+      <c r="AK21" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AL21" s="43" t="str">
+      <c r="AL21" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AM21" s="43" t="str">
+      <c r="AM21" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>O</v>
       </c>
@@ -3605,27 +3667,27 @@
       <c r="AP21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AQ21" s="43" t="str">
+      <c r="AQ21" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP21,INDIRECT(AQ$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AR21" s="43" t="str">
+      <c r="AR21" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ21,INDIRECT(AR$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AS21" s="46" t="str">
+      <c r="AS21" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR21,INDIRECT(AS$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AT21" s="46" t="str">
+      <c r="AT21" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS21,INDIRECT(AT$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AU21" s="43" t="str">
+      <c r="AU21" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT21,INDIRECT(AU$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AV21" s="43" t="str">
+      <c r="AV21" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU21,INDIRECT(AV$9),0))</f>
         <v>P</v>
       </c>
@@ -3638,7 +3700,7 @@
       <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
@@ -3654,7 +3716,7 @@
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="G22" s="45" t="str" cm="1">
+      <c r="G22" s="44" t="str" cm="1">
         <f t="array" ref="G22">INDEX($B$11:$B$36,MOD(MATCH(F22,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>L</v>
       </c>
@@ -3671,7 +3733,7 @@
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
-      <c r="L22" s="45" t="str" cm="1">
+      <c r="L22" s="44" t="str" cm="1">
         <f t="array" ref="L22">INDEX($B$11:$B$36,MOD(MATCH(K22,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>L</v>
       </c>
@@ -3688,7 +3750,7 @@
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-      <c r="Q22" s="45" t="str" cm="1">
+      <c r="Q22" s="44" t="str" cm="1">
         <f t="array" ref="Q22">INDEX($B$11:$B$36,MOD(MATCH(P22,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>L</v>
       </c>
@@ -3707,62 +3769,62 @@
       </c>
       <c r="W22" s="14"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="44" t="s">
+      <c r="Y22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="Z22" s="46" t="str">
+      <c r="Z22" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>L</v>
       </c>
-      <c r="AA22" s="43" t="str">
+      <c r="AA22" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AB22" s="46" t="str">
+      <c r="AB22" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AC22" s="46" t="str">
+      <c r="AC22" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB22,INDIRECT(AC$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AD22" s="43" t="str">
+      <c r="AD22" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC22,INDIRECT(AD$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AE22" s="47" t="str">
+      <c r="AE22" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AF22" s="46" t="str">
+      <c r="AF22" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE22,INDIRECT(AF$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AG22" s="43" t="str">
+      <c r="AG22" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AH22" s="43" t="str">
+      <c r="AH22" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AI22" s="43" t="str">
+      <c r="AI22" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>U</v>
       </c>
-      <c r="AJ22" s="46" t="str">
+      <c r="AJ22" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>U</v>
       </c>
-      <c r="AK22" s="46" t="str">
+      <c r="AK22" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
-      <c r="AL22" s="43" t="str">
+      <c r="AL22" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
-      <c r="AM22" s="43" t="str">
+      <c r="AM22" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>P</v>
       </c>
@@ -3773,27 +3835,27 @@
       <c r="AP22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AQ22" s="43" t="str">
+      <c r="AQ22" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP22,INDIRECT(AQ$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AR22" s="43" t="str">
+      <c r="AR22" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ22,INDIRECT(AR$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AS22" s="46" t="str">
+      <c r="AS22" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR22,INDIRECT(AS$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AT22" s="46" t="str">
+      <c r="AT22" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS22,INDIRECT(AT$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AU22" s="43" t="str">
+      <c r="AU22" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT22,INDIRECT(AU$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AV22" s="43" t="str">
+      <c r="AV22" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU22,INDIRECT(AV$9),0))</f>
         <v>N</v>
       </c>
@@ -3806,7 +3868,7 @@
       <c r="A23" s="4">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5"/>
@@ -3822,7 +3884,7 @@
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="G23" s="45" t="str" cm="1">
+      <c r="G23" s="44" t="str" cm="1">
         <f t="array" ref="G23">INDEX($B$11:$B$36,MOD(MATCH(F23,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>M</v>
       </c>
@@ -3839,7 +3901,7 @@
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="L23" s="45" t="str" cm="1">
+      <c r="L23" s="44" t="str" cm="1">
         <f t="array" ref="L23">INDEX($B$11:$B$36,MOD(MATCH(K23,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>M</v>
       </c>
@@ -3856,7 +3918,7 @@
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="Q23" s="45" t="str" cm="1">
+      <c r="Q23" s="44" t="str" cm="1">
         <f t="array" ref="Q23">INDEX($B$11:$B$36,MOD(MATCH(P23,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>M</v>
       </c>
@@ -3875,62 +3937,62 @@
       </c>
       <c r="W23" s="14"/>
       <c r="X23" s="5"/>
-      <c r="Y23" s="44" t="s">
+      <c r="Y23" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="46" t="str">
+      <c r="Z23" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AA23" s="43" t="str">
+      <c r="AA23" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>O</v>
       </c>
-      <c r="AB23" s="46" t="str">
+      <c r="AB23" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>O</v>
       </c>
-      <c r="AC23" s="46" t="str">
+      <c r="AC23" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB23,INDIRECT(AC$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AD23" s="43" t="str">
+      <c r="AD23" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC23,INDIRECT(AD$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AE23" s="47" t="str">
+      <c r="AE23" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Z</v>
       </c>
-      <c r="AF23" s="46" t="str">
+      <c r="AF23" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE23,INDIRECT(AF$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AG23" s="43" t="str">
+      <c r="AG23" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AH23" s="43" t="str">
+      <c r="AH23" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AI23" s="43" t="str">
+      <c r="AI23" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>J</v>
       </c>
-      <c r="AJ23" s="46" t="str">
+      <c r="AJ23" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>J</v>
       </c>
-      <c r="AK23" s="46" t="str">
+      <c r="AK23" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="AL23" s="43" t="str">
+      <c r="AL23" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>B</v>
       </c>
-      <c r="AM23" s="43" t="str">
+      <c r="AM23" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>W</v>
       </c>
@@ -3941,27 +4003,27 @@
       <c r="AP23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AQ23" s="43" t="str">
+      <c r="AQ23" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP23,INDIRECT(AQ$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AR23" s="43" t="str">
+      <c r="AR23" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ23,INDIRECT(AR$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AS23" s="46" t="str">
+      <c r="AS23" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR23,INDIRECT(AS$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AT23" s="46" t="str">
+      <c r="AT23" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS23,INDIRECT(AT$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AU23" s="43" t="str">
+      <c r="AU23" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT23,INDIRECT(AU$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AV23" s="43" t="str">
+      <c r="AV23" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU23,INDIRECT(AV$9),0))</f>
         <v>Q</v>
       </c>
@@ -3974,7 +4036,7 @@
       <c r="A24" s="4">
         <v>13</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5"/>
@@ -3990,7 +4052,7 @@
         <f t="shared" si="1"/>
         <v>N</v>
       </c>
-      <c r="G24" s="45" t="str" cm="1">
+      <c r="G24" s="44" t="str" cm="1">
         <f t="array" ref="G24">INDEX($B$11:$B$36,MOD(MATCH(F24,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>N</v>
       </c>
@@ -4007,7 +4069,7 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="L24" s="45" t="str" cm="1">
+      <c r="L24" s="44" t="str" cm="1">
         <f t="array" ref="L24">INDEX($B$11:$B$36,MOD(MATCH(K24,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>N</v>
       </c>
@@ -4024,7 +4086,7 @@
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="Q24" s="45" t="str" cm="1">
+      <c r="Q24" s="44" t="str" cm="1">
         <f t="array" ref="Q24">INDEX($B$11:$B$36,MOD(MATCH(P24,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>N</v>
       </c>
@@ -4043,62 +4105,62 @@
       </c>
       <c r="W24" s="14"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="44" t="s">
+      <c r="Y24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Z24" s="46" t="str">
+      <c r="Z24" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>N</v>
       </c>
-      <c r="AA24" s="43" t="str">
+      <c r="AA24" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>W</v>
       </c>
-      <c r="AB24" s="46" t="str">
+      <c r="AB24" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>W</v>
       </c>
-      <c r="AC24" s="46" t="str">
+      <c r="AC24" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB24,INDIRECT(AC$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AD24" s="43" t="str">
+      <c r="AD24" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC24,INDIRECT(AD$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AE24" s="47" t="str">
+      <c r="AE24" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>L</v>
       </c>
-      <c r="AF24" s="46" t="str">
+      <c r="AF24" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE24,INDIRECT(AF$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AG24" s="43" t="str">
+      <c r="AG24" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
-      <c r="AH24" s="43" t="str">
+      <c r="AH24" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>G</v>
       </c>
-      <c r="AI24" s="43" t="str">
+      <c r="AI24" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S</v>
       </c>
-      <c r="AJ24" s="46" t="str">
+      <c r="AJ24" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>S</v>
       </c>
-      <c r="AK24" s="46" t="str">
+      <c r="AK24" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="AL24" s="43" t="str">
+      <c r="AL24" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E</v>
       </c>
-      <c r="AM24" s="43" t="str">
+      <c r="AM24" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
@@ -4109,27 +4171,27 @@
       <c r="AP24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AQ24" s="43" t="str">
+      <c r="AQ24" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP24,INDIRECT(AQ$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AR24" s="43" t="str">
+      <c r="AR24" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ24,INDIRECT(AR$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AS24" s="46" t="str">
+      <c r="AS24" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR24,INDIRECT(AS$9),0))</f>
         <v>N</v>
       </c>
-      <c r="AT24" s="46" t="str">
+      <c r="AT24" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS24,INDIRECT(AT$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AU24" s="43" t="str">
+      <c r="AU24" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT24,INDIRECT(AU$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AV24" s="43" t="str">
+      <c r="AV24" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU24,INDIRECT(AV$9),0))</f>
         <v>L</v>
       </c>
@@ -4142,7 +4204,7 @@
       <c r="A25" s="4">
         <v>14</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="5"/>
@@ -4158,7 +4220,7 @@
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-      <c r="G25" s="45" t="str" cm="1">
+      <c r="G25" s="44" t="str" cm="1">
         <f t="array" ref="G25">INDEX($B$11:$B$36,MOD(MATCH(F25,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>O</v>
       </c>
@@ -4175,7 +4237,7 @@
         <f t="shared" si="2"/>
         <v>O</v>
       </c>
-      <c r="L25" s="45" t="str" cm="1">
+      <c r="L25" s="44" t="str" cm="1">
         <f t="array" ref="L25">INDEX($B$11:$B$36,MOD(MATCH(K25,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>O</v>
       </c>
@@ -4192,7 +4254,7 @@
         <f t="shared" si="3"/>
         <v>O</v>
       </c>
-      <c r="Q25" s="45" t="str" cm="1">
+      <c r="Q25" s="44" t="str" cm="1">
         <f t="array" ref="Q25">INDEX($B$11:$B$36,MOD(MATCH(P25,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>O</v>
       </c>
@@ -4211,62 +4273,62 @@
       </c>
       <c r="W25" s="14"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="44" t="s">
+      <c r="Y25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Z25" s="46" t="str">
+      <c r="Z25" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>O</v>
       </c>
-      <c r="AA25" s="43" t="str">
+      <c r="AA25" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AB25" s="46" t="str">
+      <c r="AB25" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AC25" s="46" t="str">
+      <c r="AC25" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB25,INDIRECT(AC$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AD25" s="43" t="str">
+      <c r="AD25" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC25,INDIRECT(AD$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AE25" s="47" t="str">
+      <c r="AE25" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Y</v>
       </c>
-      <c r="AF25" s="46" t="str">
+      <c r="AF25" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE25,INDIRECT(AF$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AG25" s="43" t="str">
+      <c r="AG25" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AH25" s="43" t="str">
+      <c r="AH25" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>A</v>
       </c>
-      <c r="AI25" s="43" t="str">
+      <c r="AI25" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AJ25" s="46" t="str">
+      <c r="AJ25" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AK25" s="46" t="str">
+      <c r="AK25" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AL25" s="43" t="str">
+      <c r="AL25" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AM25" s="43" t="str">
+      <c r="AM25" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
@@ -4277,27 +4339,27 @@
       <c r="AP25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AQ25" s="43" t="str">
+      <c r="AQ25" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP25,INDIRECT(AQ$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AR25" s="43" t="str">
+      <c r="AR25" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ25,INDIRECT(AR$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AS25" s="46" t="str">
+      <c r="AS25" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR25,INDIRECT(AS$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AT25" s="46" t="str">
+      <c r="AT25" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS25,INDIRECT(AT$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AU25" s="43" t="str">
+      <c r="AU25" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT25,INDIRECT(AU$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AV25" s="43" t="str">
+      <c r="AV25" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU25,INDIRECT(AV$9),0))</f>
         <v>S</v>
       </c>
@@ -4310,7 +4372,7 @@
       <c r="A26" s="4">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="5"/>
@@ -4326,7 +4388,7 @@
         <f t="shared" si="1"/>
         <v>P</v>
       </c>
-      <c r="G26" s="45" t="str" cm="1">
+      <c r="G26" s="44" t="str" cm="1">
         <f t="array" ref="G26">INDEX($B$11:$B$36,MOD(MATCH(F26,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>P</v>
       </c>
@@ -4343,7 +4405,7 @@
         <f t="shared" si="2"/>
         <v>P</v>
       </c>
-      <c r="L26" s="45" t="str" cm="1">
+      <c r="L26" s="44" t="str" cm="1">
         <f t="array" ref="L26">INDEX($B$11:$B$36,MOD(MATCH(K26,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>P</v>
       </c>
@@ -4360,7 +4422,7 @@
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
-      <c r="Q26" s="45" t="str" cm="1">
+      <c r="Q26" s="44" t="str" cm="1">
         <f t="array" ref="Q26">INDEX($B$11:$B$36,MOD(MATCH(P26,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>P</v>
       </c>
@@ -4379,62 +4441,62 @@
       </c>
       <c r="W26" s="14"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="44" t="s">
+      <c r="Y26" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Z26" s="46" t="str">
+      <c r="Z26" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P</v>
       </c>
-      <c r="AA26" s="43" t="str">
+      <c r="AA26" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
-      <c r="AB26" s="46" t="str">
+      <c r="AB26" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>H</v>
       </c>
-      <c r="AC26" s="46" t="str">
+      <c r="AC26" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB26,INDIRECT(AC$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AD26" s="43" t="str">
+      <c r="AD26" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC26,INDIRECT(AD$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AE26" s="47" t="str">
+      <c r="AE26" s="46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>K</v>
       </c>
-      <c r="AF26" s="46" t="str">
+      <c r="AF26" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE26,INDIRECT(AF$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AG26" s="43" t="str">
+      <c r="AG26" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AH26" s="43" t="str">
+      <c r="AH26" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AI26" s="43" t="str">
+      <c r="AI26" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AJ26" s="46" t="str">
+      <c r="AJ26" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>N</v>
       </c>
-      <c r="AK26" s="46" t="str">
+      <c r="AK26" s="45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AL26" s="43" t="str">
+      <c r="AL26" s="42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>T</v>
       </c>
-      <c r="AM26" s="43" t="str">
+      <c r="AM26" s="42" t="str">
         <f t="shared" ref="AA26:AN36" ca="1" si="5">INDEX(INDIRECT(AM$8),MATCH(AL26,INDIRECT(AM$9),0))</f>
         <v>L</v>
       </c>
@@ -4445,27 +4507,27 @@
       <c r="AP26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AQ26" s="43" t="str">
+      <c r="AQ26" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP26,INDIRECT(AQ$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AR26" s="43" t="str">
+      <c r="AR26" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ26,INDIRECT(AR$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AS26" s="46" t="str">
+      <c r="AS26" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR26,INDIRECT(AS$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AT26" s="46" t="str">
+      <c r="AT26" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS26,INDIRECT(AT$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AU26" s="43" t="str">
+      <c r="AU26" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT26,INDIRECT(AU$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AV26" s="43" t="str">
+      <c r="AV26" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU26,INDIRECT(AV$9),0))</f>
         <v>E</v>
       </c>
@@ -4478,7 +4540,7 @@
       <c r="A27" s="4">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="5"/>
@@ -4494,7 +4556,7 @@
         <f t="shared" si="1"/>
         <v>Q</v>
       </c>
-      <c r="G27" s="45" t="str" cm="1">
+      <c r="G27" s="44" t="str" cm="1">
         <f t="array" ref="G27">INDEX($B$11:$B$36,MOD(MATCH(F27,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>Q</v>
       </c>
@@ -4511,7 +4573,7 @@
         <f t="shared" si="2"/>
         <v>Q</v>
       </c>
-      <c r="L27" s="45" t="str" cm="1">
+      <c r="L27" s="44" t="str" cm="1">
         <f t="array" ref="L27">INDEX($B$11:$B$36,MOD(MATCH(K27,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>Q</v>
       </c>
@@ -4528,7 +4590,7 @@
         <f t="shared" si="3"/>
         <v>Q</v>
       </c>
-      <c r="Q27" s="45" t="str" cm="1">
+      <c r="Q27" s="44" t="str" cm="1">
         <f t="array" ref="Q27">INDEX($B$11:$B$36,MOD(MATCH(P27,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>Q</v>
       </c>
@@ -4547,62 +4609,62 @@
       </c>
       <c r="W27" s="14"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="44" t="s">
+      <c r="Y27" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Z27" s="46" t="str">
+      <c r="Z27" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Q</v>
       </c>
-      <c r="AA27" s="43" t="str">
+      <c r="AA27" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AB27" s="46" t="str">
+      <c r="AB27" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AC27" s="46" t="str">
+      <c r="AC27" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB27,INDIRECT(AC$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AD27" s="43" t="str">
+      <c r="AD27" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC27,INDIRECT(AD$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AE27" s="47" t="str">
+      <c r="AE27" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AF27" s="46" t="str">
+      <c r="AF27" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE27,INDIRECT(AF$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AG27" s="43" t="str">
+      <c r="AG27" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AH27" s="43" t="str">
+      <c r="AH27" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AI27" s="43" t="str">
+      <c r="AI27" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AJ27" s="46" t="str">
+      <c r="AJ27" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AK27" s="46" t="str">
+      <c r="AK27" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AL27" s="43" t="str">
+      <c r="AL27" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AM27" s="43" t="str">
+      <c r="AM27" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
@@ -4613,27 +4675,27 @@
       <c r="AP27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AQ27" s="43" t="str">
+      <c r="AQ27" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP27,INDIRECT(AQ$9),0))</f>
         <v>Q</v>
       </c>
-      <c r="AR27" s="43" t="str">
+      <c r="AR27" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ27,INDIRECT(AR$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AS27" s="46" t="str">
+      <c r="AS27" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR27,INDIRECT(AS$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AT27" s="46" t="str">
+      <c r="AT27" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS27,INDIRECT(AT$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AU27" s="43" t="str">
+      <c r="AU27" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT27,INDIRECT(AU$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AV27" s="43" t="str">
+      <c r="AV27" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU27,INDIRECT(AV$9),0))</f>
         <v>I</v>
       </c>
@@ -4646,7 +4708,7 @@
       <c r="A28" s="4">
         <v>17</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="5"/>
@@ -4662,7 +4724,7 @@
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="G28" s="45" t="str" cm="1">
+      <c r="G28" s="44" t="str" cm="1">
         <f t="array" ref="G28">INDEX($B$11:$B$36,MOD(MATCH(F28,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>R</v>
       </c>
@@ -4679,7 +4741,7 @@
         <f t="shared" si="2"/>
         <v>R</v>
       </c>
-      <c r="L28" s="45" t="str" cm="1">
+      <c r="L28" s="44" t="str" cm="1">
         <f t="array" ref="L28">INDEX($B$11:$B$36,MOD(MATCH(K28,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>R</v>
       </c>
@@ -4696,7 +4758,7 @@
         <f t="shared" si="3"/>
         <v>R</v>
       </c>
-      <c r="Q28" s="45" t="str" cm="1">
+      <c r="Q28" s="44" t="str" cm="1">
         <f t="array" ref="Q28">INDEX($B$11:$B$36,MOD(MATCH(P28,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>R</v>
       </c>
@@ -4715,62 +4777,62 @@
       </c>
       <c r="W28" s="14"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="44" t="s">
+      <c r="Y28" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="Z28" s="46" t="str">
+      <c r="Z28" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>R</v>
       </c>
-      <c r="AA28" s="43" t="str">
+      <c r="AA28" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>U</v>
       </c>
-      <c r="AB28" s="46" t="str">
+      <c r="AB28" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>U</v>
       </c>
-      <c r="AC28" s="46" t="str">
+      <c r="AC28" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB28,INDIRECT(AC$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AD28" s="43" t="str">
+      <c r="AD28" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC28,INDIRECT(AD$9),0))</f>
         <v>P</v>
       </c>
-      <c r="AE28" s="47" t="str">
+      <c r="AE28" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>E</v>
       </c>
-      <c r="AF28" s="46" t="str">
+      <c r="AF28" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE28,INDIRECT(AF$9),0))</f>
         <v>E</v>
       </c>
-      <c r="AG28" s="43" t="str">
+      <c r="AG28" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AH28" s="43" t="str">
+      <c r="AH28" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AI28" s="43" t="str">
+      <c r="AI28" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Y</v>
       </c>
-      <c r="AJ28" s="46" t="str">
+      <c r="AJ28" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Y</v>
       </c>
-      <c r="AK28" s="46" t="str">
+      <c r="AK28" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
-      <c r="AL28" s="43" t="str">
+      <c r="AL28" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
-      <c r="AM28" s="43" t="str">
+      <c r="AM28" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
@@ -4781,27 +4843,27 @@
       <c r="AP28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AQ28" s="43" t="str">
+      <c r="AQ28" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP28,INDIRECT(AQ$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AR28" s="43" t="str">
+      <c r="AR28" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ28,INDIRECT(AR$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AS28" s="46" t="str">
+      <c r="AS28" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR28,INDIRECT(AS$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AT28" s="46" t="str">
+      <c r="AT28" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS28,INDIRECT(AT$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AU28" s="43" t="str">
+      <c r="AU28" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT28,INDIRECT(AU$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AV28" s="43" t="str">
+      <c r="AV28" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU28,INDIRECT(AV$9),0))</f>
         <v>D</v>
       </c>
@@ -4814,7 +4876,7 @@
       <c r="A29" s="4">
         <v>18</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="5"/>
@@ -4830,7 +4892,7 @@
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="G29" s="45" t="str" cm="1">
+      <c r="G29" s="44" t="str" cm="1">
         <f t="array" ref="G29">INDEX($B$11:$B$36,MOD(MATCH(F29,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>S</v>
       </c>
@@ -4847,7 +4909,7 @@
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="L29" s="45" t="str" cm="1">
+      <c r="L29" s="44" t="str" cm="1">
         <f t="array" ref="L29">INDEX($B$11:$B$36,MOD(MATCH(K29,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>S</v>
       </c>
@@ -4864,7 +4926,7 @@
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="Q29" s="45" t="str" cm="1">
+      <c r="Q29" s="44" t="str" cm="1">
         <f t="array" ref="Q29">INDEX($B$11:$B$36,MOD(MATCH(P29,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>S</v>
       </c>
@@ -4883,62 +4945,62 @@
       </c>
       <c r="W29" s="14"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="44" t="s">
+      <c r="Y29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Z29" s="46" t="str">
+      <c r="Z29" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AA29" s="43" t="str">
+      <c r="AA29" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AB29" s="46" t="str">
+      <c r="AB29" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AC29" s="46" t="str">
+      <c r="AC29" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB29,INDIRECT(AC$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AD29" s="43" t="str">
+      <c r="AD29" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC29,INDIRECT(AD$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AE29" s="47" t="str">
+      <c r="AE29" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AF29" s="46" t="str">
+      <c r="AF29" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE29,INDIRECT(AF$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AG29" s="43" t="str">
+      <c r="AG29" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AH29" s="43" t="str">
+      <c r="AH29" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AI29" s="43" t="str">
+      <c r="AI29" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
-      <c r="AJ29" s="46" t="str">
+      <c r="AJ29" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
-      <c r="AK29" s="46" t="str">
+      <c r="AK29" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AL29" s="43" t="str">
+      <c r="AL29" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AM29" s="43" t="str">
+      <c r="AM29" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Q</v>
       </c>
@@ -4949,27 +5011,27 @@
       <c r="AP29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AQ29" s="43" t="str">
+      <c r="AQ29" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP29,INDIRECT(AQ$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AR29" s="43" t="str">
+      <c r="AR29" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ29,INDIRECT(AR$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AS29" s="46" t="str">
+      <c r="AS29" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR29,INDIRECT(AS$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AT29" s="46" t="str">
+      <c r="AT29" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS29,INDIRECT(AT$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AU29" s="43" t="str">
+      <c r="AU29" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT29,INDIRECT(AU$9),0))</f>
         <v>I</v>
       </c>
-      <c r="AV29" s="43" t="str">
+      <c r="AV29" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU29,INDIRECT(AV$9),0))</f>
         <v>V</v>
       </c>
@@ -4982,7 +5044,7 @@
       <c r="A30" s="4">
         <v>19</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="5"/>
@@ -4998,7 +5060,7 @@
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="G30" s="45" t="str" cm="1">
+      <c r="G30" s="44" t="str" cm="1">
         <f t="array" ref="G30">INDEX($B$11:$B$36,MOD(MATCH(F30,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>T</v>
       </c>
@@ -5015,7 +5077,7 @@
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="L30" s="45" t="str" cm="1">
+      <c r="L30" s="44" t="str" cm="1">
         <f t="array" ref="L30">INDEX($B$11:$B$36,MOD(MATCH(K30,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>T</v>
       </c>
@@ -5032,7 +5094,7 @@
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="Q30" s="45" t="str" cm="1">
+      <c r="Q30" s="44" t="str" cm="1">
         <f t="array" ref="Q30">INDEX($B$11:$B$36,MOD(MATCH(P30,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>T</v>
       </c>
@@ -5051,62 +5113,62 @@
       </c>
       <c r="W30" s="14"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="44" t="s">
+      <c r="Y30" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Z30" s="46" t="str">
+      <c r="Z30" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AA30" s="43" t="str">
+      <c r="AA30" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>P</v>
       </c>
-      <c r="AB30" s="46" t="str">
+      <c r="AB30" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>P</v>
       </c>
-      <c r="AC30" s="46" t="str">
+      <c r="AC30" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB30,INDIRECT(AC$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AD30" s="43" t="str">
+      <c r="AD30" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC30,INDIRECT(AD$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AE30" s="47" t="str">
+      <c r="AE30" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
       </c>
-      <c r="AF30" s="46" t="str">
+      <c r="AF30" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE30,INDIRECT(AF$9),0))</f>
         <v>F</v>
       </c>
-      <c r="AG30" s="43" t="str">
+      <c r="AG30" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AH30" s="43" t="str">
+      <c r="AH30" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AI30" s="43" t="str">
+      <c r="AI30" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AJ30" s="46" t="str">
+      <c r="AJ30" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AK30" s="46" t="str">
+      <c r="AK30" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AL30" s="43" t="str">
+      <c r="AL30" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AM30" s="43" t="str">
+      <c r="AM30" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
@@ -5117,27 +5179,27 @@
       <c r="AP30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AQ30" s="43" t="str">
+      <c r="AQ30" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP30,INDIRECT(AQ$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AR30" s="43" t="str">
+      <c r="AR30" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ30,INDIRECT(AR$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AS30" s="46" t="str">
+      <c r="AS30" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR30,INDIRECT(AS$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AT30" s="46" t="str">
+      <c r="AT30" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS30,INDIRECT(AT$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AU30" s="43" t="str">
+      <c r="AU30" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT30,INDIRECT(AU$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AV30" s="43" t="str">
+      <c r="AV30" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU30,INDIRECT(AV$9),0))</f>
         <v>W</v>
       </c>
@@ -5150,7 +5212,7 @@
       <c r="A31" s="4">
         <v>20</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="5"/>
@@ -5166,7 +5228,7 @@
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
-      <c r="G31" s="45" t="str" cm="1">
+      <c r="G31" s="44" t="str" cm="1">
         <f t="array" ref="G31">INDEX($B$11:$B$36,MOD(MATCH(F31,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>U</v>
       </c>
@@ -5183,7 +5245,7 @@
         <f t="shared" si="2"/>
         <v>U</v>
       </c>
-      <c r="L31" s="45" t="str" cm="1">
+      <c r="L31" s="44" t="str" cm="1">
         <f t="array" ref="L31">INDEX($B$11:$B$36,MOD(MATCH(K31,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>U</v>
       </c>
@@ -5200,7 +5262,7 @@
         <f t="shared" si="3"/>
         <v>U</v>
       </c>
-      <c r="Q31" s="45" t="str" cm="1">
+      <c r="Q31" s="44" t="str" cm="1">
         <f t="array" ref="Q31">INDEX($B$11:$B$36,MOD(MATCH(P31,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>U</v>
       </c>
@@ -5219,62 +5281,62 @@
       </c>
       <c r="W31" s="14"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="44" t="s">
+      <c r="Y31" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="Z31" s="46" t="str">
+      <c r="Z31" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>U</v>
       </c>
-      <c r="AA31" s="43" t="str">
+      <c r="AA31" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>A</v>
       </c>
-      <c r="AB31" s="46" t="str">
+      <c r="AB31" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>A</v>
       </c>
-      <c r="AC31" s="46" t="str">
+      <c r="AC31" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB31,INDIRECT(AC$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AD31" s="43" t="str">
+      <c r="AD31" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC31,INDIRECT(AD$9),0))</f>
         <v>A</v>
       </c>
-      <c r="AE31" s="47" t="str">
+      <c r="AE31" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>B</v>
       </c>
-      <c r="AF31" s="46" t="str">
+      <c r="AF31" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE31,INDIRECT(AF$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AG31" s="43" t="str">
+      <c r="AG31" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>R</v>
       </c>
-      <c r="AH31" s="43" t="str">
+      <c r="AH31" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>R</v>
       </c>
-      <c r="AI31" s="43" t="str">
+      <c r="AI31" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AJ31" s="46" t="str">
+      <c r="AJ31" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AK31" s="46" t="str">
+      <c r="AK31" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
       </c>
-      <c r="AL31" s="43" t="str">
+      <c r="AL31" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
       </c>
-      <c r="AM31" s="43" t="str">
+      <c r="AM31" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
@@ -5285,27 +5347,27 @@
       <c r="AP31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AQ31" s="43" t="str">
+      <c r="AQ31" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP31,INDIRECT(AQ$9),0))</f>
         <v>U</v>
       </c>
-      <c r="AR31" s="43" t="str">
+      <c r="AR31" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ31,INDIRECT(AR$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AS31" s="46" t="str">
+      <c r="AS31" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR31,INDIRECT(AS$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AT31" s="46" t="str">
+      <c r="AT31" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS31,INDIRECT(AT$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AU31" s="43" t="str">
+      <c r="AU31" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT31,INDIRECT(AU$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AV31" s="43" t="str">
+      <c r="AV31" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU31,INDIRECT(AV$9),0))</f>
         <v>C</v>
       </c>
@@ -5318,7 +5380,7 @@
       <c r="A32" s="4">
         <v>21</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="5"/>
@@ -5334,7 +5396,7 @@
         <f t="shared" si="1"/>
         <v>V</v>
       </c>
-      <c r="G32" s="45" t="str" cm="1">
+      <c r="G32" s="44" t="str" cm="1">
         <f t="array" ref="G32">INDEX($B$11:$B$36,MOD(MATCH(F32,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>V</v>
       </c>
@@ -5351,7 +5413,7 @@
         <f t="shared" si="2"/>
         <v>V</v>
       </c>
-      <c r="L32" s="45" t="str" cm="1">
+      <c r="L32" s="44" t="str" cm="1">
         <f t="array" ref="L32">INDEX($B$11:$B$36,MOD(MATCH(K32,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>V</v>
       </c>
@@ -5368,7 +5430,7 @@
         <f t="shared" si="3"/>
         <v>V</v>
       </c>
-      <c r="Q32" s="45" t="str" cm="1">
+      <c r="Q32" s="44" t="str" cm="1">
         <f t="array" ref="Q32">INDEX($B$11:$B$36,MOD(MATCH(P32,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>V</v>
       </c>
@@ -5387,62 +5449,62 @@
       </c>
       <c r="W32" s="14"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="44" t="s">
+      <c r="Y32" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z32" s="46" t="str">
+      <c r="Z32" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>V</v>
       </c>
-      <c r="AA32" s="43" t="str">
+      <c r="AA32" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AB32" s="46" t="str">
+      <c r="AB32" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AC32" s="46" t="str">
+      <c r="AC32" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB32,INDIRECT(AC$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AD32" s="43" t="str">
+      <c r="AD32" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC32,INDIRECT(AD$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AE32" s="47" t="str">
+      <c r="AE32" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>S</v>
       </c>
-      <c r="AF32" s="46" t="str">
+      <c r="AF32" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE32,INDIRECT(AF$9),0))</f>
         <v>S</v>
       </c>
-      <c r="AG32" s="43" t="str">
+      <c r="AG32" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
       </c>
-      <c r="AH32" s="43" t="str">
+      <c r="AH32" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>F</v>
       </c>
-      <c r="AI32" s="43" t="str">
+      <c r="AI32" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AJ32" s="46" t="str">
+      <c r="AJ32" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AK32" s="46" t="str">
+      <c r="AK32" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>P</v>
       </c>
-      <c r="AL32" s="43" t="str">
+      <c r="AL32" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>P</v>
       </c>
-      <c r="AM32" s="43" t="str">
+      <c r="AM32" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>T</v>
       </c>
@@ -5453,27 +5515,27 @@
       <c r="AP32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AQ32" s="43" t="str">
+      <c r="AQ32" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP32,INDIRECT(AQ$9),0))</f>
         <v>V</v>
       </c>
-      <c r="AR32" s="43" t="str">
+      <c r="AR32" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ32,INDIRECT(AR$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AS32" s="46" t="str">
+      <c r="AS32" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR32,INDIRECT(AS$9),0))</f>
         <v>L</v>
       </c>
-      <c r="AT32" s="46" t="str">
+      <c r="AT32" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS32,INDIRECT(AT$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AU32" s="43" t="str">
+      <c r="AU32" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT32,INDIRECT(AU$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AV32" s="43" t="str">
+      <c r="AV32" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU32,INDIRECT(AV$9),0))</f>
         <v>B</v>
       </c>
@@ -5486,7 +5548,7 @@
       <c r="A33" s="4">
         <v>22</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="5"/>
@@ -5502,7 +5564,7 @@
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="G33" s="45" t="str" cm="1">
+      <c r="G33" s="44" t="str" cm="1">
         <f t="array" ref="G33">INDEX($B$11:$B$36,MOD(MATCH(F33,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>W</v>
       </c>
@@ -5519,7 +5581,7 @@
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="L33" s="45" t="str" cm="1">
+      <c r="L33" s="44" t="str" cm="1">
         <f t="array" ref="L33">INDEX($B$11:$B$36,MOD(MATCH(K33,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>W</v>
       </c>
@@ -5536,7 +5598,7 @@
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="Q33" s="45" t="str" cm="1">
+      <c r="Q33" s="44" t="str" cm="1">
         <f t="array" ref="Q33">INDEX($B$11:$B$36,MOD(MATCH(P33,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>W</v>
       </c>
@@ -5555,62 +5617,62 @@
       </c>
       <c r="W33" s="14"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="44" t="s">
+      <c r="Y33" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Z33" s="46" t="str">
+      <c r="Z33" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="AA33" s="43" t="str">
+      <c r="AA33" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>B</v>
       </c>
-      <c r="AB33" s="46" t="str">
+      <c r="AB33" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>B</v>
       </c>
-      <c r="AC33" s="46" t="str">
+      <c r="AC33" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB33,INDIRECT(AC$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AD33" s="43" t="str">
+      <c r="AD33" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC33,INDIRECT(AD$9),0))</f>
         <v>J</v>
       </c>
-      <c r="AE33" s="47" t="str">
+      <c r="AE33" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>T</v>
       </c>
-      <c r="AF33" s="46" t="str">
+      <c r="AF33" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE33,INDIRECT(AF$9),0))</f>
         <v>T</v>
       </c>
-      <c r="AG33" s="43" t="str">
+      <c r="AG33" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AH33" s="43" t="str">
+      <c r="AH33" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AI33" s="43" t="str">
+      <c r="AI33" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AJ33" s="46" t="str">
+      <c r="AJ33" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AK33" s="46" t="str">
+      <c r="AK33" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AL33" s="43" t="str">
+      <c r="AL33" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AM33" s="43" t="str">
+      <c r="AM33" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
@@ -5621,27 +5683,27 @@
       <c r="AP33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AQ33" s="43" t="str">
+      <c r="AQ33" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP33,INDIRECT(AQ$9),0))</f>
         <v>W</v>
       </c>
-      <c r="AR33" s="43" t="str">
+      <c r="AR33" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ33,INDIRECT(AR$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AS33" s="46" t="str">
+      <c r="AS33" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR33,INDIRECT(AS$9),0))</f>
         <v>R</v>
       </c>
-      <c r="AT33" s="46" t="str">
+      <c r="AT33" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS33,INDIRECT(AT$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AU33" s="43" t="str">
+      <c r="AU33" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT33,INDIRECT(AU$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AV33" s="43" t="str">
+      <c r="AV33" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU33,INDIRECT(AV$9),0))</f>
         <v>F</v>
       </c>
@@ -5654,7 +5716,7 @@
       <c r="A34" s="4">
         <v>23</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="5"/>
@@ -5670,7 +5732,7 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="G34" s="45" t="str" cm="1">
+      <c r="G34" s="44" t="str" cm="1">
         <f t="array" ref="G34">INDEX($B$11:$B$36,MOD(MATCH(F34,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>X</v>
       </c>
@@ -5687,7 +5749,7 @@
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="L34" s="45" t="str" cm="1">
+      <c r="L34" s="44" t="str" cm="1">
         <f t="array" ref="L34">INDEX($B$11:$B$36,MOD(MATCH(K34,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>X</v>
       </c>
@@ -5704,7 +5766,7 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="Q34" s="45" t="str" cm="1">
+      <c r="Q34" s="44" t="str" cm="1">
         <f t="array" ref="Q34">INDEX($B$11:$B$36,MOD(MATCH(P34,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>X</v>
       </c>
@@ -5723,62 +5785,62 @@
       </c>
       <c r="W34" s="14"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="44" t="s">
+      <c r="Y34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="Z34" s="46" t="str">
+      <c r="Z34" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
-      <c r="AA34" s="43" t="str">
+      <c r="AA34" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>R</v>
       </c>
-      <c r="AB34" s="46" t="str">
+      <c r="AB34" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>R</v>
       </c>
-      <c r="AC34" s="46" t="str">
+      <c r="AC34" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB34,INDIRECT(AC$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AD34" s="43" t="str">
+      <c r="AD34" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC34,INDIRECT(AD$9),0))</f>
         <v>G</v>
       </c>
-      <c r="AE34" s="47" t="str">
+      <c r="AE34" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AF34" s="46" t="str">
+      <c r="AF34" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE34,INDIRECT(AF$9),0))</f>
         <v>C</v>
       </c>
-      <c r="AG34" s="43" t="str">
+      <c r="AG34" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>U</v>
       </c>
-      <c r="AH34" s="43" t="str">
+      <c r="AH34" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>U</v>
       </c>
-      <c r="AI34" s="43" t="str">
+      <c r="AI34" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>W</v>
       </c>
-      <c r="AJ34" s="46" t="str">
+      <c r="AJ34" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>W</v>
       </c>
-      <c r="AK34" s="46" t="str">
+      <c r="AK34" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AL34" s="43" t="str">
+      <c r="AL34" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AM34" s="43" t="str">
+      <c r="AM34" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
@@ -5789,27 +5851,27 @@
       <c r="AP34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AQ34" s="43" t="str">
+      <c r="AQ34" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP34,INDIRECT(AQ$9),0))</f>
         <v>X</v>
       </c>
-      <c r="AR34" s="43" t="str">
+      <c r="AR34" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ34,INDIRECT(AR$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AS34" s="46" t="str">
+      <c r="AS34" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR34,INDIRECT(AS$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AT34" s="46" t="str">
+      <c r="AT34" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS34,INDIRECT(AT$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AU34" s="43" t="str">
+      <c r="AU34" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT34,INDIRECT(AU$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AV34" s="43" t="str">
+      <c r="AV34" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU34,INDIRECT(AV$9),0))</f>
         <v>G</v>
       </c>
@@ -5822,7 +5884,7 @@
       <c r="A35" s="4">
         <v>24</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="5"/>
@@ -5838,7 +5900,7 @@
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="G35" s="45" t="str" cm="1">
+      <c r="G35" s="44" t="str" cm="1">
         <f t="array" ref="G35">INDEX($B$11:$B$36,MOD(MATCH(F35,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>Y</v>
       </c>
@@ -5855,7 +5917,7 @@
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="L35" s="45" t="str" cm="1">
+      <c r="L35" s="44" t="str" cm="1">
         <f t="array" ref="L35">INDEX($B$11:$B$36,MOD(MATCH(K35,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>Y</v>
       </c>
@@ -5872,7 +5934,7 @@
         <f t="shared" si="3"/>
         <v>Y</v>
       </c>
-      <c r="Q35" s="45" t="str" cm="1">
+      <c r="Q35" s="44" t="str" cm="1">
         <f t="array" ref="Q35">INDEX($B$11:$B$36,MOD(MATCH(P35,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>Y</v>
       </c>
@@ -5891,62 +5953,62 @@
       </c>
       <c r="W35" s="14"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="44" t="s">
+      <c r="Y35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Z35" s="46" t="str">
+      <c r="Z35" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Y</v>
       </c>
-      <c r="AA35" s="43" t="str">
+      <c r="AA35" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AB35" s="46" t="str">
+      <c r="AB35" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AC35" s="46" t="str">
+      <c r="AC35" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB35,INDIRECT(AC$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AD35" s="43" t="str">
+      <c r="AD35" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC35,INDIRECT(AD$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AE35" s="47" t="str">
+      <c r="AE35" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>H</v>
       </c>
-      <c r="AF35" s="46" t="str">
+      <c r="AF35" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE35,INDIRECT(AF$9),0))</f>
         <v>H</v>
       </c>
-      <c r="AG35" s="43" t="str">
+      <c r="AG35" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
-      <c r="AH35" s="43" t="str">
+      <c r="AH35" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
-      <c r="AI35" s="43" t="str">
+      <c r="AI35" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>B</v>
       </c>
-      <c r="AJ35" s="46" t="str">
+      <c r="AJ35" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>B</v>
       </c>
-      <c r="AK35" s="46" t="str">
+      <c r="AK35" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AL35" s="43" t="str">
+      <c r="AL35" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AM35" s="43" t="str">
+      <c r="AM35" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
@@ -5957,27 +6019,27 @@
       <c r="AP35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AQ35" s="43" t="str">
+      <c r="AQ35" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP35,INDIRECT(AQ$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AR35" s="43" t="str">
+      <c r="AR35" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ35,INDIRECT(AR$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AS35" s="46" t="str">
+      <c r="AS35" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR35,INDIRECT(AS$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AT35" s="46" t="str">
+      <c r="AT35" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS35,INDIRECT(AT$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AU35" s="43" t="str">
+      <c r="AU35" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT35,INDIRECT(AU$9),0))</f>
         <v>Y</v>
       </c>
-      <c r="AV35" s="43" t="str">
+      <c r="AV35" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU35,INDIRECT(AV$9),0))</f>
         <v>O</v>
       </c>
@@ -5990,7 +6052,7 @@
       <c r="A36" s="4">
         <v>25</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="5"/>
@@ -6006,7 +6068,7 @@
         <f t="shared" si="1"/>
         <v>Z</v>
       </c>
-      <c r="G36" s="45" t="str" cm="1">
+      <c r="G36" s="44" t="str" cm="1">
         <f t="array" ref="G36">INDEX($B$11:$B$36,MOD(MATCH(F36,$B$11:$B$36,0)+G$9-1,26)+1)</f>
         <v>Z</v>
       </c>
@@ -6023,7 +6085,7 @@
         <f t="shared" si="2"/>
         <v>Z</v>
       </c>
-      <c r="L36" s="45" t="str" cm="1">
+      <c r="L36" s="44" t="str" cm="1">
         <f t="array" ref="L36">INDEX($B$11:$B$36,MOD(MATCH(K36,$B$11:$B$36,0)+L$9-1,26)+1)</f>
         <v>Z</v>
       </c>
@@ -6040,7 +6102,7 @@
         <f t="shared" si="3"/>
         <v>Z</v>
       </c>
-      <c r="Q36" s="45" t="str" cm="1">
+      <c r="Q36" s="44" t="str" cm="1">
         <f t="array" ref="Q36">INDEX($B$11:$B$36,MOD(MATCH(P36,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
         <v>Z</v>
       </c>
@@ -6059,62 +6121,62 @@
       </c>
       <c r="W36" s="14"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="44" t="s">
+      <c r="Y36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="Z36" s="46" t="str">
+      <c r="Z36" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Z</v>
       </c>
-      <c r="AA36" s="43" t="str">
+      <c r="AA36" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AB36" s="46" t="str">
+      <c r="AB36" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AC36" s="46" t="str">
+      <c r="AC36" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB36,INDIRECT(AC$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AD36" s="43" t="str">
+      <c r="AD36" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC36,INDIRECT(AD$9),0))</f>
         <v>B</v>
       </c>
-      <c r="AE36" s="47" t="str">
+      <c r="AE36" s="46" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
-      <c r="AF36" s="46" t="str">
+      <c r="AF36" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE36,INDIRECT(AF$9),0))</f>
         <v>D</v>
       </c>
-      <c r="AG36" s="43" t="str">
+      <c r="AG36" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>H</v>
       </c>
-      <c r="AH36" s="43" t="str">
+      <c r="AH36" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>H</v>
       </c>
-      <c r="AI36" s="43" t="str">
+      <c r="AI36" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
-      <c r="AJ36" s="46" t="str">
+      <c r="AJ36" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
-      <c r="AK36" s="46" t="str">
+      <c r="AK36" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AL36" s="43" t="str">
+      <c r="AL36" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AM36" s="43" t="str">
+      <c r="AM36" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Y</v>
       </c>
@@ -6125,27 +6187,27 @@
       <c r="AP36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AQ36" s="43" t="str">
+      <c r="AQ36" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP36,INDIRECT(AQ$9),0))</f>
         <v>Z</v>
       </c>
-      <c r="AR36" s="43" t="str">
+      <c r="AR36" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ36,INDIRECT(AR$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AS36" s="46" t="str">
+      <c r="AS36" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR36,INDIRECT(AS$9),0))</f>
         <v>M</v>
       </c>
-      <c r="AT36" s="46" t="str">
+      <c r="AT36" s="45" t="str">
         <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS36,INDIRECT(AT$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AU36" s="43" t="str">
+      <c r="AU36" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT36,INDIRECT(AU$9),0))</f>
         <v>O</v>
       </c>
-      <c r="AV36" s="43" t="str">
+      <c r="AV36" s="42" t="str">
         <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU36,INDIRECT(AV$9),0))</f>
         <v>M</v>
       </c>
@@ -6434,29 +6496,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AA8BFE-6BE6-B34A-9E40-7DA2717E7B1E}">
-  <dimension ref="A3:K7"/>
+  <dimension ref="A5:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="str">
         <f>Enigma!D1</f>
         <v>D</v>
@@ -6465,74 +6523,99 @@
         <f>Enigma!E1</f>
         <v>E</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="str">
         <f>Enigma!G1</f>
         <v>G</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="str">
         <f>Enigma!I1</f>
         <v>I</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="H5" s="2" t="str">
         <f>Enigma!J1</f>
         <v>J</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="str">
         <f>Enigma!L1</f>
         <v>L</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="str">
         <f>Enigma!N1</f>
         <v>N</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f>Enigma!O1</f>
         <v>O</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="str">
         <f>Enigma!Q1</f>
         <v>Q</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="str">
         <f>Enigma!U1</f>
         <v>U</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="M6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="str">
-        <f>_xlfn.CONCAT(C7,"-",F7,"-",I7,"=",K7," / ",B7,"-",E7,"-",H7," / ",D7,"-",G7,"-",J7)</f>
+        <f>_xlfn.CONCAT(C7,"-",H7,"-",M7,"=",S7," / ",B7,"-",G7,"-",L7," / ",E7,"-",J7,"-",O7)</f>
         <v>I-II-III=B / 0-0-0 / 0-0-0</v>
       </c>
       <c r="B7" s="10">
@@ -6541,29 +6624,476 @@
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="H7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="10">
         <v>0</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="s">
         <v>1</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="str">
+        <f t="shared" ref="A8:A25" si="0">_xlfn.CONCAT(C8,"-",H8,"-",M8,"=",S8," / ",B8,"-",G8,"-",L8," / ",E8,"-",J8,"-",O8)</f>
+        <v>I-II-III=B / 1-0-0 / 0-0-0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="str">
+        <f>_xlfn.CONCAT(C9,"-",H9,"-",M9,"=",S9," / ",B9,"-",G9,"-",L9," / ",E9,"-",J9,"-",O9)</f>
+        <v>I-II-III=B / 0-10-0 / 0-0-0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I-II-III=B / 0-0-13 / 0-0-0</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I-II-III=B / 0-0-0 / 24-0-0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I-II-III=B / 0-0-0 / 0-1-0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I-II-III=B / 0-0-0 / 0-0-15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="O13" s="10">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I-II-III=B / 3-5-7 / 9-7-5</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="10">
+        <v>7</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="10">
+        <v>7</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>--= / -- / --</v>
       </c>
     </row>
   </sheetData>

--- a/rotor-ring-map-remapped.xlsx
+++ b/rotor-ring-map-remapped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D6DCE-2A34-1E46-8E4D-CF830F3C0921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2D33E-194F-0B45-89F4-51A48B9816A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -308,9 +308,6 @@
     <t>Lring</t>
   </si>
   <si>
-    <t>I-II-III=B / 0-0-0 / 0-0-0</t>
-  </si>
-  <si>
     <t>GVURPWXIQJANZLYKMEOFBSTCHD</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>SVJTUXYWOCNZRKIQPMADEBHFGL</t>
   </si>
   <si>
-    <t>UBZFMSDIKLCEQARYXOHJPVNGTW</t>
-  </si>
-  <si>
     <t>KGLDXSHTIJEWRUMOFYAVZQPCNB</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>UWZNJYRPKEISTDQHOGLMAXBVFC</t>
   </si>
   <si>
-    <t>LQTMKJSHVWCBOGDPRFZENXUAIY</t>
-  </si>
-  <si>
     <t>UMPBQGCWIJVZSXLKOTRNHYFEAD</t>
   </si>
   <si>
@@ -383,17 +374,26 @@
     <t>ENRIATQLDWPHOBMKGCZFYXJVUS</t>
   </si>
   <si>
-    <t>HUPAGFMDTEJQSIOLCBXNVRKWYZ</t>
-  </si>
-  <si>
     <t>PGTOCLVMIBUXSYZDRQHJFEANKW</t>
+  </si>
+  <si>
+    <t>YDGZXWFUIJPOBTQCESMRAKHNVL</t>
+  </si>
+  <si>
+    <t>WJEPVUBSITYFHXDARQMCKGZLNO</t>
+  </si>
+  <si>
+    <t>I-II-III=B / DFH / JHF</t>
+  </si>
+  <si>
+    <t>SZXDKQBGIJACOYPWVMFHNTLERU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,6 +485,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="American Typewriter"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -560,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -706,6 +719,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,14 +1042,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEB03A6-2973-F843-A284-ADB6AB420C22}">
   <dimension ref="A1:AW77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.6640625" style="2" customWidth="1"/>
     <col min="6" max="7" width="4.6640625" style="13" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" style="2" customWidth="1"/>
@@ -1176,6 +1196,10 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="H3" s="8"/>
+      <c r="AB3" s="2" t="str">
+        <f ca="1">_xlfn.CONCAT(AB11:AB36)</f>
+        <v>EMFVGNIOQJPKHUZDRXSACLBYWT</v>
+      </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
@@ -1211,11 +1235,11 @@
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D5" s="48">
         <f>INDEX(records!$B$7:$B$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="48" t="str">
         <f>INDEX(records!$C$7:$C$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
@@ -1224,11 +1248,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="48">
         <f>INDEX(records!$E$7:$E$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="48">
         <f>INDEX(records!$G$7:$G$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="48" t="str">
         <f>INDEX(records!$H$7:$H$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
@@ -1237,11 +1261,11 @@
       <c r="K5" s="2"/>
       <c r="L5" s="48">
         <f>INDEX(records!$J$7:$J$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="48">
         <f>INDEX(records!$L$7:$L$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O5" s="48" t="str">
         <f>INDEX(records!$M$7:$M$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
@@ -1250,7 +1274,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="48">
         <f>INDEX(records!$O$7:$O$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5" s="2"/>
       <c r="U5" s="48" t="str">
@@ -1296,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="47">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O6" s="47" t="s">
         <v>32</v>
@@ -1307,22 +1331,22 @@
       <c r="U6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="29" t="str">
-        <f ca="1">_xlfn.CONCAT(AE11:AE36)</f>
-        <v>GVURPWXIQJANZLYKMEOFBSTCHD</v>
-      </c>
-      <c r="AE6" s="29"/>
+      <c r="AE6" s="29" t="str">
+        <f ca="1">_xlfn.CONCAT(AF11:AF36)</f>
+        <v>SZXDKQBGIJACOYPWVMFHNTLERU</v>
+      </c>
       <c r="AF6" s="28"/>
       <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
       <c r="AK6" s="38" t="s">
         <v>34</v>
       </c>
       <c r="AL6" s="30" t="str">
         <f ca="1">_xlfn.CONCAT(AN11:AN36)</f>
-        <v>NFXUHBJERGOPWAKLSIQVDTMCZY</v>
+        <v>SVJTUXYWOCNZRKIQPMADEBHFGL</v>
       </c>
       <c r="AM6" s="31"/>
       <c r="AN6" s="32"/>
@@ -1332,7 +1356,7 @@
       </c>
       <c r="AT6" s="34" t="str">
         <f ca="1">_xlfn.CONCAT(AW11:AW36)</f>
-        <v>KUXZRTAYHJPNQLSEIDVWCBFGOM</v>
+        <v>KGLDXSHTIJEWRUMOFYAVZQPCNB</v>
       </c>
       <c r="AU6" s="33"/>
       <c r="AV6" s="33"/>
@@ -1474,27 +1498,27 @@
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">INDEX(rotors!$A$2:$A$27,D9+1)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="G8" s="45" t="str" cm="1">
         <f t="array" ref="G8">INDEX(rotors!$A$2:$A$27,G9+1)</f>
-        <v>A</v>
+        <v>J</v>
       </c>
       <c r="I8" s="2" t="str" cm="1">
         <f t="array" ref="I8">INDEX(rotors!$A$2:$A$27,I9+1)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="L8" s="45" t="str" cm="1">
         <f t="array" ref="L8">INDEX(rotors!$A$2:$A$27,L9+1)</f>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="N8" s="2" t="str" cm="1">
         <f t="array" ref="N8">INDEX(rotors!$A$2:$A$27,N9+1)</f>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="Q8" s="45" t="str" cm="1">
         <f t="array" ref="Q8">INDEX(rotors!$A$2:$A$27,Q9+1)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="X8" s="36" t="s">
         <v>39</v>
@@ -1504,93 +1528,93 @@
         <v>11</v>
       </c>
       <c r="Z8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(Z7),$Y8,":",RIGHT(Z7),$Y9)</f>
+        <f t="shared" ref="Z8:AN8" si="0">_xlfn.CONCAT(RIGHT(Z7),$Y8,":",RIGHT(Z7),$Y9)</f>
         <v>D11:D36</v>
       </c>
       <c r="AA8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AA7),$Y8,":",RIGHT(AA7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>E11:E36</v>
       </c>
       <c r="AB8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AB7),$Y8,":",RIGHT(AB7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>I11:I36</v>
       </c>
       <c r="AC8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AC7),$Y8,":",RIGHT(AC7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>J11:J36</v>
       </c>
       <c r="AD8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AD7),$Y8,":",RIGHT(AD7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>N11:N36</v>
       </c>
       <c r="AE8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AE7),$Y8,":",RIGHT(AE7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>O11:O36</v>
       </c>
       <c r="AF8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AF7),$Y8,":",RIGHT(AF7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>T11:T36</v>
       </c>
       <c r="AG8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AG7),$Y8,":",RIGHT(AG7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>U11:U36</v>
       </c>
       <c r="AH8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AH7),$Y8,":",RIGHT(AH7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>P11:P36</v>
       </c>
       <c r="AI8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AI7),$Y8,":",RIGHT(AI7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>N11:N36</v>
       </c>
       <c r="AJ8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AJ7),$Y8,":",RIGHT(AJ7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>K11:K36</v>
       </c>
       <c r="AK8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AK7),$Y8,":",RIGHT(AK7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>I11:I36</v>
       </c>
       <c r="AL8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AL7),$Y8,":",RIGHT(AL7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>F11:F36</v>
       </c>
       <c r="AM8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AM7),$Y8,":",RIGHT(AM7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>D11:D36</v>
       </c>
       <c r="AN8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AN7),$Y8,":",RIGHT(AN7),$Y9)</f>
+        <f t="shared" si="0"/>
         <v>B11:B36</v>
       </c>
       <c r="AO8" s="11"/>
       <c r="AP8" s="37"/>
       <c r="AQ8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AQ7),$Y8,":",RIGHT(AQ7),$Y9)</f>
+        <f t="shared" ref="AQ8:AW8" si="1">_xlfn.CONCAT(RIGHT(AQ7),$Y8,":",RIGHT(AQ7),$Y9)</f>
         <v>P11:P36</v>
       </c>
       <c r="AR8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AR7),$Y8,":",RIGHT(AR7),$Y9)</f>
+        <f t="shared" si="1"/>
         <v>N11:N36</v>
       </c>
       <c r="AS8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AS7),$Y8,":",RIGHT(AS7),$Y9)</f>
+        <f t="shared" si="1"/>
         <v>K11:K36</v>
       </c>
       <c r="AT8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AT7),$Y8,":",RIGHT(AT7),$Y9)</f>
+        <f t="shared" si="1"/>
         <v>I11:I36</v>
       </c>
       <c r="AU8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AU7),$Y8,":",RIGHT(AU7),$Y9)</f>
+        <f t="shared" si="1"/>
         <v>F11:F36</v>
       </c>
       <c r="AV8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AV7),$Y8,":",RIGHT(AV7),$Y9)</f>
+        <f t="shared" si="1"/>
         <v>D11:D36</v>
       </c>
       <c r="AW8" s="37" t="str">
-        <f>_xlfn.CONCAT(RIGHT(AW7),$Y8,":",RIGHT(AW7),$Y9)</f>
+        <f t="shared" si="1"/>
         <v>B11:B36</v>
       </c>
     </row>
@@ -1600,45 +1624,51 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51">
         <f>IF($C$9,D5,D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="E9" s="51" t="str">
         <f>IF($C$9,E5,E6)</f>
         <v>I</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="51">
         <f>IF($C$9,G5,G6)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+        <v>9</v>
+      </c>
+      <c r="I9" s="51">
         <f>IF($C$9,I5,I6)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="J9" s="51" t="str">
         <f>IF($C$9,J5,J6)</f>
         <v>II</v>
       </c>
-      <c r="L9" s="10">
+      <c r="K9" s="52"/>
+      <c r="L9" s="51">
         <f>IF($C$9,L5,L6)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
+        <v>7</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="51">
         <f>IF($C$9,N5,N6)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="10" t="str">
+        <v>7</v>
+      </c>
+      <c r="O9" s="51" t="str">
         <f>IF($C$9,O5,O6)</f>
         <v>III</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="P9" s="52"/>
+      <c r="Q9" s="51">
         <f>IF($C$9,Q5,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="10" t="str">
+        <v>5</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="51" t="str">
         <f>IF($C$9,U5,U6)</f>
         <v>B</v>
       </c>
@@ -1650,93 +1680,93 @@
         <v>36</v>
       </c>
       <c r="Z9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(Z7),$Y8,":",LEFT(Z7),$Y9)</f>
+        <f t="shared" ref="Z9:AN9" si="2">_xlfn.CONCAT(LEFT(Z7),$Y8,":",LEFT(Z7),$Y9)</f>
         <v>B11:B36</v>
       </c>
       <c r="AA9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AA7),$Y8,":",LEFT(AA7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>D11:D36</v>
       </c>
       <c r="AB9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AB7),$Y8,":",LEFT(AB7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>F11:F36</v>
       </c>
       <c r="AC9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AC7),$Y8,":",LEFT(AC7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>I11:I36</v>
       </c>
       <c r="AD9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AD7),$Y8,":",LEFT(AD7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>K11:K36</v>
       </c>
       <c r="AE9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AE7),$Y8,":",LEFT(AE7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>N11:N36</v>
       </c>
       <c r="AF9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AF7),$Y8,":",LEFT(AF7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>P11:P36</v>
       </c>
       <c r="AG9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AG7),$Y8,":",LEFT(AG7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>T11:T36</v>
       </c>
       <c r="AH9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AH7),$Y8,":",LEFT(AH7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>V11:V36</v>
       </c>
       <c r="AI9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AI7),$Y8,":",LEFT(AI7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>O11:O36</v>
       </c>
       <c r="AJ9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AJ7),$Y8,":",LEFT(AJ7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>N11:N36</v>
       </c>
       <c r="AK9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AK7),$Y8,":",LEFT(AK7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>J11:J36</v>
       </c>
       <c r="AL9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AL7),$Y8,":",LEFT(AL7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>I11:I36</v>
       </c>
       <c r="AM9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AM7),$Y8,":",LEFT(AM7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>E11:E36</v>
       </c>
       <c r="AN9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AN7),$Y8,":",LEFT(AN7),$Y9)</f>
+        <f t="shared" si="2"/>
         <v>D11:D36</v>
       </c>
       <c r="AO9" s="11"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AQ7),$Y8,":",LEFT(AQ7),$Y9)</f>
+        <f t="shared" ref="AQ9:AW9" si="3">_xlfn.CONCAT(LEFT(AQ7),$Y8,":",LEFT(AQ7),$Y9)</f>
         <v>V11:V36</v>
       </c>
       <c r="AR9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AR7),$Y8,":",LEFT(AR7),$Y9)</f>
+        <f t="shared" si="3"/>
         <v>O11:O36</v>
       </c>
       <c r="AS9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AS7),$Y8,":",LEFT(AS7),$Y9)</f>
+        <f t="shared" si="3"/>
         <v>N11:N36</v>
       </c>
       <c r="AT9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AT7),$Y8,":",LEFT(AT7),$Y9)</f>
+        <f t="shared" si="3"/>
         <v>J11:J36</v>
       </c>
       <c r="AU9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AU7),$Y8,":",LEFT(AU7),$Y9)</f>
+        <f t="shared" si="3"/>
         <v>I11:I36</v>
       </c>
       <c r="AV9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AV7),$Y8,":",LEFT(AV7),$Y9)</f>
+        <f t="shared" si="3"/>
         <v>E11:E36</v>
       </c>
       <c r="AW9" s="37" t="str">
-        <f>_xlfn.CONCAT(LEFT(AW7),$Y8,":",LEFT(AW7),$Y9)</f>
+        <f t="shared" si="3"/>
         <v>D11:D36</v>
       </c>
     </row>
@@ -1858,53 +1888,53 @@
       <c r="C11" s="5"/>
       <c r="D11" s="16" t="str" cm="1">
         <f t="array" ref="D11">INDEX($B$11:$B$36,MOD(MATCH($B11,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>A</v>
+        <v>U</v>
       </c>
       <c r="E11" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D11,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="F11" s="25" t="str">
         <f>D11</f>
-        <v>A</v>
+        <v>U</v>
       </c>
       <c r="G11" s="44" t="str" cm="1">
         <f t="array" ref="G11">INDEX($B$11:$B$36,MOD(MATCH(F11,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="16" t="str" cm="1">
         <f t="array" ref="I11">INDEX($B$11:$B$36,MOD(MATCH($B11,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>A</v>
+        <v>Y</v>
       </c>
       <c r="J11" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I11,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>A</v>
+        <v>O</v>
       </c>
       <c r="K11" s="25" t="str">
         <f>I11</f>
-        <v>A</v>
+        <v>Y</v>
       </c>
       <c r="L11" s="44" t="str" cm="1">
         <f t="array" ref="L11">INDEX($B$11:$B$36,MOD(MATCH(K11,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="str" cm="1">
         <f t="array" ref="N11">INDEX($B$11:$B$36,MOD(MATCH($B11,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="O11" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N11,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="P11" s="25" t="str">
         <f>N11</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="Q11" s="44" t="str" cm="1">
         <f t="array" ref="Q11">INDEX($B$11:$B$36,MOD(MATCH(P11,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="4">
@@ -1925,94 +1955,94 @@
         <v>0</v>
       </c>
       <c r="Z11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(Z$8),MATCH(Y11,INDIRECT(Z$9),0))</f>
+        <f t="shared" ref="Z11:AM11" ca="1" si="4">INDEX(INDIRECT(Z$8),MATCH(Y11,INDIRECT(Z$9),0))</f>
+        <v>U</v>
+      </c>
+      <c r="AA11" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>A</v>
       </c>
-      <c r="AA11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AA$8),MATCH(Z11,INDIRECT(AA$9),0))</f>
+      <c r="AB11" s="45" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>E</v>
       </c>
-      <c r="AB11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AB$8),MATCH(AA11,INDIRECT(AB$9),0))</f>
-        <v>E</v>
-      </c>
       <c r="AC11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB11,INDIRECT(AC$9),0))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
       <c r="AD11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC11,INDIRECT(AD$9),0))</f>
+        <f t="shared" ca="1" si="4"/>
+        <v>W</v>
+      </c>
+      <c r="AE11" s="42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>U</v>
+      </c>
+      <c r="AF11" s="46" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AE11" s="46" t="str">
-        <f ca="1">INDEX(INDIRECT(AE$8),MATCH(AD11,INDIRECT(AE$9),0))</f>
-        <v>G</v>
-      </c>
-      <c r="AF11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE11,INDIRECT(AF$9),0))</f>
-        <v>G</v>
-      </c>
       <c r="AG11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AG$8),MATCH(AF11,INDIRECT(AG$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>F</v>
       </c>
       <c r="AH11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AH$8),MATCH(AG11,INDIRECT(AH$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>H</v>
       </c>
       <c r="AI11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AI$8),MATCH(AH11,INDIRECT(AI$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>D</v>
       </c>
       <c r="AJ11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AJ$8),MATCH(AI11,INDIRECT(AJ$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>Z</v>
       </c>
       <c r="AK11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AK$8),MATCH(AJ11,INDIRECT(AK$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>S</v>
       </c>
       <c r="AL11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AL$8),MATCH(AK11,INDIRECT(AL$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>O</v>
       </c>
       <c r="AM11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AM$8),MATCH(AL11,INDIRECT(AM$9),0))</f>
-        <v>N</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>M</v>
       </c>
       <c r="AN11" s="40" t="str">
-        <f t="shared" ref="AA11:AN26" ca="1" si="0">INDEX(INDIRECT(AN$8),MATCH(AM11,INDIRECT(AN$9),0))</f>
-        <v>N</v>
+        <f t="shared" ref="AA11:AN26" ca="1" si="5">INDEX(INDIRECT(AN$8),MATCH(AM11,INDIRECT(AN$9),0))</f>
+        <v>S</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AQ11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP11,INDIRECT(AQ$9),0))</f>
-        <v>A</v>
+        <f t="shared" ref="AQ11:AW20" ca="1" si="6">INDEX(INDIRECT(AQ$8),MATCH(AP11,INDIRECT(AQ$9),0))</f>
+        <v>C</v>
       </c>
       <c r="AR11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ11,INDIRECT(AR$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>G</v>
       </c>
       <c r="AS11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR11,INDIRECT(AS$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>C</v>
       </c>
       <c r="AT11" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS11,INDIRECT(AT$9),0))</f>
-        <v>N</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>P</v>
       </c>
       <c r="AU11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT11,INDIRECT(AU$9),0))</f>
-        <v>N</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>L</v>
       </c>
       <c r="AV11" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU11,INDIRECT(AV$9),0))</f>
-        <v>K</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>E</v>
       </c>
       <c r="AW11" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV11,INDIRECT(AW$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>K</v>
       </c>
     </row>
@@ -2026,53 +2056,53 @@
       <c r="C12" s="5"/>
       <c r="D12" s="16" t="str" cm="1">
         <f t="array" ref="D12">INDEX($B$11:$B$36,MOD(MATCH($B12,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>B</v>
+        <v>V</v>
       </c>
       <c r="E12" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D12,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>K</v>
+        <v>I</v>
       </c>
       <c r="F12" s="25" t="str">
-        <f t="shared" ref="F12:F36" si="1">D12</f>
-        <v>B</v>
+        <f t="shared" ref="F12:F36" si="7">D12</f>
+        <v>V</v>
       </c>
       <c r="G12" s="44" t="str" cm="1">
         <f t="array" ref="G12">INDEX($B$11:$B$36,MOD(MATCH(F12,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="16" t="str" cm="1">
         <f t="array" ref="I12">INDEX($B$11:$B$36,MOD(MATCH($B12,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>B</v>
+        <v>Z</v>
       </c>
       <c r="J12" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I12,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>J</v>
+        <v>E</v>
       </c>
       <c r="K12" s="25" t="str">
-        <f t="shared" ref="K12:K36" si="2">I12</f>
-        <v>B</v>
+        <f t="shared" ref="K12:K36" si="8">I12</f>
+        <v>Z</v>
       </c>
       <c r="L12" s="44" t="str" cm="1">
         <f t="array" ref="L12">INDEX($B$11:$B$36,MOD(MATCH(K12,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="str" cm="1">
         <f t="array" ref="N12">INDEX($B$11:$B$36,MOD(MATCH($B12,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="O12" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N12,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
+        <v>H</v>
+      </c>
+      <c r="P12" s="25" t="str">
+        <f t="shared" ref="P12:P36" si="9">N12</f>
         <v>D</v>
-      </c>
-      <c r="P12" s="25" t="str">
-        <f t="shared" ref="P12:P36" si="3">N12</f>
-        <v>B</v>
       </c>
       <c r="Q12" s="44" t="str" cm="1">
         <f t="array" ref="Q12">INDEX($B$11:$B$36,MOD(MATCH(P12,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>B</v>
+        <v>I</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="4">
@@ -2093,95 +2123,95 @@
         <v>1</v>
       </c>
       <c r="Z12" s="45" t="str">
-        <f t="shared" ref="Z12:AL36" ca="1" si="4">INDEX(INDIRECT(Z$8),MATCH(Y12,INDIRECT(Z$9),0))</f>
+        <f t="shared" ref="Z12:AL36" ca="1" si="10">INDEX(INDIRECT(Z$8),MATCH(Y12,INDIRECT(Z$9),0))</f>
+        <v>V</v>
+      </c>
+      <c r="AA12" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>I</v>
+      </c>
+      <c r="AB12" s="45" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>M</v>
+      </c>
+      <c r="AC12" s="45" t="str">
+        <f t="shared" ref="AC12:AD36" ca="1" si="11">INDEX(INDIRECT(AC$8),MATCH(AB12,INDIRECT(AC$9),0))</f>
+        <v>W</v>
+      </c>
+      <c r="AD12" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>A</v>
+      </c>
+      <c r="AE12" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>B</v>
       </c>
-      <c r="AA12" s="42" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>K</v>
-      </c>
-      <c r="AB12" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>K</v>
-      </c>
-      <c r="AC12" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB12,INDIRECT(AC$9),0))</f>
+      <c r="AF12" s="46" t="str">
+        <f t="shared" ref="AF12:AF36" ca="1" si="12">INDEX(INDIRECT(AF$8),MATCH(AE12,INDIRECT(AF$9),0))</f>
+        <v>Z</v>
+      </c>
+      <c r="AG12" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>T</v>
+      </c>
+      <c r="AH12" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>V</v>
+      </c>
+      <c r="AI12" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>L</v>
       </c>
-      <c r="AD12" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC12,INDIRECT(AD$9),0))</f>
+      <c r="AJ12" s="45" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>H</v>
+      </c>
+      <c r="AK12" s="45" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>L</v>
       </c>
-      <c r="AE12" s="46" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AL12" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>H</v>
+      </c>
+      <c r="AM12" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AN12" s="40" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>V</v>
-      </c>
-      <c r="AF12" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE12,INDIRECT(AF$9),0))</f>
-        <v>V</v>
-      </c>
-      <c r="AG12" s="42" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="AH12" s="42" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="AI12" s="42" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>R</v>
-      </c>
-      <c r="AJ12" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>R</v>
-      </c>
-      <c r="AK12" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>G</v>
-      </c>
-      <c r="AL12" s="42" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>G</v>
-      </c>
-      <c r="AM12" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="AN12" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>F</v>
       </c>
       <c r="AP12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AQ12" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP12,INDIRECT(AQ$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>D</v>
+      </c>
+      <c r="AR12" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>B</v>
       </c>
-      <c r="AR12" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ12,INDIRECT(AR$9),0))</f>
+      <c r="AS12" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AT12" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>I</v>
+      </c>
+      <c r="AU12" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>E</v>
+      </c>
+      <c r="AV12" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>A</v>
       </c>
-      <c r="AS12" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR12,INDIRECT(AS$9),0))</f>
-        <v>A</v>
-      </c>
-      <c r="AT12" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS12,INDIRECT(AT$9),0))</f>
-        <v>A</v>
-      </c>
-      <c r="AU12" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT12,INDIRECT(AU$9),0))</f>
-        <v>A</v>
-      </c>
-      <c r="AV12" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU12,INDIRECT(AV$9),0))</f>
-        <v>U</v>
-      </c>
       <c r="AW12" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV12,INDIRECT(AW$9),0))</f>
-        <v>U</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>G</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
@@ -2194,53 +2224,53 @@
       <c r="C13" s="5"/>
       <c r="D13" s="16" t="str" cm="1">
         <f t="array" ref="D13">INDEX($B$11:$B$36,MOD(MATCH($B13,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>C</v>
+        <v>W</v>
       </c>
       <c r="E13" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D13,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>M</v>
+        <v>B</v>
       </c>
       <c r="F13" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
+        <f t="shared" si="7"/>
+        <v>W</v>
       </c>
       <c r="G13" s="44" t="str" cm="1">
         <f t="array" ref="G13">INDEX($B$11:$B$36,MOD(MATCH(F13,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="16" t="str" cm="1">
         <f t="array" ref="I13">INDEX($B$11:$B$36,MOD(MATCH($B13,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="J13" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I13,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="K13" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
+        <f t="shared" si="8"/>
+        <v>A</v>
       </c>
       <c r="L13" s="44" t="str" cm="1">
         <f t="array" ref="L13">INDEX($B$11:$B$36,MOD(MATCH(K13,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>C</v>
+        <v>H</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="str" cm="1">
         <f t="array" ref="N13">INDEX($B$11:$B$36,MOD(MATCH($B13,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="O13" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N13,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>F</v>
+        <v>J</v>
       </c>
       <c r="P13" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
+        <f t="shared" si="9"/>
+        <v>E</v>
       </c>
       <c r="Q13" s="44" t="str" cm="1">
         <f t="array" ref="Q13">INDEX($B$11:$B$36,MOD(MATCH(P13,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>C</v>
+        <v>J</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="4">
@@ -2261,95 +2291,95 @@
         <v>2</v>
       </c>
       <c r="Z13" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>W</v>
       </c>
       <c r="AA13" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="AB13" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AC13" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>I</v>
+      </c>
+      <c r="AD13" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>M</v>
       </c>
-      <c r="AB13" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>M</v>
-      </c>
-      <c r="AC13" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB13,INDIRECT(AC$9),0))</f>
-        <v>W</v>
-      </c>
-      <c r="AD13" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC13,INDIRECT(AD$9),0))</f>
-        <v>W</v>
-      </c>
-      <c r="AE13" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
-      </c>
-      <c r="AF13" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE13,INDIRECT(AF$9),0))</f>
-        <v>U</v>
+      <c r="AE13" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
+      </c>
+      <c r="AF13" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>X</v>
       </c>
       <c r="AG13" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
       </c>
       <c r="AH13" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
       </c>
       <c r="AI13" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
       </c>
       <c r="AJ13" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>B</v>
       </c>
       <c r="AK13" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
       </c>
       <c r="AL13" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
       </c>
       <c r="AM13" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
       </c>
       <c r="AN13" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
       </c>
       <c r="AP13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AQ13" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP13,INDIRECT(AQ$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>E</v>
       </c>
       <c r="AR13" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ13,INDIRECT(AR$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>P</v>
+      </c>
+      <c r="AS13" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>L</v>
+      </c>
+      <c r="AT13" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>K</v>
+      </c>
+      <c r="AU13" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>G</v>
       </c>
-      <c r="AS13" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR13,INDIRECT(AS$9),0))</f>
-        <v>G</v>
-      </c>
-      <c r="AT13" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS13,INDIRECT(AT$9),0))</f>
-        <v>R</v>
-      </c>
-      <c r="AU13" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT13,INDIRECT(AU$9),0))</f>
-        <v>R</v>
-      </c>
       <c r="AV13" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU13,INDIRECT(AV$9),0))</f>
-        <v>X</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>F</v>
       </c>
       <c r="AW13" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV13,INDIRECT(AW$9),0))</f>
-        <v>X</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>L</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
@@ -2362,53 +2392,53 @@
       <c r="C14" s="5"/>
       <c r="D14" s="16" t="str" cm="1">
         <f t="array" ref="D14">INDEX($B$11:$B$36,MOD(MATCH($B14,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>D</v>
+        <v>X</v>
       </c>
       <c r="E14" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D14,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="F14" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
+        <f t="shared" si="7"/>
+        <v>X</v>
       </c>
       <c r="G14" s="44" t="str" cm="1">
         <f t="array" ref="G14">INDEX($B$11:$B$36,MOD(MATCH(F14,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="16" t="str" cm="1">
         <f t="array" ref="I14">INDEX($B$11:$B$36,MOD(MATCH($B14,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="J14" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I14,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>K</v>
+        <v>J</v>
       </c>
       <c r="K14" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>D</v>
+        <f t="shared" si="8"/>
+        <v>B</v>
       </c>
       <c r="L14" s="44" t="str" cm="1">
         <f t="array" ref="L14">INDEX($B$11:$B$36,MOD(MATCH(K14,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>D</v>
+        <v>I</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="str" cm="1">
         <f t="array" ref="N14">INDEX($B$11:$B$36,MOD(MATCH($B14,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="O14" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N14,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="P14" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>D</v>
+        <f t="shared" si="9"/>
+        <v>F</v>
       </c>
       <c r="Q14" s="44" t="str" cm="1">
         <f t="array" ref="Q14">INDEX($B$11:$B$36,MOD(MATCH(P14,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>D</v>
+        <v>K</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="4">
@@ -2429,95 +2459,95 @@
         <v>3</v>
       </c>
       <c r="Z14" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="AA14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AB14" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AC14" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Y</v>
+      </c>
+      <c r="AD14" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="AE14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AF14" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>D</v>
       </c>
-      <c r="AA14" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="AB14" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="AC14" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB14,INDIRECT(AC$9),0))</f>
-        <v>I</v>
-      </c>
-      <c r="AD14" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC14,INDIRECT(AD$9),0))</f>
-        <v>I</v>
-      </c>
-      <c r="AE14" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R</v>
-      </c>
-      <c r="AF14" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE14,INDIRECT(AF$9),0))</f>
-        <v>R</v>
-      </c>
       <c r="AG14" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>H</v>
       </c>
       <c r="AH14" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
       </c>
       <c r="AI14" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AJ14" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>A</v>
       </c>
-      <c r="AJ14" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AK14" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>A</v>
       </c>
-      <c r="AK14" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
       <c r="AL14" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
       </c>
       <c r="AM14" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
       </c>
       <c r="AN14" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>T</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AQ14" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP14,INDIRECT(AQ$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AR14" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="AS14" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="AT14" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>V</v>
+      </c>
+      <c r="AU14" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>R</v>
+      </c>
+      <c r="AV14" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="AW14" s="41" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>D</v>
-      </c>
-      <c r="AR14" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ14,INDIRECT(AR$9),0))</f>
-        <v>B</v>
-      </c>
-      <c r="AS14" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR14,INDIRECT(AS$9),0))</f>
-        <v>B</v>
-      </c>
-      <c r="AT14" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS14,INDIRECT(AT$9),0))</f>
-        <v>J</v>
-      </c>
-      <c r="AU14" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT14,INDIRECT(AU$9),0))</f>
-        <v>J</v>
-      </c>
-      <c r="AV14" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU14,INDIRECT(AV$9),0))</f>
-        <v>Z</v>
-      </c>
-      <c r="AW14" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV14,INDIRECT(AW$9),0))</f>
-        <v>Z</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
@@ -2530,53 +2560,53 @@
       <c r="C15" s="5"/>
       <c r="D15" s="16" t="str" cm="1">
         <f t="array" ref="D15">INDEX($B$11:$B$36,MOD(MATCH($B15,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>E</v>
+        <v>Y</v>
       </c>
       <c r="E15" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D15,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>L</v>
+        <v>C</v>
       </c>
       <c r="F15" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>E</v>
+        <f t="shared" si="7"/>
+        <v>Y</v>
       </c>
       <c r="G15" s="44" t="str" cm="1">
         <f t="array" ref="G15">INDEX($B$11:$B$36,MOD(MATCH(F15,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>E</v>
+        <v>H</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="16" t="str" cm="1">
         <f t="array" ref="I15">INDEX($B$11:$B$36,MOD(MATCH($B15,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="J15" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I15,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="K15" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>E</v>
+        <f t="shared" si="8"/>
+        <v>C</v>
       </c>
       <c r="L15" s="44" t="str" cm="1">
         <f t="array" ref="L15">INDEX($B$11:$B$36,MOD(MATCH(K15,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>E</v>
+        <v>J</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="16" t="str" cm="1">
         <f t="array" ref="N15">INDEX($B$11:$B$36,MOD(MATCH($B15,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="O15" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N15,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>J</v>
+        <v>C</v>
       </c>
       <c r="P15" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>E</v>
+        <f t="shared" si="9"/>
+        <v>G</v>
       </c>
       <c r="Q15" s="44" t="str" cm="1">
         <f t="array" ref="Q15">INDEX($B$11:$B$36,MOD(MATCH(P15,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>E</v>
+        <v>L</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="4">
@@ -2597,95 +2627,95 @@
         <v>4</v>
       </c>
       <c r="Z15" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Y</v>
       </c>
       <c r="AA15" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
       </c>
       <c r="AB15" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
       </c>
       <c r="AC15" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB15,INDIRECT(AC$9),0))</f>
+        <f t="shared" ca="1" si="11"/>
+        <v>R</v>
+      </c>
+      <c r="AD15" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>V</v>
+      </c>
+      <c r="AE15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M</v>
+      </c>
+      <c r="AF15" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="AG15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AH15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AI15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>H</v>
       </c>
-      <c r="AD15" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC15,INDIRECT(AD$9),0))</f>
-        <v>H</v>
-      </c>
-      <c r="AE15" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="AF15" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE15,INDIRECT(AF$9),0))</f>
-        <v>P</v>
-      </c>
-      <c r="AG15" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I</v>
-      </c>
-      <c r="AH15" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I</v>
-      </c>
-      <c r="AI15" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Q</v>
-      </c>
       <c r="AJ15" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
       </c>
       <c r="AK15" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
       </c>
       <c r="AL15" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
       </c>
       <c r="AM15" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
       </c>
       <c r="AN15" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AQ15" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP15,INDIRECT(AQ$9),0))</f>
-        <v>E</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>G</v>
       </c>
       <c r="AR15" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ15,INDIRECT(AR$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>S</v>
       </c>
       <c r="AS15" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR15,INDIRECT(AS$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>O</v>
       </c>
       <c r="AT15" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS15,INDIRECT(AT$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="AU15" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>U</v>
       </c>
-      <c r="AU15" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT15,INDIRECT(AU$9),0))</f>
-        <v>U</v>
-      </c>
       <c r="AV15" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU15,INDIRECT(AV$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>R</v>
       </c>
       <c r="AW15" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV15,INDIRECT(AW$9),0))</f>
-        <v>R</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.2">
@@ -2698,53 +2728,53 @@
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="str" cm="1">
         <f t="array" ref="D16">INDEX($B$11:$B$36,MOD(MATCH($B16,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>F</v>
+        <v>Z</v>
       </c>
       <c r="E16" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D16,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>G</v>
+        <v>J</v>
       </c>
       <c r="F16" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
+        <f t="shared" si="7"/>
+        <v>Z</v>
       </c>
       <c r="G16" s="44" t="str" cm="1">
         <f t="array" ref="G16">INDEX($B$11:$B$36,MOD(MATCH(F16,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>F</v>
+        <v>I</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="16" t="str" cm="1">
         <f t="array" ref="I16">INDEX($B$11:$B$36,MOD(MATCH($B16,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="J16" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I16,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>I</v>
+        <v>K</v>
       </c>
       <c r="K16" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>F</v>
+        <f t="shared" si="8"/>
+        <v>D</v>
       </c>
       <c r="L16" s="44" t="str" cm="1">
         <f t="array" ref="L16">INDEX($B$11:$B$36,MOD(MATCH(K16,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>F</v>
+        <v>K</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="16" t="str" cm="1">
         <f t="array" ref="N16">INDEX($B$11:$B$36,MOD(MATCH($B16,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="O16" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N16,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>L</v>
+        <v>P</v>
       </c>
       <c r="P16" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
+        <f t="shared" si="9"/>
+        <v>H</v>
       </c>
       <c r="Q16" s="44" t="str" cm="1">
         <f t="array" ref="Q16">INDEX($B$11:$B$36,MOD(MATCH(P16,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="4">
@@ -2765,95 +2795,95 @@
         <v>5</v>
       </c>
       <c r="Z16" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Z</v>
       </c>
       <c r="AA16" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="AB16" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AC16" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="AD16" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="AE16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AF16" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Q</v>
+      </c>
+      <c r="AG16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AH16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>G</v>
       </c>
-      <c r="AB16" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
-      </c>
-      <c r="AC16" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB16,INDIRECT(AC$9),0))</f>
+      <c r="AI16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AJ16" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="AK16" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AL16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
+      </c>
+      <c r="AM16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>R</v>
       </c>
-      <c r="AD16" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC16,INDIRECT(AD$9),0))</f>
-        <v>R</v>
-      </c>
-      <c r="AE16" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
-      </c>
-      <c r="AF16" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE16,INDIRECT(AF$9),0))</f>
-        <v>W</v>
-      </c>
-      <c r="AG16" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>V</v>
-      </c>
-      <c r="AH16" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>V</v>
-      </c>
-      <c r="AI16" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>L</v>
-      </c>
-      <c r="AJ16" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>L</v>
-      </c>
-      <c r="AK16" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
-      </c>
-      <c r="AL16" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
-      </c>
-      <c r="AM16" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>B</v>
-      </c>
       <c r="AN16" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
       </c>
       <c r="AP16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AQ16" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP16,INDIRECT(AQ$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>H</v>
       </c>
       <c r="AR16" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ16,INDIRECT(AR$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>D</v>
       </c>
       <c r="AS16" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR16,INDIRECT(AS$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Z</v>
       </c>
       <c r="AT16" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS16,INDIRECT(AT$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>S</v>
       </c>
       <c r="AU16" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT16,INDIRECT(AU$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>O</v>
       </c>
       <c r="AV16" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU16,INDIRECT(AV$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>M</v>
       </c>
       <c r="AW16" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV16,INDIRECT(AW$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>S</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.2">
@@ -2866,53 +2896,53 @@
       <c r="C17" s="5"/>
       <c r="D17" s="16" t="str" cm="1">
         <f t="array" ref="D17">INDEX($B$11:$B$36,MOD(MATCH($B17,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="E17" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D17,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="F17" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
+        <f t="shared" si="7"/>
+        <v>A</v>
       </c>
       <c r="G17" s="44" t="str" cm="1">
         <f t="array" ref="G17">INDEX($B$11:$B$36,MOD(MATCH(F17,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>G</v>
+        <v>J</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="16" t="str" cm="1">
         <f t="array" ref="I17">INDEX($B$11:$B$36,MOD(MATCH($B17,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="J17" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I17,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>R</v>
+        <v>S</v>
       </c>
       <c r="K17" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>G</v>
+        <f t="shared" si="8"/>
+        <v>E</v>
       </c>
       <c r="L17" s="44" t="str" cm="1">
         <f t="array" ref="L17">INDEX($B$11:$B$36,MOD(MATCH(K17,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="16" t="str" cm="1">
         <f t="array" ref="N17">INDEX($B$11:$B$36,MOD(MATCH($B17,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>G</v>
+        <v>I</v>
       </c>
       <c r="O17" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N17,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>C</v>
+        <v>R</v>
       </c>
       <c r="P17" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>G</v>
+        <f t="shared" si="9"/>
+        <v>I</v>
       </c>
       <c r="Q17" s="44" t="str" cm="1">
         <f t="array" ref="Q17">INDEX($B$11:$B$36,MOD(MATCH(P17,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>G</v>
+        <v>N</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="4">
@@ -2933,95 +2963,95 @@
         <v>6</v>
       </c>
       <c r="Z17" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>A</v>
       </c>
       <c r="AA17" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AB17" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AC17" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="AD17" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AE17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>D</v>
       </c>
-      <c r="AB17" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="AC17" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB17,INDIRECT(AC$9),0))</f>
-        <v>K</v>
-      </c>
-      <c r="AD17" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC17,INDIRECT(AD$9),0))</f>
-        <v>K</v>
-      </c>
-      <c r="AE17" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="AF17" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE17,INDIRECT(AF$9),0))</f>
-        <v>X</v>
+      <c r="AF17" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>B</v>
       </c>
       <c r="AG17" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AH17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AI17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AH17" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
-      </c>
-      <c r="AI17" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
       <c r="AJ17" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
       </c>
       <c r="AK17" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
       </c>
       <c r="AL17" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>S</v>
       </c>
       <c r="AM17" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>S</v>
       </c>
       <c r="AN17" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
       </c>
       <c r="AP17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AQ17" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP17,INDIRECT(AQ$9),0))</f>
-        <v>G</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>I</v>
       </c>
       <c r="AR17" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ17,INDIRECT(AR$9),0))</f>
-        <v>S</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Q</v>
       </c>
       <c r="AS17" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR17,INDIRECT(AS$9),0))</f>
-        <v>S</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>M</v>
       </c>
       <c r="AT17" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS17,INDIRECT(AT$9),0))</f>
-        <v>E</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>O</v>
       </c>
       <c r="AU17" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT17,INDIRECT(AU$9),0))</f>
-        <v>E</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>K</v>
       </c>
       <c r="AV17" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU17,INDIRECT(AV$9),0))</f>
-        <v>A</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>B</v>
       </c>
       <c r="AW17" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV17,INDIRECT(AW$9),0))</f>
-        <v>A</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>H</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
@@ -3034,53 +3064,53 @@
       <c r="C18" s="5"/>
       <c r="D18" s="16" t="str" cm="1">
         <f t="array" ref="D18">INDEX($B$11:$B$36,MOD(MATCH($B18,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>H</v>
+        <v>B</v>
       </c>
       <c r="E18" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D18,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>Q</v>
+        <v>K</v>
       </c>
       <c r="F18" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
+        <f t="shared" si="7"/>
+        <v>B</v>
       </c>
       <c r="G18" s="44" t="str" cm="1">
         <f t="array" ref="G18">INDEX($B$11:$B$36,MOD(MATCH(F18,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>H</v>
+        <v>K</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="16" t="str" cm="1">
         <f t="array" ref="I18">INDEX($B$11:$B$36,MOD(MATCH($B18,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="J18" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I18,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>U</v>
+        <v>I</v>
       </c>
       <c r="K18" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>H</v>
+        <f t="shared" si="8"/>
+        <v>F</v>
       </c>
       <c r="L18" s="44" t="str" cm="1">
         <f t="array" ref="L18">INDEX($B$11:$B$36,MOD(MATCH(K18,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>H</v>
+        <v>M</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="16" t="str" cm="1">
         <f t="array" ref="N18">INDEX($B$11:$B$36,MOD(MATCH($B18,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>H</v>
+        <v>J</v>
       </c>
       <c r="O18" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N18,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="P18" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>H</v>
+        <f t="shared" si="9"/>
+        <v>J</v>
       </c>
       <c r="Q18" s="44" t="str" cm="1">
         <f t="array" ref="Q18">INDEX($B$11:$B$36,MOD(MATCH(P18,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>H</v>
+        <v>O</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="4">
@@ -3101,95 +3131,95 @@
         <v>7</v>
       </c>
       <c r="Z18" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>B</v>
       </c>
       <c r="AA18" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="AB18" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="AC18" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>M</v>
+      </c>
+      <c r="AD18" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>Q</v>
       </c>
-      <c r="AB18" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AE18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AF18" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>G</v>
+      </c>
+      <c r="AG18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="AH18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AI18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AJ18" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="AK18" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="AL18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AM18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AC18" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB18,INDIRECT(AC$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AD18" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC18,INDIRECT(AD$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AE18" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I</v>
-      </c>
-      <c r="AF18" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE18,INDIRECT(AF$9),0))</f>
-        <v>I</v>
-      </c>
-      <c r="AG18" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="AH18" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="AI18" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="AJ18" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="AK18" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>L</v>
-      </c>
-      <c r="AL18" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>L</v>
-      </c>
-      <c r="AM18" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
       <c r="AN18" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
       </c>
       <c r="AP18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AQ18" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP18,INDIRECT(AQ$9),0))</f>
-        <v>H</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>J</v>
       </c>
       <c r="AR18" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ18,INDIRECT(AR$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>E</v>
       </c>
       <c r="AS18" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR18,INDIRECT(AS$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>A</v>
       </c>
       <c r="AT18" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS18,INDIRECT(AT$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>A</v>
       </c>
       <c r="AU18" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT18,INDIRECT(AU$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>W</v>
       </c>
       <c r="AV18" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU18,INDIRECT(AV$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>N</v>
       </c>
       <c r="AW18" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV18,INDIRECT(AW$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>T</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.2">
@@ -3202,53 +3232,53 @@
       <c r="C19" s="5"/>
       <c r="D19" s="16" t="str" cm="1">
         <f t="array" ref="D19">INDEX($B$11:$B$36,MOD(MATCH($B19,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>I</v>
+        <v>C</v>
       </c>
       <c r="E19" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D19,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>V</v>
+        <v>M</v>
       </c>
       <c r="F19" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>I</v>
+        <f t="shared" si="7"/>
+        <v>C</v>
       </c>
       <c r="G19" s="44" t="str" cm="1">
         <f t="array" ref="G19">INDEX($B$11:$B$36,MOD(MATCH(F19,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>I</v>
+        <v>L</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="16" t="str" cm="1">
         <f t="array" ref="I19">INDEX($B$11:$B$36,MOD(MATCH($B19,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>I</v>
+        <v>G</v>
       </c>
       <c r="J19" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I19,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>X</v>
+        <v>R</v>
       </c>
       <c r="K19" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>I</v>
+        <f t="shared" si="8"/>
+        <v>G</v>
       </c>
       <c r="L19" s="44" t="str" cm="1">
         <f t="array" ref="L19">INDEX($B$11:$B$36,MOD(MATCH(K19,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>I</v>
+        <v>N</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="16" t="str" cm="1">
         <f t="array" ref="N19">INDEX($B$11:$B$36,MOD(MATCH($B19,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>I</v>
+        <v>K</v>
       </c>
       <c r="O19" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N19,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>R</v>
+        <v>X</v>
       </c>
       <c r="P19" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>I</v>
+        <f t="shared" si="9"/>
+        <v>K</v>
       </c>
       <c r="Q19" s="44" t="str" cm="1">
         <f t="array" ref="Q19">INDEX($B$11:$B$36,MOD(MATCH(P19,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>I</v>
+        <v>P</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="4">
@@ -3269,95 +3299,95 @@
         <v>8</v>
       </c>
       <c r="Z19" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="AA19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M</v>
+      </c>
+      <c r="AB19" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AC19" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Q</v>
+      </c>
+      <c r="AD19" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>U</v>
+      </c>
+      <c r="AE19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="AF19" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>I</v>
       </c>
-      <c r="AA19" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AH19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AI19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AJ19" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AK19" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
+      </c>
+      <c r="AL19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
-      <c r="AB19" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>V</v>
-      </c>
-      <c r="AC19" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB19,INDIRECT(AC$9),0))</f>
-        <v>Y</v>
-      </c>
-      <c r="AD19" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC19,INDIRECT(AD$9),0))</f>
-        <v>Y</v>
-      </c>
-      <c r="AE19" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Q</v>
-      </c>
-      <c r="AF19" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE19,INDIRECT(AF$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AG19" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="AH19" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="AI19" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="AJ19" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="AK19" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
-      </c>
-      <c r="AL19" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
-      </c>
       <c r="AM19" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
       </c>
       <c r="AN19" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
       </c>
       <c r="AP19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AQ19" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP19,INDIRECT(AQ$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>K</v>
+      </c>
+      <c r="AR19" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>U</v>
+      </c>
+      <c r="AS19" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Q</v>
+      </c>
+      <c r="AT19" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Q</v>
+      </c>
+      <c r="AU19" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>M</v>
+      </c>
+      <c r="AV19" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="AW19" s="41" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>I</v>
-      </c>
-      <c r="AR19" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ19,INDIRECT(AR$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AS19" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR19,INDIRECT(AS$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AT19" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS19,INDIRECT(AT$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AU19" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT19,INDIRECT(AU$9),0))</f>
-        <v>Q</v>
-      </c>
-      <c r="AV19" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU19,INDIRECT(AV$9),0))</f>
-        <v>H</v>
-      </c>
-      <c r="AW19" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV19,INDIRECT(AW$9),0))</f>
-        <v>H</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.2">
@@ -3370,53 +3400,53 @@
       <c r="C20" s="5"/>
       <c r="D20" s="16" t="str" cm="1">
         <f t="array" ref="D20">INDEX($B$11:$B$36,MOD(MATCH($B20,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>J</v>
+        <v>D</v>
       </c>
       <c r="E20" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D20,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>Z</v>
+        <v>F</v>
       </c>
       <c r="F20" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>J</v>
+        <f t="shared" si="7"/>
+        <v>D</v>
       </c>
       <c r="G20" s="44" t="str" cm="1">
         <f t="array" ref="G20">INDEX($B$11:$B$36,MOD(MATCH(F20,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>J</v>
+        <v>M</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="16" t="str" cm="1">
         <f t="array" ref="I20">INDEX($B$11:$B$36,MOD(MATCH($B20,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>J</v>
+        <v>H</v>
       </c>
       <c r="J20" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I20,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>B</v>
+        <v>U</v>
       </c>
       <c r="K20" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>J</v>
+        <f t="shared" si="8"/>
+        <v>H</v>
       </c>
       <c r="L20" s="44" t="str" cm="1">
         <f t="array" ref="L20">INDEX($B$11:$B$36,MOD(MATCH(K20,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>J</v>
+        <v>O</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="16" t="str" cm="1">
         <f t="array" ref="N20">INDEX($B$11:$B$36,MOD(MATCH($B20,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>J</v>
+        <v>L</v>
       </c>
       <c r="O20" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N20,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>T</v>
+        <v>V</v>
       </c>
       <c r="P20" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>J</v>
+        <f t="shared" si="9"/>
+        <v>L</v>
       </c>
       <c r="Q20" s="44" t="str" cm="1">
         <f t="array" ref="Q20">INDEX($B$11:$B$36,MOD(MATCH(P20,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>J</v>
+        <v>Q</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="4">
@@ -3437,94 +3467,94 @@
         <v>9</v>
       </c>
       <c r="Z20" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="AA20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AB20" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AA20" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AC20" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AD20" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>F</v>
+      </c>
+      <c r="AE20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="AF20" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="AG20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AH20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AB20" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Z</v>
-      </c>
-      <c r="AC20" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB20,INDIRECT(AC$9),0))</f>
-        <v>E</v>
-      </c>
-      <c r="AD20" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC20,INDIRECT(AD$9),0))</f>
-        <v>E</v>
-      </c>
-      <c r="AE20" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
-      </c>
-      <c r="AF20" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE20,INDIRECT(AF$9),0))</f>
-        <v>J</v>
-      </c>
-      <c r="AG20" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="AH20" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>X</v>
-      </c>
       <c r="AI20" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M</v>
       </c>
       <c r="AJ20" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
       </c>
       <c r="AK20" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
       </c>
       <c r="AL20" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>B</v>
       </c>
       <c r="AM20" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
       </c>
       <c r="AN20" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
       </c>
       <c r="AP20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AQ20" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP20,INDIRECT(AQ$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>L</v>
+      </c>
+      <c r="AR20" s="42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AS20" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="AT20" s="45" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>J</v>
       </c>
-      <c r="AR20" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ20,INDIRECT(AR$9),0))</f>
-        <v>E</v>
-      </c>
-      <c r="AS20" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR20,INDIRECT(AS$9),0))</f>
-        <v>E</v>
-      </c>
-      <c r="AT20" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS20,INDIRECT(AT$9),0))</f>
-        <v>Z</v>
-      </c>
       <c r="AU20" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT20,INDIRECT(AU$9),0))</f>
-        <v>Z</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>F</v>
       </c>
       <c r="AV20" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU20,INDIRECT(AV$9),0))</f>
-        <v>J</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>D</v>
       </c>
       <c r="AW20" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV20,INDIRECT(AW$9),0))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>J</v>
       </c>
     </row>
@@ -3538,53 +3568,53 @@
       <c r="C21" s="5"/>
       <c r="D21" s="16" t="str" cm="1">
         <f t="array" ref="D21">INDEX($B$11:$B$36,MOD(MATCH($B21,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>K</v>
+        <v>E</v>
       </c>
       <c r="E21" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D21,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="F21" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>K</v>
+        <f t="shared" si="7"/>
+        <v>E</v>
       </c>
       <c r="G21" s="44" t="str" cm="1">
         <f t="array" ref="G21">INDEX($B$11:$B$36,MOD(MATCH(F21,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>K</v>
+        <v>N</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="16" t="str" cm="1">
         <f t="array" ref="I21">INDEX($B$11:$B$36,MOD(MATCH($B21,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>K</v>
+        <v>I</v>
       </c>
       <c r="J21" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I21,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>L</v>
+        <v>X</v>
       </c>
       <c r="K21" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>K</v>
+        <f t="shared" si="8"/>
+        <v>I</v>
       </c>
       <c r="L21" s="44" t="str" cm="1">
         <f t="array" ref="L21">INDEX($B$11:$B$36,MOD(MATCH(K21,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>K</v>
+        <v>P</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="16" t="str" cm="1">
         <f t="array" ref="N21">INDEX($B$11:$B$36,MOD(MATCH($B21,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>K</v>
+        <v>M</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N21,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>X</v>
+        <v>Z</v>
       </c>
       <c r="P21" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>K</v>
+        <f t="shared" si="9"/>
+        <v>M</v>
       </c>
       <c r="Q21" s="44" t="str" cm="1">
         <f t="array" ref="Q21">INDEX($B$11:$B$36,MOD(MATCH(P21,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>K</v>
+        <v>R</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="4">
@@ -3605,95 +3635,95 @@
         <v>10</v>
       </c>
       <c r="Z21" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>E</v>
       </c>
       <c r="AA21" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="AB21" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AC21" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="AD21" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>G</v>
+      </c>
+      <c r="AE21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="AF21" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="AG21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AH21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AI21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AJ21" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AK21" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
+      </c>
+      <c r="AL21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AM21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="AN21" s="40" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>N</v>
-      </c>
-      <c r="AB21" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="AC21" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB21,INDIRECT(AC$9),0))</f>
-        <v>T</v>
-      </c>
-      <c r="AD21" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC21,INDIRECT(AD$9),0))</f>
-        <v>T</v>
-      </c>
-      <c r="AE21" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="AF21" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE21,INDIRECT(AF$9),0))</f>
-        <v>A</v>
-      </c>
-      <c r="AG21" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
-      </c>
-      <c r="AH21" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
-      </c>
-      <c r="AI21" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="AJ21" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="AK21" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
-      </c>
-      <c r="AL21" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
-      </c>
-      <c r="AM21" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="AN21" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>O</v>
       </c>
       <c r="AP21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AQ21" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP21,INDIRECT(AQ$9),0))</f>
-        <v>K</v>
+        <f t="shared" ref="AQ21:AW30" ca="1" si="13">INDEX(INDIRECT(AQ$8),MATCH(AP21,INDIRECT(AQ$9),0))</f>
+        <v>M</v>
       </c>
       <c r="AR21" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ21,INDIRECT(AR$9),0))</f>
-        <v>U</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>V</v>
       </c>
       <c r="AS21" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR21,INDIRECT(AS$9),0))</f>
-        <v>U</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>R</v>
       </c>
       <c r="AT21" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS21,INDIRECT(AT$9),0))</f>
-        <v>H</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>G</v>
       </c>
       <c r="AU21" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT21,INDIRECT(AU$9),0))</f>
-        <v>H</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>C</v>
       </c>
       <c r="AV21" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU21,INDIRECT(AV$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Y</v>
       </c>
       <c r="AW21" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV21,INDIRECT(AW$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>E</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.2">
@@ -3706,53 +3736,53 @@
       <c r="C22" s="5"/>
       <c r="D22" s="16" t="str" cm="1">
         <f t="array" ref="D22">INDEX($B$11:$B$36,MOD(MATCH($B22,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>L</v>
+        <v>F</v>
       </c>
       <c r="E22" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D22,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>T</v>
+        <v>G</v>
       </c>
       <c r="F22" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
+        <f t="shared" si="7"/>
+        <v>F</v>
       </c>
       <c r="G22" s="44" t="str" cm="1">
         <f t="array" ref="G22">INDEX($B$11:$B$36,MOD(MATCH(F22,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>L</v>
+        <v>O</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="16" t="str" cm="1">
         <f t="array" ref="I22">INDEX($B$11:$B$36,MOD(MATCH($B22,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>L</v>
+        <v>J</v>
       </c>
       <c r="J22" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I22,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>H</v>
+        <v>B</v>
       </c>
       <c r="K22" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
+        <f t="shared" si="8"/>
+        <v>J</v>
       </c>
       <c r="L22" s="44" t="str" cm="1">
         <f t="array" ref="L22">INDEX($B$11:$B$36,MOD(MATCH(K22,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>L</v>
+        <v>Q</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="16" t="str" cm="1">
         <f t="array" ref="N22">INDEX($B$11:$B$36,MOD(MATCH($B22,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N22,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>V</v>
+        <v>N</v>
       </c>
       <c r="P22" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>L</v>
+        <f t="shared" si="9"/>
+        <v>N</v>
       </c>
       <c r="Q22" s="44" t="str" cm="1">
         <f t="array" ref="Q22">INDEX($B$11:$B$36,MOD(MATCH(P22,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>L</v>
+        <v>S</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="4">
@@ -3773,95 +3803,95 @@
         <v>11</v>
       </c>
       <c r="Z22" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="AA22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="AB22" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="AC22" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>L</v>
       </c>
-      <c r="AA22" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AD22" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AE22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AF22" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="AG22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
+      </c>
+      <c r="AH22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
+      </c>
+      <c r="AI22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AJ22" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AK22" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>T</v>
       </c>
-      <c r="AB22" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AL22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AM22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>T</v>
       </c>
-      <c r="AC22" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB22,INDIRECT(AC$9),0))</f>
-        <v>N</v>
-      </c>
-      <c r="AD22" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC22,INDIRECT(AD$9),0))</f>
-        <v>N</v>
-      </c>
-      <c r="AE22" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="AF22" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE22,INDIRECT(AF$9),0))</f>
-        <v>N</v>
-      </c>
-      <c r="AG22" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
-      </c>
-      <c r="AH22" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
-      </c>
-      <c r="AI22" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
-      </c>
-      <c r="AJ22" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>U</v>
-      </c>
-      <c r="AK22" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="AL22" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="AM22" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
-      </c>
       <c r="AN22" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
       </c>
       <c r="AP22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AQ22" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP22,INDIRECT(AQ$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>N</v>
       </c>
       <c r="AR22" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ22,INDIRECT(AR$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>N</v>
       </c>
       <c r="AS22" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR22,INDIRECT(AS$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>J</v>
       </c>
       <c r="AT22" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS22,INDIRECT(AT$9),0))</f>
+        <f t="shared" ca="1" si="13"/>
+        <v>B</v>
+      </c>
+      <c r="AU22" s="42" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>X</v>
+      </c>
+      <c r="AV22" s="42" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Q</v>
+      </c>
+      <c r="AW22" s="41" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>W</v>
-      </c>
-      <c r="AU22" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT22,INDIRECT(AU$9),0))</f>
-        <v>W</v>
-      </c>
-      <c r="AV22" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU22,INDIRECT(AV$9),0))</f>
-        <v>N</v>
-      </c>
-      <c r="AW22" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV22,INDIRECT(AW$9),0))</f>
-        <v>N</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.2">
@@ -3874,53 +3904,53 @@
       <c r="C23" s="5"/>
       <c r="D23" s="16" t="str" cm="1">
         <f t="array" ref="D23">INDEX($B$11:$B$36,MOD(MATCH($B23,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>M</v>
+        <v>G</v>
       </c>
       <c r="E23" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D23,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>O</v>
+        <v>D</v>
       </c>
       <c r="F23" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>M</v>
+        <f t="shared" si="7"/>
+        <v>G</v>
       </c>
       <c r="G23" s="44" t="str" cm="1">
         <f t="array" ref="G23">INDEX($B$11:$B$36,MOD(MATCH(F23,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>M</v>
+        <v>P</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="16" t="str" cm="1">
         <f t="array" ref="I23">INDEX($B$11:$B$36,MOD(MATCH($B23,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>M</v>
+        <v>K</v>
       </c>
       <c r="J23" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I23,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K23" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>M</v>
+        <f t="shared" si="8"/>
+        <v>K</v>
       </c>
       <c r="L23" s="44" t="str" cm="1">
         <f t="array" ref="L23">INDEX($B$11:$B$36,MOD(MATCH(K23,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>M</v>
+        <v>R</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="16" t="str" cm="1">
         <f t="array" ref="N23">INDEX($B$11:$B$36,MOD(MATCH($B23,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>M</v>
+        <v>O</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N23,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>Z</v>
+        <v>Y</v>
       </c>
       <c r="P23" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
+        <f t="shared" si="9"/>
+        <v>O</v>
       </c>
       <c r="Q23" s="44" t="str" cm="1">
         <f t="array" ref="Q23">INDEX($B$11:$B$36,MOD(MATCH(P23,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="4">
@@ -3941,95 +3971,95 @@
         <v>12</v>
       </c>
       <c r="Z23" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>G</v>
+      </c>
+      <c r="AA23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB23" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="AC23" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>U</v>
+      </c>
+      <c r="AD23" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Y</v>
+      </c>
+      <c r="AE23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AF23" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>O</v>
+      </c>
+      <c r="AG23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>M</v>
       </c>
-      <c r="AA23" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AB23" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="AC23" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB23,INDIRECT(AC$9),0))</f>
-        <v>M</v>
-      </c>
-      <c r="AD23" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC23,INDIRECT(AD$9),0))</f>
-        <v>M</v>
-      </c>
-      <c r="AE23" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AF23" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE23,INDIRECT(AF$9),0))</f>
-        <v>Z</v>
-      </c>
-      <c r="AG23" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ23" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AK23" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AL23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>T</v>
       </c>
-      <c r="AH23" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="AI23" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
-      </c>
-      <c r="AJ23" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>J</v>
-      </c>
-      <c r="AK23" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="AL23" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>B</v>
-      </c>
       <c r="AM23" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
       </c>
       <c r="AN23" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
       </c>
       <c r="AP23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AQ23" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP23,INDIRECT(AQ$9),0))</f>
-        <v>M</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>O</v>
       </c>
       <c r="AR23" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ23,INDIRECT(AR$9),0))</f>
+        <f t="shared" ca="1" si="13"/>
+        <v>Z</v>
+      </c>
+      <c r="AS23" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>V</v>
       </c>
-      <c r="AS23" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR23,INDIRECT(AS$9),0))</f>
-        <v>V</v>
-      </c>
       <c r="AT23" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS23,INDIRECT(AT$9),0))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>X</v>
       </c>
       <c r="AU23" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT23,INDIRECT(AU$9),0))</f>
-        <v>X</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>T</v>
       </c>
       <c r="AV23" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU23,INDIRECT(AV$9),0))</f>
-        <v>Q</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>L</v>
       </c>
       <c r="AW23" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV23,INDIRECT(AW$9),0))</f>
-        <v>Q</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>R</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.2">
@@ -4042,53 +4072,53 @@
       <c r="C24" s="5"/>
       <c r="D24" s="16" t="str" cm="1">
         <f t="array" ref="D24">INDEX($B$11:$B$36,MOD(MATCH($B24,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>N</v>
+        <v>H</v>
       </c>
       <c r="E24" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D24,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>W</v>
+        <v>Q</v>
       </c>
       <c r="F24" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
+        <f t="shared" si="7"/>
+        <v>H</v>
       </c>
       <c r="G24" s="44" t="str" cm="1">
         <f t="array" ref="G24">INDEX($B$11:$B$36,MOD(MATCH(F24,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>N</v>
+        <v>Q</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="16" t="str" cm="1">
         <f t="array" ref="I24">INDEX($B$11:$B$36,MOD(MATCH($B24,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="J24" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I24,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>T</v>
+        <v>H</v>
       </c>
       <c r="K24" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
+        <f t="shared" si="8"/>
+        <v>L</v>
       </c>
       <c r="L24" s="44" t="str" cm="1">
         <f t="array" ref="L24">INDEX($B$11:$B$36,MOD(MATCH(K24,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="16" t="str" cm="1">
         <f t="array" ref="N24">INDEX($B$11:$B$36,MOD(MATCH($B24,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N24,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>N</v>
+        <v>E</v>
       </c>
       <c r="P24" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>N</v>
+        <f t="shared" si="9"/>
+        <v>P</v>
       </c>
       <c r="Q24" s="44" t="str" cm="1">
         <f t="array" ref="Q24">INDEX($B$11:$B$36,MOD(MATCH(P24,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>N</v>
+        <v>U</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="4">
@@ -4109,95 +4139,95 @@
         <v>13</v>
       </c>
       <c r="Z24" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>H</v>
       </c>
       <c r="AA24" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
       </c>
       <c r="AB24" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
       </c>
       <c r="AC24" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB24,INDIRECT(AC$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>P</v>
       </c>
       <c r="AD24" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC24,INDIRECT(AD$9),0))</f>
-        <v>F</v>
-      </c>
-      <c r="AE24" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>T</v>
+      </c>
+      <c r="AE24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AF24" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Y</v>
+      </c>
+      <c r="AG24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AH24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="AI24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="AJ24" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="AK24" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AL24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>L</v>
       </c>
-      <c r="AF24" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE24,INDIRECT(AF$9),0))</f>
-        <v>L</v>
-      </c>
-      <c r="AG24" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
-      </c>
-      <c r="AH24" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>G</v>
-      </c>
-      <c r="AI24" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>S</v>
-      </c>
-      <c r="AJ24" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>S</v>
-      </c>
-      <c r="AK24" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>E</v>
       </c>
-      <c r="AL24" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="AM24" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
-      </c>
       <c r="AN24" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
       </c>
       <c r="AP24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AQ24" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP24,INDIRECT(AQ$9),0))</f>
-        <v>N</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>P</v>
       </c>
       <c r="AR24" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ24,INDIRECT(AR$9),0))</f>
-        <v>N</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>H</v>
       </c>
       <c r="AS24" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR24,INDIRECT(AS$9),0))</f>
-        <v>N</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>D</v>
       </c>
       <c r="AT24" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS24,INDIRECT(AT$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>C</v>
       </c>
       <c r="AU24" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT24,INDIRECT(AU$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Y</v>
       </c>
       <c r="AV24" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU24,INDIRECT(AV$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>O</v>
       </c>
       <c r="AW24" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV24,INDIRECT(AW$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>U</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.2">
@@ -4210,53 +4240,53 @@
       <c r="C25" s="5"/>
       <c r="D25" s="16" t="str" cm="1">
         <f t="array" ref="D25">INDEX($B$11:$B$36,MOD(MATCH($B25,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>O</v>
+        <v>I</v>
       </c>
       <c r="E25" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D25,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>Y</v>
+        <v>V</v>
       </c>
       <c r="F25" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
+        <f t="shared" si="7"/>
+        <v>I</v>
       </c>
       <c r="G25" s="44" t="str" cm="1">
         <f t="array" ref="G25">INDEX($B$11:$B$36,MOD(MATCH(F25,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>O</v>
+        <v>R</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="16" t="str" cm="1">
         <f t="array" ref="I25">INDEX($B$11:$B$36,MOD(MATCH($B25,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>O</v>
+        <v>M</v>
       </c>
       <c r="J25" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I25,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
+        <v>W</v>
+      </c>
+      <c r="K25" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>M</v>
-      </c>
-      <c r="K25" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>O</v>
       </c>
       <c r="L25" s="44" t="str" cm="1">
         <f t="array" ref="L25">INDEX($B$11:$B$36,MOD(MATCH(K25,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>O</v>
+        <v>T</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="16" t="str" cm="1">
         <f t="array" ref="N25">INDEX($B$11:$B$36,MOD(MATCH($B25,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>O</v>
+        <v>Q</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N25,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>Y</v>
+        <v>I</v>
       </c>
       <c r="P25" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>O</v>
+        <f t="shared" si="9"/>
+        <v>Q</v>
       </c>
       <c r="Q25" s="44" t="str" cm="1">
         <f t="array" ref="Q25">INDEX($B$11:$B$36,MOD(MATCH(P25,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="4">
@@ -4277,95 +4307,95 @@
         <v>14</v>
       </c>
       <c r="Z25" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>O</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>I</v>
       </c>
       <c r="AA25" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
       </c>
       <c r="AB25" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
       </c>
       <c r="AC25" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB25,INDIRECT(AC$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>E</v>
       </c>
       <c r="AD25" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC25,INDIRECT(AD$9),0))</f>
-        <v>O</v>
-      </c>
-      <c r="AE25" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Y</v>
-      </c>
-      <c r="AF25" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE25,INDIRECT(AF$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>I</v>
+      </c>
+      <c r="AE25" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AF25" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>P</v>
       </c>
       <c r="AG25" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
       </c>
       <c r="AH25" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
       </c>
       <c r="AI25" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
       </c>
       <c r="AJ25" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
       </c>
       <c r="AK25" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
       </c>
       <c r="AL25" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>M</v>
       </c>
       <c r="AM25" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
       </c>
       <c r="AN25" s="40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
       </c>
       <c r="AP25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AQ25" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP25,INDIRECT(AQ$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Q</v>
       </c>
       <c r="AR25" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ25,INDIRECT(AR$9),0))</f>
-        <v>Z</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Y</v>
       </c>
       <c r="AS25" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR25,INDIRECT(AS$9),0))</f>
-        <v>Z</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>U</v>
       </c>
       <c r="AT25" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS25,INDIRECT(AT$9),0))</f>
-        <v>S</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>H</v>
       </c>
       <c r="AU25" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT25,INDIRECT(AU$9),0))</f>
-        <v>S</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>D</v>
       </c>
       <c r="AV25" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU25,INDIRECT(AV$9),0))</f>
-        <v>S</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>G</v>
       </c>
       <c r="AW25" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV25,INDIRECT(AW$9),0))</f>
-        <v>S</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>M</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.2">
@@ -4378,53 +4408,53 @@
       <c r="C26" s="5"/>
       <c r="D26" s="16" t="str" cm="1">
         <f t="array" ref="D26">INDEX($B$11:$B$36,MOD(MATCH($B26,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>P</v>
+        <v>J</v>
       </c>
       <c r="E26" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D26,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>H</v>
+        <v>Z</v>
       </c>
       <c r="F26" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
+        <f t="shared" si="7"/>
+        <v>J</v>
       </c>
       <c r="G26" s="44" t="str" cm="1">
         <f t="array" ref="G26">INDEX($B$11:$B$36,MOD(MATCH(F26,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>P</v>
+        <v>S</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="16" t="str" cm="1">
         <f t="array" ref="I26">INDEX($B$11:$B$36,MOD(MATCH($B26,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="J26" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I26,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>C</v>
+        <v>T</v>
       </c>
       <c r="K26" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
+        <f t="shared" si="8"/>
+        <v>N</v>
       </c>
       <c r="L26" s="44" t="str" cm="1">
         <f t="array" ref="L26">INDEX($B$11:$B$36,MOD(MATCH(K26,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>P</v>
+        <v>U</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="16" t="str" cm="1">
         <f t="array" ref="N26">INDEX($B$11:$B$36,MOD(MATCH($B26,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>P</v>
+        <v>R</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N26,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>E</v>
+        <v>W</v>
       </c>
       <c r="P26" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
+        <f t="shared" si="9"/>
+        <v>R</v>
       </c>
       <c r="Q26" s="44" t="str" cm="1">
         <f t="array" ref="Q26">INDEX($B$11:$B$36,MOD(MATCH(P26,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>P</v>
+        <v>W</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="4">
@@ -4445,95 +4475,95 @@
         <v>15</v>
       </c>
       <c r="Z26" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>J</v>
       </c>
       <c r="AA26" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
       </c>
       <c r="AB26" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
       </c>
       <c r="AC26" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB26,INDIRECT(AC$9),0))</f>
-        <v>U</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>K</v>
       </c>
       <c r="AD26" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC26,INDIRECT(AD$9),0))</f>
-        <v>U</v>
-      </c>
-      <c r="AE26" s="46" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>O</v>
+      </c>
+      <c r="AE26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AF26" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>W</v>
+      </c>
+      <c r="AG26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AH26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AI26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>K</v>
       </c>
-      <c r="AF26" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE26,INDIRECT(AF$9),0))</f>
+      <c r="AJ26" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="AK26" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AL26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AM26" s="42" t="str">
+        <f t="shared" ref="AA26:AN36" ca="1" si="14">INDEX(INDIRECT(AM$8),MATCH(AL26,INDIRECT(AM$9),0))</f>
         <v>K</v>
       </c>
-      <c r="AG26" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="AH26" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="AI26" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="AJ26" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="AK26" s="45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="AL26" s="42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>T</v>
-      </c>
-      <c r="AM26" s="42" t="str">
-        <f t="shared" ref="AA26:AN36" ca="1" si="5">INDEX(INDIRECT(AM$8),MATCH(AL26,INDIRECT(AM$9),0))</f>
-        <v>L</v>
-      </c>
       <c r="AN26" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Q</v>
       </c>
       <c r="AP26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AQ26" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP26,INDIRECT(AQ$9),0))</f>
-        <v>P</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>R</v>
       </c>
       <c r="AR26" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ26,INDIRECT(AR$9),0))</f>
-        <v>H</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>I</v>
       </c>
       <c r="AS26" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR26,INDIRECT(AS$9),0))</f>
-        <v>H</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>E</v>
       </c>
       <c r="AT26" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS26,INDIRECT(AT$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Z</v>
       </c>
       <c r="AU26" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT26,INDIRECT(AU$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>V</v>
       </c>
       <c r="AV26" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU26,INDIRECT(AV$9),0))</f>
-        <v>E</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>I</v>
       </c>
       <c r="AW26" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV26,INDIRECT(AW$9),0))</f>
-        <v>E</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>O</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.2">
@@ -4546,53 +4576,53 @@
       <c r="C27" s="5"/>
       <c r="D27" s="16" t="str" cm="1">
         <f t="array" ref="D27">INDEX($B$11:$B$36,MOD(MATCH($B27,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>K</v>
       </c>
       <c r="E27" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D27,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>X</v>
+        <v>N</v>
       </c>
       <c r="F27" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Q</v>
+        <f t="shared" si="7"/>
+        <v>K</v>
       </c>
       <c r="G27" s="44" t="str" cm="1">
         <f t="array" ref="G27">INDEX($B$11:$B$36,MOD(MATCH(F27,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="16" t="str" cm="1">
         <f t="array" ref="I27">INDEX($B$11:$B$36,MOD(MATCH($B27,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>O</v>
       </c>
       <c r="J27" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I27,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>Q</v>
+        <v>M</v>
       </c>
       <c r="K27" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Q</v>
+        <f t="shared" si="8"/>
+        <v>O</v>
       </c>
       <c r="L27" s="44" t="str" cm="1">
         <f t="array" ref="L27">INDEX($B$11:$B$36,MOD(MATCH(K27,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>V</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="16" t="str" cm="1">
         <f t="array" ref="N27">INDEX($B$11:$B$36,MOD(MATCH($B27,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>S</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N27,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>I</v>
+        <v>G</v>
       </c>
       <c r="P27" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>Q</v>
+        <f t="shared" si="9"/>
+        <v>S</v>
       </c>
       <c r="Q27" s="44" t="str" cm="1">
         <f t="array" ref="Q27">INDEX($B$11:$B$36,MOD(MATCH(P27,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>X</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="4">
@@ -4613,95 +4643,95 @@
         <v>16</v>
       </c>
       <c r="Z27" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>K</v>
       </c>
       <c r="AA27" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>N</v>
+      </c>
+      <c r="AB27" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>R</v>
+      </c>
+      <c r="AC27" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>G</v>
+      </c>
+      <c r="AD27" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>K</v>
+      </c>
+      <c r="AE27" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>X</v>
       </c>
-      <c r="AB27" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="AC27" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB27,INDIRECT(AC$9),0))</f>
+      <c r="AF27" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>V</v>
       </c>
-      <c r="AD27" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC27,INDIRECT(AD$9),0))</f>
-        <v>V</v>
-      </c>
-      <c r="AE27" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AF27" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE27,INDIRECT(AF$9),0))</f>
-        <v>M</v>
-      </c>
       <c r="AG27" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>W</v>
+      </c>
+      <c r="AH27" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
+      </c>
+      <c r="AI27" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>O</v>
       </c>
-      <c r="AH27" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
-      <c r="AI27" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AJ27" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>K</v>
+      </c>
+      <c r="AK27" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>D</v>
+      </c>
+      <c r="AL27" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>Z</v>
       </c>
-      <c r="AJ27" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
-      </c>
-      <c r="AK27" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AL27" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
       <c r="AM27" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>J</v>
       </c>
       <c r="AN27" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
       </c>
       <c r="AP27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AQ27" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP27,INDIRECT(AQ$9),0))</f>
-        <v>Q</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>S</v>
       </c>
       <c r="AR27" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ27,INDIRECT(AR$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>X</v>
       </c>
       <c r="AS27" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR27,INDIRECT(AS$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>T</v>
       </c>
       <c r="AT27" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS27,INDIRECT(AT$9),0))</f>
-        <v>V</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>N</v>
       </c>
       <c r="AU27" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT27,INDIRECT(AU$9),0))</f>
-        <v>V</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>J</v>
       </c>
       <c r="AV27" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU27,INDIRECT(AV$9),0))</f>
-        <v>I</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Z</v>
       </c>
       <c r="AW27" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV27,INDIRECT(AW$9),0))</f>
-        <v>I</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>F</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.2">
@@ -4714,53 +4744,53 @@
       <c r="C28" s="5"/>
       <c r="D28" s="16" t="str" cm="1">
         <f t="array" ref="D28">INDEX($B$11:$B$36,MOD(MATCH($B28,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>R</v>
+        <v>L</v>
       </c>
       <c r="E28" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D28,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>U</v>
+        <v>T</v>
       </c>
       <c r="F28" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
+        <f t="shared" si="7"/>
+        <v>L</v>
       </c>
       <c r="G28" s="44" t="str" cm="1">
         <f t="array" ref="G28">INDEX($B$11:$B$36,MOD(MATCH(F28,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>R</v>
+        <v>U</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="16" t="str" cm="1">
         <f t="array" ref="I28">INDEX($B$11:$B$36,MOD(MATCH($B28,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>R</v>
+        <v>P</v>
       </c>
       <c r="J28" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I28,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="K28" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
+        <f t="shared" si="8"/>
+        <v>P</v>
       </c>
       <c r="L28" s="44" t="str" cm="1">
         <f t="array" ref="L28">INDEX($B$11:$B$36,MOD(MATCH(K28,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>R</v>
+        <v>W</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="16" t="str" cm="1">
         <f t="array" ref="N28">INDEX($B$11:$B$36,MOD(MATCH($B28,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>R</v>
+        <v>T</v>
       </c>
       <c r="O28" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N28,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>W</v>
+        <v>A</v>
       </c>
       <c r="P28" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>R</v>
+        <f t="shared" si="9"/>
+        <v>T</v>
       </c>
       <c r="Q28" s="44" t="str" cm="1">
         <f t="array" ref="Q28">INDEX($B$11:$B$36,MOD(MATCH(P28,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>R</v>
+        <v>Y</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="4">
@@ -4781,95 +4811,95 @@
         <v>17</v>
       </c>
       <c r="Z28" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>L</v>
       </c>
       <c r="AA28" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>T</v>
+      </c>
+      <c r="AB28" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>X</v>
+      </c>
+      <c r="AC28" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>V</v>
+      </c>
+      <c r="AD28" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Z</v>
+      </c>
+      <c r="AE28" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>O</v>
+      </c>
+      <c r="AF28" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="AG28" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>O</v>
+      </c>
+      <c r="AH28" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Q</v>
+      </c>
+      <c r="AI28" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
+      </c>
+      <c r="AJ28" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>U</v>
       </c>
-      <c r="AB28" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>U</v>
-      </c>
-      <c r="AC28" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB28,INDIRECT(AC$9),0))</f>
-        <v>P</v>
-      </c>
-      <c r="AD28" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC28,INDIRECT(AD$9),0))</f>
-        <v>P</v>
-      </c>
-      <c r="AE28" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>E</v>
-      </c>
-      <c r="AF28" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE28,INDIRECT(AF$9),0))</f>
-        <v>E</v>
-      </c>
-      <c r="AG28" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
-      <c r="AH28" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
-      <c r="AI28" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="AJ28" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
-      </c>
       <c r="AK28" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
       </c>
       <c r="AL28" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>D</v>
       </c>
       <c r="AM28" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
       </c>
       <c r="AN28" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>M</v>
       </c>
       <c r="AP28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AQ28" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP28,INDIRECT(AQ$9),0))</f>
-        <v>R</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>T</v>
       </c>
       <c r="AR28" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ28,INDIRECT(AR$9),0))</f>
-        <v>I</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>J</v>
       </c>
       <c r="AS28" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR28,INDIRECT(AS$9),0))</f>
-        <v>I</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>F</v>
       </c>
       <c r="AT28" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS28,INDIRECT(AT$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>W</v>
       </c>
       <c r="AU28" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT28,INDIRECT(AU$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>S</v>
       </c>
       <c r="AV28" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU28,INDIRECT(AV$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>S</v>
       </c>
       <c r="AW28" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV28,INDIRECT(AW$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>Y</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.2">
@@ -4882,53 +4912,53 @@
       <c r="C29" s="5"/>
       <c r="D29" s="16" t="str" cm="1">
         <f t="array" ref="D29">INDEX($B$11:$B$36,MOD(MATCH($B29,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="E29" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D29,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>S</v>
+        <v>O</v>
       </c>
       <c r="F29" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
+        <f t="shared" si="7"/>
+        <v>M</v>
       </c>
       <c r="G29" s="44" t="str" cm="1">
         <f t="array" ref="G29">INDEX($B$11:$B$36,MOD(MATCH(F29,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>S</v>
+        <v>V</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="16" t="str" cm="1">
         <f t="array" ref="I29">INDEX($B$11:$B$36,MOD(MATCH($B29,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="J29" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I29,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>Z</v>
+        <v>Q</v>
       </c>
       <c r="K29" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>S</v>
+        <f t="shared" si="8"/>
+        <v>Q</v>
       </c>
       <c r="L29" s="44" t="str" cm="1">
         <f t="array" ref="L29">INDEX($B$11:$B$36,MOD(MATCH(K29,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>S</v>
+        <v>X</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="16" t="str" cm="1">
         <f t="array" ref="N29">INDEX($B$11:$B$36,MOD(MATCH($B29,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>S</v>
+        <v>U</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N29,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>G</v>
+        <v>K</v>
       </c>
       <c r="P29" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
+        <f t="shared" si="9"/>
+        <v>U</v>
       </c>
       <c r="Q29" s="44" t="str" cm="1">
         <f t="array" ref="Q29">INDEX($B$11:$B$36,MOD(MATCH(P29,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>S</v>
+        <v>Z</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4">
@@ -4949,95 +4979,95 @@
         <v>18</v>
       </c>
       <c r="Z29" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>M</v>
+      </c>
+      <c r="AA29" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>O</v>
+      </c>
+      <c r="AB29" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>S</v>
       </c>
-      <c r="AA29" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AC29" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Z</v>
+      </c>
+      <c r="AD29" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>D</v>
+      </c>
+      <c r="AE29" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
+      </c>
+      <c r="AF29" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>F</v>
+      </c>
+      <c r="AG29" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>S</v>
       </c>
-      <c r="AB29" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AH29" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>U</v>
+      </c>
+      <c r="AI29" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>W</v>
+      </c>
+      <c r="AJ29" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>S</v>
       </c>
-      <c r="AC29" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB29,INDIRECT(AC$9),0))</f>
-        <v>Z</v>
-      </c>
-      <c r="AD29" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC29,INDIRECT(AD$9),0))</f>
-        <v>Z</v>
-      </c>
-      <c r="AE29" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
-      <c r="AF29" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE29,INDIRECT(AF$9),0))</f>
-        <v>O</v>
-      </c>
-      <c r="AG29" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AH29" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AI29" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
-      </c>
-      <c r="AJ29" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
-      </c>
       <c r="AK29" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>E</v>
       </c>
       <c r="AL29" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AM29" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>U</v>
       </c>
       <c r="AN29" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AP29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ29" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP29,INDIRECT(AQ$9),0))</f>
+        <f t="shared" ca="1" si="13"/>
+        <v>U</v>
+      </c>
+      <c r="AR29" s="42" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>W</v>
+      </c>
+      <c r="AS29" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>S</v>
       </c>
-      <c r="AR29" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ29,INDIRECT(AR$9),0))</f>
-        <v>X</v>
-      </c>
-      <c r="AS29" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR29,INDIRECT(AS$9),0))</f>
-        <v>X</v>
-      </c>
       <c r="AT29" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS29,INDIRECT(AT$9),0))</f>
-        <v>I</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>E</v>
       </c>
       <c r="AU29" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT29,INDIRECT(AU$9),0))</f>
-        <v>I</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>A</v>
       </c>
       <c r="AV29" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU29,INDIRECT(AV$9),0))</f>
-        <v>V</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>U</v>
       </c>
       <c r="AW29" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV29,INDIRECT(AW$9),0))</f>
-        <v>V</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>A</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.2">
@@ -5050,53 +5080,53 @@
       <c r="C30" s="5"/>
       <c r="D30" s="16" t="str" cm="1">
         <f t="array" ref="D30">INDEX($B$11:$B$36,MOD(MATCH($B30,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>T</v>
+        <v>N</v>
       </c>
       <c r="E30" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D30,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>P</v>
+        <v>W</v>
       </c>
       <c r="F30" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
+        <f t="shared" si="7"/>
+        <v>N</v>
       </c>
       <c r="G30" s="44" t="str" cm="1">
         <f t="array" ref="G30">INDEX($B$11:$B$36,MOD(MATCH(F30,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="16" t="str" cm="1">
         <f t="array" ref="I30">INDEX($B$11:$B$36,MOD(MATCH($B30,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>T</v>
+        <v>R</v>
       </c>
       <c r="J30" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I30,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>N</v>
+        <v>G</v>
       </c>
       <c r="K30" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
+        <f t="shared" si="8"/>
+        <v>R</v>
       </c>
       <c r="L30" s="44" t="str" cm="1">
         <f t="array" ref="L30">INDEX($B$11:$B$36,MOD(MATCH(K30,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>T</v>
+        <v>Y</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="16" t="str" cm="1">
         <f t="array" ref="N30">INDEX($B$11:$B$36,MOD(MATCH($B30,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>T</v>
+        <v>V</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N30,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>A</v>
+        <v>M</v>
       </c>
       <c r="P30" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
+        <f t="shared" si="9"/>
+        <v>V</v>
       </c>
       <c r="Q30" s="44" t="str" cm="1">
         <f t="array" ref="Q30">INDEX($B$11:$B$36,MOD(MATCH(P30,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>T</v>
+        <v>A</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="4">
@@ -5117,95 +5147,95 @@
         <v>19</v>
       </c>
       <c r="Z30" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>N</v>
       </c>
       <c r="AA30" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>W</v>
       </c>
       <c r="AB30" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AC30" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB30,INDIRECT(AC$9),0))</f>
+        <f t="shared" ca="1" si="11"/>
+        <v>A</v>
+      </c>
+      <c r="AD30" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="AE30" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>J</v>
+      </c>
+      <c r="AF30" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>H</v>
+      </c>
+      <c r="AG30" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>D</v>
+      </c>
+      <c r="AH30" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>F</v>
+      </c>
+      <c r="AI30" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>C</v>
       </c>
-      <c r="AD30" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC30,INDIRECT(AD$9),0))</f>
-        <v>C</v>
-      </c>
-      <c r="AE30" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AF30" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE30,INDIRECT(AF$9),0))</f>
-        <v>F</v>
-      </c>
-      <c r="AG30" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AH30" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AI30" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AJ30" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
+      </c>
+      <c r="AK30" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>V</v>
+      </c>
+      <c r="AL30" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>R</v>
+      </c>
+      <c r="AM30" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>X</v>
       </c>
-      <c r="AJ30" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="AK30" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
-      </c>
-      <c r="AL30" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
-      </c>
-      <c r="AM30" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
-      </c>
       <c r="AN30" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>D</v>
       </c>
       <c r="AP30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AQ30" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP30,INDIRECT(AQ$9),0))</f>
-        <v>T</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>V</v>
       </c>
       <c r="AR30" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ30,INDIRECT(AR$9),0))</f>
-        <v>J</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>L</v>
       </c>
       <c r="AS30" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR30,INDIRECT(AS$9),0))</f>
-        <v>J</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>H</v>
       </c>
       <c r="AT30" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS30,INDIRECT(AT$9),0))</f>
-        <v>B</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>L</v>
       </c>
       <c r="AU30" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT30,INDIRECT(AU$9),0))</f>
-        <v>B</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>H</v>
       </c>
       <c r="AV30" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU30,INDIRECT(AV$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>P</v>
       </c>
       <c r="AW30" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV30,INDIRECT(AW$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>V</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.2">
@@ -5218,53 +5248,53 @@
       <c r="C31" s="5"/>
       <c r="D31" s="16" t="str" cm="1">
         <f t="array" ref="D31">INDEX($B$11:$B$36,MOD(MATCH($B31,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>U</v>
+        <v>O</v>
       </c>
       <c r="E31" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D31,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>A</v>
+        <v>Y</v>
       </c>
       <c r="F31" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>U</v>
+        <f t="shared" si="7"/>
+        <v>O</v>
       </c>
       <c r="G31" s="44" t="str" cm="1">
         <f t="array" ref="G31">INDEX($B$11:$B$36,MOD(MATCH(F31,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>U</v>
+        <v>X</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="16" t="str" cm="1">
         <f t="array" ref="I31">INDEX($B$11:$B$36,MOD(MATCH($B31,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>U</v>
+        <v>S</v>
       </c>
       <c r="J31" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I31,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>P</v>
+        <v>Z</v>
       </c>
       <c r="K31" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>U</v>
+        <f t="shared" si="8"/>
+        <v>S</v>
       </c>
       <c r="L31" s="44" t="str" cm="1">
         <f t="array" ref="L31">INDEX($B$11:$B$36,MOD(MATCH(K31,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>U</v>
+        <v>Z</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="16" t="str" cm="1">
         <f t="array" ref="N31">INDEX($B$11:$B$36,MOD(MATCH($B31,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>U</v>
+        <v>W</v>
       </c>
       <c r="O31" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N31,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>K</v>
+        <v>U</v>
       </c>
       <c r="P31" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>U</v>
+        <f t="shared" si="9"/>
+        <v>W</v>
       </c>
       <c r="Q31" s="44" t="str" cm="1">
         <f t="array" ref="Q31">INDEX($B$11:$B$36,MOD(MATCH(P31,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>U</v>
+        <v>B</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="4">
@@ -5285,95 +5315,95 @@
         <v>20</v>
       </c>
       <c r="Z31" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>O</v>
       </c>
       <c r="AA31" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
       </c>
       <c r="AB31" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>C</v>
       </c>
       <c r="AC31" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB31,INDIRECT(AC$9),0))</f>
-        <v>A</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>D</v>
       </c>
       <c r="AD31" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC31,INDIRECT(AD$9),0))</f>
-        <v>A</v>
-      </c>
-      <c r="AE31" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="AF31" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE31,INDIRECT(AF$9),0))</f>
-        <v>B</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>H</v>
+      </c>
+      <c r="AE31" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
+      </c>
+      <c r="AF31" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>N</v>
       </c>
       <c r="AG31" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>K</v>
+      </c>
+      <c r="AH31" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>M</v>
+      </c>
+      <c r="AI31" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>V</v>
+      </c>
+      <c r="AJ31" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>R</v>
       </c>
-      <c r="AH31" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AI31" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
-      </c>
-      <c r="AJ31" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
-      </c>
       <c r="AK31" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
       </c>
       <c r="AL31" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>C</v>
       </c>
       <c r="AM31" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
       </c>
       <c r="AN31" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>E</v>
       </c>
       <c r="AP31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AQ31" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP31,INDIRECT(AQ$9),0))</f>
-        <v>U</v>
+        <f t="shared" ref="AQ31:AW36" ca="1" si="15">INDEX(INDIRECT(AQ$8),MATCH(AP31,INDIRECT(AQ$9),0))</f>
+        <v>W</v>
       </c>
       <c r="AR31" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ31,INDIRECT(AR$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>R</v>
       </c>
       <c r="AS31" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR31,INDIRECT(AS$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
       </c>
       <c r="AT31" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS31,INDIRECT(AT$9),0))</f>
-        <v>M</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
       </c>
       <c r="AU31" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT31,INDIRECT(AU$9),0))</f>
-        <v>M</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
       </c>
       <c r="AV31" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU31,INDIRECT(AV$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
       </c>
       <c r="AW31" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV31,INDIRECT(AW$9),0))</f>
-        <v>C</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.2">
@@ -5386,53 +5416,53 @@
       <c r="C32" s="5"/>
       <c r="D32" s="16" t="str" cm="1">
         <f t="array" ref="D32">INDEX($B$11:$B$36,MOD(MATCH($B32,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>V</v>
+        <v>P</v>
       </c>
       <c r="E32" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D32,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>I</v>
+        <v>H</v>
       </c>
       <c r="F32" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>V</v>
+        <f t="shared" si="7"/>
+        <v>P</v>
       </c>
       <c r="G32" s="44" t="str" cm="1">
         <f t="array" ref="G32">INDEX($B$11:$B$36,MOD(MATCH(F32,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>V</v>
+        <v>Y</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="16" t="str" cm="1">
         <f t="array" ref="I32">INDEX($B$11:$B$36,MOD(MATCH($B32,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>V</v>
+        <v>T</v>
       </c>
       <c r="J32" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I32,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="K32" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>V</v>
+        <f t="shared" si="8"/>
+        <v>T</v>
       </c>
       <c r="L32" s="44" t="str" cm="1">
         <f t="array" ref="L32">INDEX($B$11:$B$36,MOD(MATCH(K32,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>V</v>
+        <v>A</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="16" t="str" cm="1">
         <f t="array" ref="N32">INDEX($B$11:$B$36,MOD(MATCH($B32,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>V</v>
+        <v>X</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N32,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="P32" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>V</v>
+        <f t="shared" si="9"/>
+        <v>X</v>
       </c>
       <c r="Q32" s="44" t="str" cm="1">
         <f t="array" ref="Q32">INDEX($B$11:$B$36,MOD(MATCH(P32,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>V</v>
+        <v>C</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="4">
@@ -5453,95 +5483,95 @@
         <v>21</v>
       </c>
       <c r="Z32" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>P</v>
+      </c>
+      <c r="AA32" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
+      </c>
+      <c r="AB32" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>L</v>
+      </c>
+      <c r="AC32" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>H</v>
+      </c>
+      <c r="AD32" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>L</v>
+      </c>
+      <c r="AE32" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>V</v>
       </c>
-      <c r="AA32" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AF32" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>T</v>
+      </c>
+      <c r="AG32" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Z</v>
+      </c>
+      <c r="AH32" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>B</v>
+      </c>
+      <c r="AI32" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
+      </c>
+      <c r="AJ32" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>W</v>
+      </c>
+      <c r="AK32" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>M</v>
+      </c>
+      <c r="AL32" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>I</v>
       </c>
-      <c r="AB32" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
-      </c>
-      <c r="AC32" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB32,INDIRECT(AC$9),0))</f>
-        <v>X</v>
-      </c>
-      <c r="AD32" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC32,INDIRECT(AD$9),0))</f>
-        <v>X</v>
-      </c>
-      <c r="AE32" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AF32" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE32,INDIRECT(AF$9),0))</f>
-        <v>S</v>
-      </c>
-      <c r="AG32" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AH32" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AI32" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AJ32" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AK32" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
-      <c r="AL32" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
       <c r="AM32" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>V</v>
       </c>
       <c r="AN32" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>B</v>
       </c>
       <c r="AP32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AQ32" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP32,INDIRECT(AQ$9),0))</f>
-        <v>V</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>X</v>
       </c>
       <c r="AR32" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ32,INDIRECT(AR$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
       </c>
       <c r="AS32" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR32,INDIRECT(AS$9),0))</f>
-        <v>L</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>G</v>
       </c>
       <c r="AT32" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS32,INDIRECT(AT$9),0))</f>
+        <f t="shared" ca="1" si="15"/>
+        <v>R</v>
+      </c>
+      <c r="AU32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
+      </c>
+      <c r="AV32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>K</v>
       </c>
-      <c r="AU32" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT32,INDIRECT(AU$9),0))</f>
-        <v>K</v>
-      </c>
-      <c r="AV32" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU32,INDIRECT(AV$9),0))</f>
-        <v>B</v>
-      </c>
       <c r="AW32" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV32,INDIRECT(AW$9),0))</f>
-        <v>B</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Q</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.2">
@@ -5554,53 +5584,53 @@
       <c r="C33" s="5"/>
       <c r="D33" s="16" t="str" cm="1">
         <f t="array" ref="D33">INDEX($B$11:$B$36,MOD(MATCH($B33,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>W</v>
+        <v>Q</v>
       </c>
       <c r="E33" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D33,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>B</v>
+        <v>X</v>
       </c>
       <c r="F33" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>W</v>
+        <f t="shared" si="7"/>
+        <v>Q</v>
       </c>
       <c r="G33" s="44" t="str" cm="1">
         <f t="array" ref="G33">INDEX($B$11:$B$36,MOD(MATCH(F33,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>W</v>
+        <v>Z</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="16" t="str" cm="1">
         <f t="array" ref="I33">INDEX($B$11:$B$36,MOD(MATCH($B33,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>W</v>
+        <v>U</v>
       </c>
       <c r="J33" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I33,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="K33" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>W</v>
+        <f t="shared" si="8"/>
+        <v>U</v>
       </c>
       <c r="L33" s="44" t="str" cm="1">
         <f t="array" ref="L33">INDEX($B$11:$B$36,MOD(MATCH(K33,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>W</v>
+        <v>B</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="16" t="str" cm="1">
         <f t="array" ref="N33">INDEX($B$11:$B$36,MOD(MATCH($B33,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>W</v>
+        <v>Y</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N33,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>U</v>
+        <v>Q</v>
       </c>
       <c r="P33" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
+        <f t="shared" si="9"/>
+        <v>Y</v>
       </c>
       <c r="Q33" s="44" t="str" cm="1">
         <f t="array" ref="Q33">INDEX($B$11:$B$36,MOD(MATCH(P33,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>W</v>
+        <v>D</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4">
@@ -5621,95 +5651,95 @@
         <v>22</v>
       </c>
       <c r="Z33" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>Q</v>
       </c>
       <c r="AA33" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>X</v>
+      </c>
+      <c r="AB33" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>B</v>
       </c>
-      <c r="AB33" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AC33" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>J</v>
+      </c>
+      <c r="AD33" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>N</v>
+      </c>
+      <c r="AE33" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>N</v>
+      </c>
+      <c r="AF33" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="AG33" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="AH33" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>I</v>
+      </c>
+      <c r="AI33" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Q</v>
+      </c>
+      <c r="AJ33" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>M</v>
+      </c>
+      <c r="AK33" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>O</v>
+      </c>
+      <c r="AL33" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>K</v>
+      </c>
+      <c r="AM33" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>B</v>
       </c>
-      <c r="AC33" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB33,INDIRECT(AC$9),0))</f>
-        <v>J</v>
-      </c>
-      <c r="AD33" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC33,INDIRECT(AD$9),0))</f>
-        <v>J</v>
-      </c>
-      <c r="AE33" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="AF33" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE33,INDIRECT(AF$9),0))</f>
-        <v>T</v>
-      </c>
-      <c r="AG33" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
-      </c>
-      <c r="AH33" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
-      </c>
-      <c r="AI33" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AJ33" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AK33" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
-      <c r="AL33" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
-      <c r="AM33" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
       <c r="AN33" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
       </c>
       <c r="AP33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AQ33" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP33,INDIRECT(AQ$9),0))</f>
-        <v>W</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Y</v>
       </c>
       <c r="AR33" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ33,INDIRECT(AR$9),0))</f>
-        <v>R</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>O</v>
       </c>
       <c r="AS33" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR33,INDIRECT(AS$9),0))</f>
-        <v>R</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
       </c>
       <c r="AT33" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS33,INDIRECT(AT$9),0))</f>
-        <v>G</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>D</v>
       </c>
       <c r="AU33" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT33,INDIRECT(AU$9),0))</f>
-        <v>G</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
       </c>
       <c r="AV33" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU33,INDIRECT(AV$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
       </c>
       <c r="AW33" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV33,INDIRECT(AW$9),0))</f>
-        <v>F</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.2">
@@ -5722,53 +5752,53 @@
       <c r="C34" s="5"/>
       <c r="D34" s="16" t="str" cm="1">
         <f t="array" ref="D34">INDEX($B$11:$B$36,MOD(MATCH($B34,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>X</v>
+        <v>R</v>
       </c>
       <c r="E34" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D34,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
+        <v>U</v>
+      </c>
+      <c r="F34" s="25" t="str">
+        <f t="shared" si="7"/>
         <v>R</v>
-      </c>
-      <c r="F34" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
       </c>
       <c r="G34" s="44" t="str" cm="1">
         <f t="array" ref="G34">INDEX($B$11:$B$36,MOD(MATCH(F34,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>X</v>
+        <v>A</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="16" t="str" cm="1">
         <f t="array" ref="I34">INDEX($B$11:$B$36,MOD(MATCH($B34,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>X</v>
+        <v>V</v>
       </c>
       <c r="J34" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I34,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
+        <v>Y</v>
+      </c>
+      <c r="K34" s="25" t="str">
+        <f t="shared" si="8"/>
         <v>V</v>
-      </c>
-      <c r="K34" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>X</v>
       </c>
       <c r="L34" s="44" t="str" cm="1">
         <f t="array" ref="L34">INDEX($B$11:$B$36,MOD(MATCH(K34,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>X</v>
+        <v>C</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="16" t="str" cm="1">
         <f t="array" ref="N34">INDEX($B$11:$B$36,MOD(MATCH($B34,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>X</v>
+        <v>Z</v>
       </c>
       <c r="O34" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N34,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>S</v>
+        <v>O</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
+        <f t="shared" si="9"/>
+        <v>Z</v>
       </c>
       <c r="Q34" s="44" t="str" cm="1">
         <f t="array" ref="Q34">INDEX($B$11:$B$36,MOD(MATCH(P34,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>X</v>
+        <v>E</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="4">
@@ -5789,95 +5819,95 @@
         <v>23</v>
       </c>
       <c r="Z34" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="10"/>
+        <v>R</v>
+      </c>
+      <c r="AA34" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>U</v>
+      </c>
+      <c r="AB34" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
+      </c>
+      <c r="AC34" s="45" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>O</v>
+      </c>
+      <c r="AD34" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>S</v>
+      </c>
+      <c r="AE34" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="AF34" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="AG34" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Q</v>
+      </c>
+      <c r="AH34" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>S</v>
+      </c>
+      <c r="AI34" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>X</v>
       </c>
-      <c r="AA34" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AB34" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AC34" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB34,INDIRECT(AC$9),0))</f>
-        <v>G</v>
-      </c>
-      <c r="AD34" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC34,INDIRECT(AD$9),0))</f>
-        <v>G</v>
-      </c>
-      <c r="AE34" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AF34" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE34,INDIRECT(AF$9),0))</f>
-        <v>C</v>
-      </c>
-      <c r="AG34" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>U</v>
-      </c>
-      <c r="AH34" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>U</v>
-      </c>
-      <c r="AI34" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
       <c r="AJ34" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>T</v>
       </c>
       <c r="AK34" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>N</v>
       </c>
       <c r="AL34" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>J</v>
       </c>
       <c r="AM34" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Z</v>
       </c>
       <c r="AN34" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>F</v>
       </c>
       <c r="AP34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AQ34" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP34,INDIRECT(AQ$9),0))</f>
-        <v>X</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
       </c>
       <c r="AR34" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ34,INDIRECT(AR$9),0))</f>
-        <v>K</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>M</v>
       </c>
       <c r="AS34" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR34,INDIRECT(AS$9),0))</f>
-        <v>K</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>I</v>
       </c>
       <c r="AT34" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS34,INDIRECT(AT$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>F</v>
       </c>
       <c r="AU34" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT34,INDIRECT(AU$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
       </c>
       <c r="AV34" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU34,INDIRECT(AV$9),0))</f>
-        <v>G</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
       </c>
       <c r="AW34" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV34,INDIRECT(AW$9),0))</f>
-        <v>G</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>C</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.2">
@@ -5890,53 +5920,53 @@
       <c r="C35" s="5"/>
       <c r="D35" s="16" t="str" cm="1">
         <f t="array" ref="D35">INDEX($B$11:$B$36,MOD(MATCH($B35,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>S</v>
       </c>
       <c r="E35" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D35,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
+        <f t="shared" si="7"/>
+        <v>S</v>
       </c>
       <c r="G35" s="44" t="str" cm="1">
         <f t="array" ref="G35">INDEX($B$11:$B$36,MOD(MATCH(F35,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>B</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="16" t="str" cm="1">
         <f t="array" ref="I35">INDEX($B$11:$B$36,MOD(MATCH($B35,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>W</v>
       </c>
       <c r="J35" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I35,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>O</v>
+        <v>F</v>
       </c>
       <c r="K35" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
+        <f t="shared" si="8"/>
+        <v>W</v>
       </c>
       <c r="L35" s="44" t="str" cm="1">
         <f t="array" ref="L35">INDEX($B$11:$B$36,MOD(MATCH(K35,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>D</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="16" t="str" cm="1">
         <f t="array" ref="N35">INDEX($B$11:$B$36,MOD(MATCH($B35,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>A</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N35,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>Q</v>
+        <v>B</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
+        <f t="shared" si="9"/>
+        <v>A</v>
       </c>
       <c r="Q35" s="44" t="str" cm="1">
         <f t="array" ref="Q35">INDEX($B$11:$B$36,MOD(MATCH(P35,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>F</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="4">
@@ -5957,95 +5987,95 @@
         <v>24</v>
       </c>
       <c r="Z35" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>S</v>
       </c>
       <c r="AA35" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>S</v>
       </c>
       <c r="AB35" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>W</v>
       </c>
       <c r="AC35" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB35,INDIRECT(AC$9),0))</f>
+        <f t="shared" ca="1" si="11"/>
+        <v>F</v>
+      </c>
+      <c r="AD35" s="42" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>J</v>
+      </c>
+      <c r="AE35" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>T</v>
+      </c>
+      <c r="AF35" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="AG35" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>B</v>
+      </c>
+      <c r="AH35" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>D</v>
       </c>
-      <c r="AD35" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC35,INDIRECT(AD$9),0))</f>
-        <v>D</v>
-      </c>
-      <c r="AE35" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>H</v>
-      </c>
-      <c r="AF35" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE35,INDIRECT(AF$9),0))</f>
-        <v>H</v>
-      </c>
-      <c r="AG35" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="AH35" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
       <c r="AI35" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>B</v>
       </c>
       <c r="AJ35" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>X</v>
       </c>
       <c r="AK35" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>I</v>
       </c>
       <c r="AL35" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>E</v>
       </c>
       <c r="AM35" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AN35" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
       </c>
       <c r="AP35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AQ35" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP35,INDIRECT(AQ$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>A</v>
       </c>
       <c r="AR35" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ35,INDIRECT(AR$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
       </c>
       <c r="AS35" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR35,INDIRECT(AS$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
       </c>
       <c r="AT35" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS35,INDIRECT(AT$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>U</v>
       </c>
       <c r="AU35" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT35,INDIRECT(AU$9),0))</f>
-        <v>Y</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Q</v>
       </c>
       <c r="AV35" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU35,INDIRECT(AV$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>H</v>
       </c>
       <c r="AW35" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV35,INDIRECT(AW$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.2">
@@ -6058,53 +6088,53 @@
       <c r="C36" s="5"/>
       <c r="D36" s="16" t="str" cm="1">
         <f t="array" ref="D36">INDEX($B$11:$B$36,MOD(MATCH($B36,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>T</v>
       </c>
       <c r="E36" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D36,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>J</v>
+        <v>P</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>Z</v>
+        <f t="shared" si="7"/>
+        <v>T</v>
       </c>
       <c r="G36" s="44" t="str" cm="1">
         <f t="array" ref="G36">INDEX($B$11:$B$36,MOD(MATCH(F36,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>C</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="16" t="str" cm="1">
         <f t="array" ref="I36">INDEX($B$11:$B$36,MOD(MATCH($B36,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>X</v>
       </c>
       <c r="J36" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I36,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>E</v>
+        <v>V</v>
       </c>
       <c r="K36" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Z</v>
+        <f t="shared" si="8"/>
+        <v>X</v>
       </c>
       <c r="L36" s="44" t="str" cm="1">
         <f t="array" ref="L36">INDEX($B$11:$B$36,MOD(MATCH(K36,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>E</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="16" t="str" cm="1">
         <f t="array" ref="N36">INDEX($B$11:$B$36,MOD(MATCH($B36,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>B</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N36,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>O</v>
+        <v>D</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>Z</v>
+        <f t="shared" si="9"/>
+        <v>B</v>
       </c>
       <c r="Q36" s="44" t="str" cm="1">
         <f t="array" ref="Q36">INDEX($B$11:$B$36,MOD(MATCH(P36,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>G</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="4">
@@ -6125,95 +6155,95 @@
         <v>25</v>
       </c>
       <c r="Z36" s="45" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>T</v>
       </c>
       <c r="AA36" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
       </c>
       <c r="AB36" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>T</v>
       </c>
       <c r="AC36" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AC$8),MATCH(AB36,INDIRECT(AC$9),0))</f>
-        <v>B</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>N</v>
       </c>
       <c r="AD36" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AD$8),MATCH(AC36,INDIRECT(AD$9),0))</f>
-        <v>B</v>
-      </c>
-      <c r="AE36" s="46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="AF36" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AF$8),MATCH(AE36,INDIRECT(AF$9),0))</f>
-        <v>D</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>R</v>
+      </c>
+      <c r="AE36" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>W</v>
+      </c>
+      <c r="AF36" s="46" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>U</v>
       </c>
       <c r="AG36" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>C</v>
       </c>
       <c r="AH36" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>E</v>
       </c>
       <c r="AI36" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
       </c>
       <c r="AJ36" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>L</v>
       </c>
       <c r="AK36" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>K</v>
       </c>
       <c r="AL36" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
       </c>
       <c r="AM36" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>F</v>
       </c>
       <c r="AN36" s="40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>L</v>
       </c>
       <c r="AP36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AQ36" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AQ$8),MATCH(AP36,INDIRECT(AQ$9),0))</f>
-        <v>Z</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
       </c>
       <c r="AR36" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AR$8),MATCH(AQ36,INDIRECT(AR$9),0))</f>
+        <f t="shared" ca="1" si="15"/>
+        <v>A</v>
+      </c>
+      <c r="AS36" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
+      </c>
+      <c r="AT36" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>M</v>
       </c>
-      <c r="AS36" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AS$8),MATCH(AR36,INDIRECT(AS$9),0))</f>
-        <v>M</v>
-      </c>
-      <c r="AT36" s="45" t="str">
-        <f ca="1">INDEX(INDIRECT(AT$8),MATCH(AS36,INDIRECT(AT$9),0))</f>
-        <v>O</v>
-      </c>
       <c r="AU36" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AU$8),MATCH(AT36,INDIRECT(AU$9),0))</f>
-        <v>O</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>I</v>
       </c>
       <c r="AV36" s="42" t="str">
-        <f ca="1">INDEX(INDIRECT(AV$8),MATCH(AU36,INDIRECT(AV$9),0))</f>
-        <v>M</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>V</v>
       </c>
       <c r="AW36" s="41" t="str">
-        <f ca="1">INDEX(INDIRECT(AW$8),MATCH(AV36,INDIRECT(AW$9),0))</f>
-        <v>M</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.2">
@@ -6499,12 +6529,12 @@
   <dimension ref="A5:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
@@ -6604,19 +6634,19 @@
         <v>76</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U6" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="str">
-        <f>_xlfn.CONCAT(C7,"-",H7,"-",M7,"=",S7," / ",B7,"-",G7,"-",L7," / ",E7,"-",J7,"-",O7)</f>
-        <v>I-II-III=B / 0-0-0 / 0-0-0</v>
+        <f>_xlfn.CONCAT(C7,"-",H7,"-",M7,"=",S7," / ",INDEX(rotors!$A$2:$A$27,B7+1),INDEX(rotors!$A$2:$A$27,G7+1),INDEX(rotors!$A$2:$A$27,L7+1)," / ",INDEX(rotors!$A$2:$A$27,E7+1),INDEX(rotors!$A$2:$A$27,J7+1),INDEX(rotors!$A$2:$A$27,O7+1))</f>
+        <v>I-II-III=B / AAA / AAA</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -6657,19 +6687,19 @@
         <v>1</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="str">
-        <f t="shared" ref="A8:A25" si="0">_xlfn.CONCAT(C8,"-",H8,"-",M8,"=",S8," / ",B8,"-",G8,"-",L8," / ",E8,"-",J8,"-",O8)</f>
-        <v>I-II-III=B / 1-0-0 / 0-0-0</v>
+        <f>_xlfn.CONCAT(C8,"-",H8,"-",M8,"=",S8," / ",INDEX(rotors!$A$2:$A$27,B8+1),INDEX(rotors!$A$2:$A$27,G8+1),INDEX(rotors!$A$2:$A$27,L8+1)," / ",INDEX(rotors!$A$2:$A$27,E8+1),INDEX(rotors!$A$2:$A$27,J8+1),INDEX(rotors!$A$2:$A$27,O8+1))</f>
+        <v>I-II-III=B / BAA / AAA</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
@@ -6712,16 +6742,16 @@
         <v>57</v>
       </c>
       <c r="U8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="V8" s="34" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="str">
-        <f>_xlfn.CONCAT(C9,"-",H9,"-",M9,"=",S9," / ",B9,"-",G9,"-",L9," / ",E9,"-",J9,"-",O9)</f>
-        <v>I-II-III=B / 0-10-0 / 0-0-0</v>
+        <f>_xlfn.CONCAT(C9,"-",H9,"-",M9,"=",S9," / ",INDEX(rotors!$A$2:$A$27,B9+1),INDEX(rotors!$A$2:$A$27,G9+1),INDEX(rotors!$A$2:$A$27,L9+1)," / ",INDEX(rotors!$A$2:$A$27,E9+1),INDEX(rotors!$A$2:$A$27,J9+1),INDEX(rotors!$A$2:$A$27,O9+1))</f>
+        <v>I-II-III=B / AKA / AAA</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -6761,19 +6791,19 @@
         <v>1</v>
       </c>
       <c r="T9" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="34" t="s">
         <v>98</v>
-      </c>
-      <c r="U9" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>I-II-III=B / 0-0-13 / 0-0-0</v>
+        <f>_xlfn.CONCAT(C10,"-",H10,"-",M10,"=",S10," / ",INDEX(rotors!$A$2:$A$27,B10+1),INDEX(rotors!$A$2:$A$27,G10+1),INDEX(rotors!$A$2:$A$27,L10+1)," / ",INDEX(rotors!$A$2:$A$27,E10+1),INDEX(rotors!$A$2:$A$27,J10+1),INDEX(rotors!$A$2:$A$27,O10+1))</f>
+        <v>I-II-III=B / AAN / AAA</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -6813,19 +6843,19 @@
         <v>1</v>
       </c>
       <c r="T10" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U10" s="29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>I-II-III=B / 0-0-0 / 24-0-0</v>
+        <f>_xlfn.CONCAT(C11,"-",H11,"-",M11,"=",S11," / ",INDEX(rotors!$A$2:$A$27,B11+1),INDEX(rotors!$A$2:$A$27,G11+1),INDEX(rotors!$A$2:$A$27,L11+1)," / ",INDEX(rotors!$A$2:$A$27,E11+1),INDEX(rotors!$A$2:$A$27,J11+1),INDEX(rotors!$A$2:$A$27,O11+1))</f>
+        <v>I-II-III=B / AAA / YAA</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -6865,19 +6895,19 @@
         <v>1</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U11" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V11" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>I-II-III=B / 0-0-0 / 0-1-0</v>
+        <f>_xlfn.CONCAT(C12,"-",H12,"-",M12,"=",S12," / ",INDEX(rotors!$A$2:$A$27,B12+1),INDEX(rotors!$A$2:$A$27,G12+1),INDEX(rotors!$A$2:$A$27,L12+1)," / ",INDEX(rotors!$A$2:$A$27,E12+1),INDEX(rotors!$A$2:$A$27,J12+1),INDEX(rotors!$A$2:$A$27,O12+1))</f>
+        <v>I-II-III=B / AAA / ABA</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -6917,19 +6947,19 @@
         <v>1</v>
       </c>
       <c r="T12" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="V12" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>I-II-III=B / 0-0-0 / 0-0-15</v>
+        <f>_xlfn.CONCAT(C13,"-",H13,"-",M13,"=",S13," / ",INDEX(rotors!$A$2:$A$27,B13+1),INDEX(rotors!$A$2:$A$27,G13+1),INDEX(rotors!$A$2:$A$27,L13+1)," / ",INDEX(rotors!$A$2:$A$27,E13+1),INDEX(rotors!$A$2:$A$27,J13+1),INDEX(rotors!$A$2:$A$27,O13+1))</f>
+        <v>I-II-III=B / AAA / AAP</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -6969,19 +6999,19 @@
         <v>1</v>
       </c>
       <c r="T13" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="29" t="s">
-        <v>108</v>
-      </c>
       <c r="V13" s="34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>I-II-III=B / 3-5-7 / 9-7-5</v>
+        <f>_xlfn.CONCAT(C14,"-",H14,"-",M14,"=",S14," / ",INDEX(rotors!$A$2:$A$27,B14+1),INDEX(rotors!$A$2:$A$27,G14+1),INDEX(rotors!$A$2:$A$27,L14+1)," / ",INDEX(rotors!$A$2:$A$27,E14+1),INDEX(rotors!$A$2:$A$27,J14+1),INDEX(rotors!$A$2:$A$27,O14+1))</f>
+        <v>I-II-III=B / DFH / JHF</v>
       </c>
       <c r="B14" s="10">
         <v>3</v>
@@ -7021,79 +7051,79 @@
         <v>1</v>
       </c>
       <c r="T14" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="34" t="s">
         <v>95</v>
-      </c>
-      <c r="U14" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="V14" s="34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C15,"-",H15,"-",M15,"=",S15," / ",INDEX(rotors!$A$2:$A$27,B15+1),INDEX(rotors!$A$2:$A$27,G15+1),INDEX(rotors!$A$2:$A$27,L15+1)," / ",INDEX(rotors!$A$2:$A$27,E15+1),INDEX(rotors!$A$2:$A$27,J15+1),INDEX(rotors!$A$2:$A$27,O15+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C16,"-",H16,"-",M16,"=",S16," / ",INDEX(rotors!$A$2:$A$27,B16+1),INDEX(rotors!$A$2:$A$27,G16+1),INDEX(rotors!$A$2:$A$27,L16+1)," / ",INDEX(rotors!$A$2:$A$27,E16+1),INDEX(rotors!$A$2:$A$27,J16+1),INDEX(rotors!$A$2:$A$27,O16+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C17,"-",H17,"-",M17,"=",S17," / ",INDEX(rotors!$A$2:$A$27,B17+1),INDEX(rotors!$A$2:$A$27,G17+1),INDEX(rotors!$A$2:$A$27,L17+1)," / ",INDEX(rotors!$A$2:$A$27,E17+1),INDEX(rotors!$A$2:$A$27,J17+1),INDEX(rotors!$A$2:$A$27,O17+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C18,"-",H18,"-",M18,"=",S18," / ",INDEX(rotors!$A$2:$A$27,B18+1),INDEX(rotors!$A$2:$A$27,G18+1),INDEX(rotors!$A$2:$A$27,L18+1)," / ",INDEX(rotors!$A$2:$A$27,E18+1),INDEX(rotors!$A$2:$A$27,J18+1),INDEX(rotors!$A$2:$A$27,O18+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C19,"-",H19,"-",M19,"=",S19," / ",INDEX(rotors!$A$2:$A$27,B19+1),INDEX(rotors!$A$2:$A$27,G19+1),INDEX(rotors!$A$2:$A$27,L19+1)," / ",INDEX(rotors!$A$2:$A$27,E19+1),INDEX(rotors!$A$2:$A$27,J19+1),INDEX(rotors!$A$2:$A$27,O19+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C20,"-",H20,"-",M20,"=",S20," / ",INDEX(rotors!$A$2:$A$27,B20+1),INDEX(rotors!$A$2:$A$27,G20+1),INDEX(rotors!$A$2:$A$27,L20+1)," / ",INDEX(rotors!$A$2:$A$27,E20+1),INDEX(rotors!$A$2:$A$27,J20+1),INDEX(rotors!$A$2:$A$27,O20+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C21,"-",H21,"-",M21,"=",S21," / ",INDEX(rotors!$A$2:$A$27,B21+1),INDEX(rotors!$A$2:$A$27,G21+1),INDEX(rotors!$A$2:$A$27,L21+1)," / ",INDEX(rotors!$A$2:$A$27,E21+1),INDEX(rotors!$A$2:$A$27,J21+1),INDEX(rotors!$A$2:$A$27,O21+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C22,"-",H22,"-",M22,"=",S22," / ",INDEX(rotors!$A$2:$A$27,B22+1),INDEX(rotors!$A$2:$A$27,G22+1),INDEX(rotors!$A$2:$A$27,L22+1)," / ",INDEX(rotors!$A$2:$A$27,E22+1),INDEX(rotors!$A$2:$A$27,J22+1),INDEX(rotors!$A$2:$A$27,O22+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C23,"-",H23,"-",M23,"=",S23," / ",INDEX(rotors!$A$2:$A$27,B23+1),INDEX(rotors!$A$2:$A$27,G23+1),INDEX(rotors!$A$2:$A$27,L23+1)," / ",INDEX(rotors!$A$2:$A$27,E23+1),INDEX(rotors!$A$2:$A$27,J23+1),INDEX(rotors!$A$2:$A$27,O23+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C24,"-",H24,"-",M24,"=",S24," / ",INDEX(rotors!$A$2:$A$27,B24+1),INDEX(rotors!$A$2:$A$27,G24+1),INDEX(rotors!$A$2:$A$27,L24+1)," / ",INDEX(rotors!$A$2:$A$27,E24+1),INDEX(rotors!$A$2:$A$27,J24+1),INDEX(rotors!$A$2:$A$27,O24+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>--= / -- / --</v>
+        <f>_xlfn.CONCAT(C25,"-",H25,"-",M25,"=",S25," / ",INDEX(rotors!$A$2:$A$27,B25+1),INDEX(rotors!$A$2:$A$27,G25+1),INDEX(rotors!$A$2:$A$27,L25+1)," / ",INDEX(rotors!$A$2:$A$27,E25+1),INDEX(rotors!$A$2:$A$27,J25+1),INDEX(rotors!$A$2:$A$27,O25+1))</f>
+        <v>--= / AAA / AAA</v>
       </c>
     </row>
   </sheetData>
@@ -7106,7 +7136,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/rotor-ring-map-remapped.xlsx
+++ b/rotor-ring-map-remapped.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2D33E-194F-0B45-89F4-51A48B9816A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A59F6E-F905-1A44-8857-BE0833FC35FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:AW77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,6 +1214,10 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
+      <c r="T4" s="2" t="str">
+        <f>_xlfn.CONCAT(U11:U36)</f>
+        <v>YRUHQSLDPXNGOKMIEBFZCWVJAT</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
@@ -1329,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>33</v>
@@ -1878,7 +1882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -1943,8 +1947,9 @@
       <c r="T11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="18" t="s">
-        <v>24</v>
+      <c r="U11" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T11,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>Y</v>
       </c>
       <c r="V11" s="25" t="s">
         <v>0</v>
@@ -2111,8 +2116,9 @@
       <c r="T12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U12" s="17" t="s">
-        <v>17</v>
+      <c r="U12" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T12,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>R</v>
       </c>
       <c r="V12" s="25" t="s">
         <v>1</v>
@@ -2279,8 +2285,9 @@
       <c r="T13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="17" t="s">
-        <v>20</v>
+      <c r="U13" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T13,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>U</v>
       </c>
       <c r="V13" s="25" t="s">
         <v>2</v>
@@ -2447,8 +2454,9 @@
       <c r="T14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="17" t="s">
-        <v>7</v>
+      <c r="U14" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T14,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>H</v>
       </c>
       <c r="V14" s="25" t="s">
         <v>3</v>
@@ -2615,8 +2623,9 @@
       <c r="T15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="17" t="s">
-        <v>16</v>
+      <c r="U15" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T15,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>Q</v>
       </c>
       <c r="V15" s="25" t="s">
         <v>4</v>
@@ -2783,8 +2792,9 @@
       <c r="T16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="17" t="s">
-        <v>18</v>
+      <c r="U16" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T16,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>S</v>
       </c>
       <c r="V16" s="25" t="s">
         <v>5</v>
@@ -2951,8 +2961,9 @@
       <c r="T17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>11</v>
+      <c r="U17" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T17,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>L</v>
       </c>
       <c r="V17" s="25" t="s">
         <v>6</v>
@@ -3119,8 +3130,9 @@
       <c r="T18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U18" s="17" t="s">
-        <v>3</v>
+      <c r="U18" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T18,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>D</v>
       </c>
       <c r="V18" s="25" t="s">
         <v>7</v>
@@ -3287,8 +3299,9 @@
       <c r="T19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U19" s="17" t="s">
-        <v>15</v>
+      <c r="U19" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T19,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>P</v>
       </c>
       <c r="V19" s="25" t="s">
         <v>8</v>
@@ -3455,8 +3468,9 @@
       <c r="T20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U20" s="17" t="s">
-        <v>23</v>
+      <c r="U20" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T20,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>X</v>
       </c>
       <c r="V20" s="25" t="s">
         <v>9</v>
@@ -3623,8 +3637,9 @@
       <c r="T21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="17" t="s">
-        <v>13</v>
+      <c r="U21" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T21,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>N</v>
       </c>
       <c r="V21" s="25" t="s">
         <v>10</v>
@@ -3791,8 +3806,9 @@
       <c r="T22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="U22" s="17" t="s">
-        <v>6</v>
+      <c r="U22" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T22,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>G</v>
       </c>
       <c r="V22" s="25" t="s">
         <v>11</v>
@@ -3959,8 +3975,9 @@
       <c r="T23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U23" s="17" t="s">
-        <v>14</v>
+      <c r="U23" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T23,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>O</v>
       </c>
       <c r="V23" s="25" t="s">
         <v>12</v>
@@ -4127,8 +4144,9 @@
       <c r="T24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="17" t="s">
-        <v>10</v>
+      <c r="U24" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T24,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>K</v>
       </c>
       <c r="V24" s="25" t="s">
         <v>13</v>
@@ -4295,8 +4313,9 @@
       <c r="T25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="U25" s="17" t="s">
-        <v>12</v>
+      <c r="U25" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T25,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>M</v>
       </c>
       <c r="V25" s="25" t="s">
         <v>14</v>
@@ -4463,8 +4482,9 @@
       <c r="T26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="17" t="s">
-        <v>8</v>
+      <c r="U26" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T26,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>I</v>
       </c>
       <c r="V26" s="25" t="s">
         <v>15</v>
@@ -4631,8 +4651,9 @@
       <c r="T27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="U27" s="17" t="s">
-        <v>4</v>
+      <c r="U27" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T27,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>E</v>
       </c>
       <c r="V27" s="25" t="s">
         <v>16</v>
@@ -4799,8 +4820,9 @@
       <c r="T28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="U28" s="17" t="s">
-        <v>1</v>
+      <c r="U28" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T28,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>B</v>
       </c>
       <c r="V28" s="25" t="s">
         <v>17</v>
@@ -4967,8 +4989,9 @@
       <c r="T29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U29" s="17" t="s">
-        <v>5</v>
+      <c r="U29" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T29,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>F</v>
       </c>
       <c r="V29" s="25" t="s">
         <v>18</v>
@@ -5135,8 +5158,9 @@
       <c r="T30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U30" s="17" t="s">
-        <v>25</v>
+      <c r="U30" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T30,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>Z</v>
       </c>
       <c r="V30" s="25" t="s">
         <v>19</v>
@@ -5303,8 +5327,9 @@
       <c r="T31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U31" s="17" t="s">
-        <v>2</v>
+      <c r="U31" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T31,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>C</v>
       </c>
       <c r="V31" s="25" t="s">
         <v>20</v>
@@ -5471,8 +5496,9 @@
       <c r="T32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U32" s="17" t="s">
-        <v>22</v>
+      <c r="U32" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T32,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>W</v>
       </c>
       <c r="V32" s="25" t="s">
         <v>21</v>
@@ -5639,8 +5665,9 @@
       <c r="T33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U33" s="17" t="s">
-        <v>21</v>
+      <c r="U33" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T33,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>V</v>
       </c>
       <c r="V33" s="25" t="s">
         <v>22</v>
@@ -5807,8 +5834,9 @@
       <c r="T34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="U34" s="17" t="s">
-        <v>9</v>
+      <c r="U34" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T34,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>J</v>
       </c>
       <c r="V34" s="25" t="s">
         <v>23</v>
@@ -5975,8 +6003,9 @@
       <c r="T35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="U35" s="17" t="s">
-        <v>0</v>
+      <c r="U35" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T35,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>A</v>
       </c>
       <c r="V35" s="25" t="s">
         <v>24</v>
@@ -6143,8 +6172,9 @@
       <c r="T36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="17" t="s">
-        <v>19</v>
+      <c r="U36" s="16" t="str">
+        <f>INDEX(rotors!$B$32:$C$57,MATCH(T36,rotors!$A$32:$A$57),MATCH(U$9,rotors!$B$31:$C$31,0))</f>
+        <v>T</v>
       </c>
       <c r="V36" s="25" t="s">
         <v>25</v>
@@ -7135,8 +7165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF50C79-16D5-6949-8056-A6FABF62AFFF}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7547,205 +7577,283 @@
       <c r="B32" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/rotor-ring-map-remapped.xlsx
+++ b/rotor-ring-map-remapped.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A59F6E-F905-1A44-8857-BE0833FC35FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B4BD14-9F0F-C542-9B2F-9F9DFAA30FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
@@ -383,10 +383,10 @@
     <t>WJEPVUBSITYFHXDARQMCKGZLNO</t>
   </si>
   <si>
-    <t>I-II-III=B / DFH / JHF</t>
-  </si>
-  <si>
     <t>SZXDKQBGIJACOYPWVMFHNTLERU</t>
+  </si>
+  <si>
+    <t>I-II-III=B / AAA / AAA</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEB03A6-2973-F843-A284-ADB6AB420C22}">
   <dimension ref="A1:AW77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,9 +1196,13 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="H3" s="8"/>
+      <c r="J3" s="2" t="str">
+        <f>_xlfn.CONCAT(J11:J36)</f>
+        <v>DKSIRUXBLHWTMCQGZNPYFVOEAJ</v>
+      </c>
       <c r="AB3" s="2" t="str">
         <f ca="1">_xlfn.CONCAT(AB11:AB36)</f>
-        <v>EMFVGNIOQJPKHUZDRXSACLBYWT</v>
+        <v>GMOHNIFSXBPVQYAJZWURCKDTEL</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -1239,11 +1243,11 @@
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="48">
         <f>INDEX(records!$B$7:$B$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="48" t="str">
         <f>INDEX(records!$C$7:$C$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
@@ -1252,11 +1256,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="48">
         <f>INDEX(records!$E$7:$E$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5" s="48">
         <f>INDEX(records!$G$7:$G$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="48" t="str">
         <f>INDEX(records!$H$7:$H$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
@@ -1265,11 +1269,11 @@
       <c r="K5" s="2"/>
       <c r="L5" s="48">
         <f>INDEX(records!$J$7:$J$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="48">
         <f>INDEX(records!$L$7:$L$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5" s="48" t="str">
         <f>INDEX(records!$M$7:$M$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
@@ -1278,7 +1282,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="48">
         <f>INDEX(records!$O$7:$O$44,MATCH($C$5,records!$A$7:$A$44,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2"/>
       <c r="U5" s="48" t="str">
@@ -1315,7 +1319,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>31</v>
@@ -1333,14 +1337,14 @@
         <v>0</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="AE6" s="29" t="str">
         <f ca="1">_xlfn.CONCAT(AF11:AF36)</f>
-        <v>SZXDKQBGIJACOYPWVMFHNTLERU</v>
+        <v>SCFYWENKPXAGQBIMRVOJLHZDUT</v>
       </c>
       <c r="AF6" s="28"/>
       <c r="AG6" s="28"/>
@@ -1350,7 +1354,7 @@
       </c>
       <c r="AL6" s="30" t="str">
         <f ca="1">_xlfn.CONCAT(AN11:AN36)</f>
-        <v>SVJTUXYWOCNZRKIQPMADEBHFGL</v>
+        <v>CYAKRMHGOTDUFQISNEPJLXZVBW</v>
       </c>
       <c r="AM6" s="31"/>
       <c r="AN6" s="32"/>
@@ -1360,7 +1364,7 @@
       </c>
       <c r="AT6" s="34" t="str">
         <f ca="1">_xlfn.CONCAT(AW11:AW36)</f>
-        <v>KGLDXSHTIJEWRUMOFYAVZQPCNB</v>
+        <v>KNBXFCLVOTHUPGSIMQAZYREJDW</v>
       </c>
       <c r="AU6" s="33"/>
       <c r="AV6" s="33"/>
@@ -1502,27 +1506,27 @@
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">INDEX(rotors!$A$2:$A$27,D9+1)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="G8" s="45" t="str" cm="1">
         <f t="array" ref="G8">INDEX(rotors!$A$2:$A$27,G9+1)</f>
-        <v>J</v>
+        <v>A</v>
       </c>
       <c r="I8" s="2" t="str" cm="1">
         <f t="array" ref="I8">INDEX(rotors!$A$2:$A$27,I9+1)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="L8" s="45" t="str" cm="1">
         <f t="array" ref="L8">INDEX(rotors!$A$2:$A$27,L9+1)</f>
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="N8" s="2" t="str" cm="1">
         <f t="array" ref="N8">INDEX(rotors!$A$2:$A$27,N9+1)</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="Q8" s="45" t="str" cm="1">
         <f t="array" ref="Q8">INDEX(rotors!$A$2:$A$27,Q9+1)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="X8" s="36" t="s">
         <v>39</v>
@@ -1628,11 +1632,11 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="51">
         <f>IF($C$9,D5,D6)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="51" t="str">
         <f>IF($C$9,E5,E6)</f>
@@ -1640,11 +1644,11 @@
       </c>
       <c r="G9" s="51">
         <f>IF($C$9,G5,G6)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I9" s="51">
         <f>IF($C$9,I5,I6)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="51" t="str">
         <f>IF($C$9,J5,J6)</f>
@@ -1653,12 +1657,12 @@
       <c r="K9" s="52"/>
       <c r="L9" s="51">
         <f>IF($C$9,L5,L6)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="52"/>
       <c r="N9" s="51">
         <f>IF($C$9,N5,N6)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O9" s="51" t="str">
         <f>IF($C$9,O5,O6)</f>
@@ -1667,7 +1671,7 @@
       <c r="P9" s="52"/>
       <c r="Q9" s="51">
         <f>IF($C$9,Q5,Q6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="53"/>
       <c r="S9" s="52"/>
@@ -1892,53 +1896,53 @@
       <c r="C11" s="5"/>
       <c r="D11" s="16" t="str" cm="1">
         <f t="array" ref="D11">INDEX($B$11:$B$36,MOD(MATCH($B11,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>U</v>
+        <v>A</v>
       </c>
       <c r="E11" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D11,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="F11" s="25" t="str">
         <f>D11</f>
-        <v>U</v>
+        <v>A</v>
       </c>
       <c r="G11" s="44" t="str" cm="1">
         <f t="array" ref="G11">INDEX($B$11:$B$36,MOD(MATCH(F11,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="16" t="str" cm="1">
         <f t="array" ref="I11">INDEX($B$11:$B$36,MOD(MATCH($B11,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>C</v>
       </c>
       <c r="J11" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I11,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>O</v>
+        <v>D</v>
       </c>
       <c r="K11" s="25" t="str">
         <f>I11</f>
-        <v>Y</v>
+        <v>C</v>
       </c>
       <c r="L11" s="44" t="str" cm="1">
         <f t="array" ref="L11">INDEX($B$11:$B$36,MOD(MATCH(K11,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="str" cm="1">
         <f t="array" ref="N11">INDEX($B$11:$B$36,MOD(MATCH($B11,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>C</v>
+        <v>N</v>
       </c>
       <c r="O11" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N11,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>F</v>
+        <v>N</v>
       </c>
       <c r="P11" s="25" t="str">
         <f>N11</f>
-        <v>C</v>
+        <v>N</v>
       </c>
       <c r="Q11" s="44" t="str" cm="1">
         <f t="array" ref="Q11">INDEX($B$11:$B$36,MOD(MATCH(P11,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="4">
@@ -1961,27 +1965,27 @@
       </c>
       <c r="Z11" s="45" t="str">
         <f t="shared" ref="Z11:AM11" ca="1" si="4">INDEX(INDIRECT(Z$8),MATCH(Y11,INDIRECT(Z$9),0))</f>
-        <v>U</v>
+        <v>A</v>
       </c>
       <c r="AA11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="AB11" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="AC11" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>R</v>
       </c>
       <c r="AD11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>C</v>
       </c>
       <c r="AE11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>U</v>
+        <v>F</v>
       </c>
       <c r="AF11" s="46" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -1993,42 +1997,42 @@
       </c>
       <c r="AH11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>H</v>
+        <v>S</v>
       </c>
       <c r="AI11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>X</v>
       </c>
       <c r="AJ11" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Z</v>
+        <v>M</v>
       </c>
       <c r="AK11" s="45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>O</v>
       </c>
       <c r="AL11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>O</v>
+        <v>M</v>
       </c>
       <c r="AM11" s="42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="AN11" s="40" t="str">
         <f t="shared" ref="AA11:AN26" ca="1" si="5">INDEX(INDIRECT(AN$8),MATCH(AM11,INDIRECT(AN$9),0))</f>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AQ11" s="42" t="str">
         <f t="shared" ref="AQ11:AW20" ca="1" si="6">INDEX(INDIRECT(AQ$8),MATCH(AP11,INDIRECT(AQ$9),0))</f>
-        <v>C</v>
+        <v>N</v>
       </c>
       <c r="AR11" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>G</v>
+        <v>N</v>
       </c>
       <c r="AS11" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2040,11 +2044,11 @@
       </c>
       <c r="AU11" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="AV11" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E</v>
+        <v>K</v>
       </c>
       <c r="AW11" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2061,53 +2065,53 @@
       <c r="C12" s="5"/>
       <c r="D12" s="16" t="str" cm="1">
         <f t="array" ref="D12">INDEX($B$11:$B$36,MOD(MATCH($B12,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>V</v>
+        <v>B</v>
       </c>
       <c r="E12" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D12,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>I</v>
+        <v>K</v>
       </c>
       <c r="F12" s="25" t="str">
         <f t="shared" ref="F12:F36" si="7">D12</f>
-        <v>V</v>
+        <v>B</v>
       </c>
       <c r="G12" s="44" t="str" cm="1">
         <f t="array" ref="G12">INDEX($B$11:$B$36,MOD(MATCH(F12,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="16" t="str" cm="1">
         <f t="array" ref="I12">INDEX($B$11:$B$36,MOD(MATCH($B12,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>D</v>
       </c>
       <c r="J12" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I12,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>E</v>
+        <v>K</v>
       </c>
       <c r="K12" s="25" t="str">
         <f t="shared" ref="K12:K36" si="8">I12</f>
-        <v>Z</v>
+        <v>D</v>
       </c>
       <c r="L12" s="44" t="str" cm="1">
         <f t="array" ref="L12">INDEX($B$11:$B$36,MOD(MATCH(K12,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="str" cm="1">
         <f t="array" ref="N12">INDEX($B$11:$B$36,MOD(MATCH($B12,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>D</v>
+        <v>O</v>
       </c>
       <c r="O12" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N12,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>H</v>
+        <v>Y</v>
       </c>
       <c r="P12" s="25" t="str">
         <f t="shared" ref="P12:P36" si="9">N12</f>
-        <v>D</v>
+        <v>O</v>
       </c>
       <c r="Q12" s="44" t="str" cm="1">
         <f t="array" ref="Q12">INDEX($B$11:$B$36,MOD(MATCH(P12,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>I</v>
+        <v>O</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="4">
@@ -2129,95 +2133,95 @@
         <v>1</v>
       </c>
       <c r="Z12" s="45" t="str">
-        <f t="shared" ref="Z12:AL36" ca="1" si="10">INDEX(INDIRECT(Z$8),MATCH(Y12,INDIRECT(Z$9),0))</f>
-        <v>V</v>
+        <f ca="1">INDEX(INDIRECT(Z$8),MATCH(Y12,INDIRECT(Z$9),0))</f>
+        <v>B</v>
       </c>
       <c r="AA12" s="42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>I</v>
+        <f ca="1">INDEX(INDIRECT(AA$8),MATCH(Z12,INDIRECT(AA$9),0))</f>
+        <v>K</v>
       </c>
       <c r="AB12" s="45" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">INDEX(INDIRECT(AB$8),MATCH(AA12,INDIRECT(AB$9),0))</f>
         <v>M</v>
       </c>
       <c r="AC12" s="45" t="str">
-        <f t="shared" ref="AC12:AD36" ca="1" si="11">INDEX(INDIRECT(AC$8),MATCH(AB12,INDIRECT(AC$9),0))</f>
+        <f t="shared" ref="AC12:AD36" ca="1" si="10">INDEX(INDIRECT(AC$8),MATCH(AB12,INDIRECT(AC$9),0))</f>
         <v>W</v>
       </c>
       <c r="AD12" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>A</v>
-      </c>
-      <c r="AE12" s="42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>B</v>
-      </c>
-      <c r="AF12" s="46" t="str">
-        <f t="shared" ref="AF12:AF36" ca="1" si="12">INDEX(INDIRECT(AF$8),MATCH(AE12,INDIRECT(AF$9),0))</f>
-        <v>Z</v>
-      </c>
-      <c r="AG12" s="42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>T</v>
-      </c>
-      <c r="AH12" s="42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>V</v>
-      </c>
-      <c r="AI12" s="42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>L</v>
-      </c>
-      <c r="AJ12" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>H</v>
       </c>
+      <c r="AE12" s="42" t="str">
+        <f ca="1">INDEX(INDIRECT(AE$8),MATCH(AD12,INDIRECT(AE$9),0))</f>
+        <v>P</v>
+      </c>
+      <c r="AF12" s="46" t="str">
+        <f t="shared" ref="AF12:AF36" ca="1" si="11">INDEX(INDIRECT(AF$8),MATCH(AE12,INDIRECT(AF$9),0))</f>
+        <v>C</v>
+      </c>
+      <c r="AG12" s="42" t="str">
+        <f t="shared" ref="AG12:AL12" ca="1" si="12">INDEX(INDIRECT(AG$8),MATCH(AF12,INDIRECT(AG$9),0))</f>
+        <v>U</v>
+      </c>
+      <c r="AH12" s="42" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>H</v>
+      </c>
+      <c r="AI12" s="42" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="AJ12" s="45" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>S</v>
+      </c>
       <c r="AK12" s="45" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>E</v>
       </c>
       <c r="AL12" s="42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>C</v>
       </c>
       <c r="AM12" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>P</v>
+        <v>Y</v>
       </c>
       <c r="AN12" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>V</v>
+        <v>Y</v>
       </c>
       <c r="AP12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AQ12" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D</v>
+        <v>O</v>
       </c>
       <c r="AR12" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B</v>
+        <v>Z</v>
       </c>
       <c r="AS12" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="AT12" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>I</v>
+        <v>Y</v>
       </c>
       <c r="AU12" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E</v>
+        <v>W</v>
       </c>
       <c r="AV12" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A</v>
+        <v>N</v>
       </c>
       <c r="AW12" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>G</v>
+        <v>N</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
@@ -2230,53 +2234,53 @@
       <c r="C13" s="5"/>
       <c r="D13" s="16" t="str" cm="1">
         <f t="array" ref="D13">INDEX($B$11:$B$36,MOD(MATCH($B13,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>W</v>
+        <v>C</v>
       </c>
       <c r="E13" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D13,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>B</v>
+        <v>M</v>
       </c>
       <c r="F13" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>C</v>
       </c>
       <c r="G13" s="44" t="str" cm="1">
         <f t="array" ref="G13">INDEX($B$11:$B$36,MOD(MATCH(F13,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="16" t="str" cm="1">
         <f t="array" ref="I13">INDEX($B$11:$B$36,MOD(MATCH($B13,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="J13" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I13,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>A</v>
+        <v>S</v>
       </c>
       <c r="K13" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="L13" s="44" t="str" cm="1">
         <f t="array" ref="L13">INDEX($B$11:$B$36,MOD(MATCH(K13,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>H</v>
+        <v>E</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="str" cm="1">
         <f t="array" ref="N13">INDEX($B$11:$B$36,MOD(MATCH($B13,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>E</v>
+        <v>P</v>
       </c>
       <c r="O13" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N13,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>J</v>
+        <v>E</v>
       </c>
       <c r="P13" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>E</v>
+        <v>P</v>
       </c>
       <c r="Q13" s="44" t="str" cm="1">
         <f t="array" ref="Q13">INDEX($B$11:$B$36,MOD(MATCH(P13,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>J</v>
+        <v>P</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="4">
@@ -2298,95 +2302,95 @@
         <v>2</v>
       </c>
       <c r="Z13" s="45" t="str">
+        <f t="shared" ref="Z13:Z36" ca="1" si="13">INDEX(INDIRECT(Z$8),MATCH(Y13,INDIRECT(Z$9),0))</f>
+        <v>C</v>
+      </c>
+      <c r="AA13" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>M</v>
+      </c>
+      <c r="AB13" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="AC13" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>W</v>
-      </c>
-      <c r="AA13" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="AB13" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <v>M</v>
+      </c>
+      <c r="AD13" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="AE13" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AF13" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>F</v>
       </c>
-      <c r="AC13" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>I</v>
-      </c>
-      <c r="AD13" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>M</v>
-      </c>
-      <c r="AE13" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
-      </c>
-      <c r="AF13" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>X</v>
-      </c>
       <c r="AG13" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <v>S</v>
       </c>
       <c r="AH13" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L</v>
+        <v>F</v>
       </c>
       <c r="AI13" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="AJ13" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>B</v>
+        <v>R</v>
       </c>
       <c r="AK13" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <v>G</v>
       </c>
       <c r="AL13" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="AM13" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="AN13" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <v>A</v>
       </c>
       <c r="AP13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AQ13" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E</v>
+        <v>P</v>
       </c>
       <c r="AR13" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>P</v>
+        <v>H</v>
       </c>
       <c r="AS13" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="AT13" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>K</v>
+        <v>M</v>
       </c>
       <c r="AU13" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>G</v>
+        <v>K</v>
       </c>
       <c r="AV13" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="AW13" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>L</v>
+        <v>B</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
@@ -2399,53 +2403,53 @@
       <c r="C14" s="5"/>
       <c r="D14" s="16" t="str" cm="1">
         <f t="array" ref="D14">INDEX($B$11:$B$36,MOD(MATCH($B14,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>X</v>
+        <v>D</v>
       </c>
       <c r="E14" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D14,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="F14" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>X</v>
+        <v>D</v>
       </c>
       <c r="G14" s="44" t="str" cm="1">
         <f t="array" ref="G14">INDEX($B$11:$B$36,MOD(MATCH(F14,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="16" t="str" cm="1">
         <f t="array" ref="I14">INDEX($B$11:$B$36,MOD(MATCH($B14,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="J14" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I14,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>J</v>
+        <v>I</v>
       </c>
       <c r="K14" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="L14" s="44" t="str" cm="1">
         <f t="array" ref="L14">INDEX($B$11:$B$36,MOD(MATCH(K14,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>I</v>
+        <v>F</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="str" cm="1">
         <f t="array" ref="N14">INDEX($B$11:$B$36,MOD(MATCH($B14,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>F</v>
+        <v>Q</v>
       </c>
       <c r="O14" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N14,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>L</v>
+        <v>I</v>
       </c>
       <c r="P14" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>F</v>
+        <v>Q</v>
       </c>
       <c r="Q14" s="44" t="str" cm="1">
         <f t="array" ref="Q14">INDEX($B$11:$B$36,MOD(MATCH(P14,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>K</v>
+        <v>Q</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="4">
@@ -2467,83 +2471,83 @@
         <v>3</v>
       </c>
       <c r="Z14" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>D</v>
+      </c>
+      <c r="AA14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AB14" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="AC14" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="AA14" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AB14" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
-      </c>
-      <c r="AC14" s="45" t="str">
+        <v>U</v>
+      </c>
+      <c r="AD14" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="AE14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="AF14" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Y</v>
       </c>
-      <c r="AD14" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="AG14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AH14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AI14" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AJ14" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AE14" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AF14" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>D</v>
-      </c>
-      <c r="AG14" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>H</v>
-      </c>
-      <c r="AH14" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
-      </c>
-      <c r="AI14" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>E</v>
-      </c>
-      <c r="AJ14" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A</v>
-      </c>
       <c r="AK14" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="AL14" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="AM14" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N</v>
+        <v>K</v>
       </c>
       <c r="AN14" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <v>K</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AQ14" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>Q</v>
       </c>
       <c r="AR14" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C</v>
+        <v>Y</v>
       </c>
       <c r="AS14" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="AT14" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>V</v>
+        <v>T</v>
       </c>
       <c r="AU14" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2555,7 +2559,7 @@
       </c>
       <c r="AW14" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D</v>
+        <v>X</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
@@ -2568,53 +2572,53 @@
       <c r="C15" s="5"/>
       <c r="D15" s="16" t="str" cm="1">
         <f t="array" ref="D15">INDEX($B$11:$B$36,MOD(MATCH($B15,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>E</v>
       </c>
       <c r="E15" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D15,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>C</v>
+        <v>L</v>
       </c>
       <c r="F15" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>E</v>
       </c>
       <c r="G15" s="44" t="str" cm="1">
         <f t="array" ref="G15">INDEX($B$11:$B$36,MOD(MATCH(F15,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>H</v>
+        <v>E</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="16" t="str" cm="1">
         <f t="array" ref="I15">INDEX($B$11:$B$36,MOD(MATCH($B15,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="J15" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I15,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>D</v>
+        <v>R</v>
       </c>
       <c r="K15" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="L15" s="44" t="str" cm="1">
         <f t="array" ref="L15">INDEX($B$11:$B$36,MOD(MATCH(K15,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>J</v>
+        <v>G</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="16" t="str" cm="1">
         <f t="array" ref="N15">INDEX($B$11:$B$36,MOD(MATCH($B15,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="O15" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N15,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>C</v>
+        <v>W</v>
       </c>
       <c r="P15" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="Q15" s="44" t="str" cm="1">
         <f t="array" ref="Q15">INDEX($B$11:$B$36,MOD(MATCH(P15,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>L</v>
+        <v>R</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="4">
@@ -2636,95 +2640,95 @@
         <v>4</v>
       </c>
       <c r="Z15" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>E</v>
+      </c>
+      <c r="AA15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="AB15" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AC15" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="AA15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AB15" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>G</v>
-      </c>
-      <c r="AC15" s="45" t="str">
+        <v>T</v>
+      </c>
+      <c r="AD15" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="AE15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="AF15" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>W</v>
+      </c>
+      <c r="AG15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AH15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AI15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AJ15" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AK15" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
+      </c>
+      <c r="AL15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>U</v>
+      </c>
+      <c r="AM15" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>R</v>
       </c>
-      <c r="AD15" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>V</v>
-      </c>
-      <c r="AE15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AF15" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>K</v>
-      </c>
-      <c r="AG15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N</v>
-      </c>
-      <c r="AH15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
-      <c r="AI15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>H</v>
-      </c>
-      <c r="AJ15" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="AK15" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AL15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="AM15" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
       <c r="AN15" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>U</v>
+        <v>R</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AQ15" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>G</v>
+        <v>R</v>
       </c>
       <c r="AR15" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>S</v>
+        <v>I</v>
       </c>
       <c r="AS15" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="AT15" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Y</v>
+        <v>I</v>
       </c>
       <c r="AU15" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>U</v>
+        <v>G</v>
       </c>
       <c r="AV15" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="AW15" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>X</v>
+        <v>F</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.2">
@@ -2737,53 +2741,53 @@
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="str" cm="1">
         <f t="array" ref="D16">INDEX($B$11:$B$36,MOD(MATCH($B16,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>F</v>
       </c>
       <c r="E16" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D16,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>J</v>
+        <v>G</v>
       </c>
       <c r="F16" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>Z</v>
+        <v>F</v>
       </c>
       <c r="G16" s="44" t="str" cm="1">
         <f t="array" ref="G16">INDEX($B$11:$B$36,MOD(MATCH(F16,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>I</v>
+        <v>F</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="16" t="str" cm="1">
         <f t="array" ref="I16">INDEX($B$11:$B$36,MOD(MATCH($B16,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>D</v>
+        <v>H</v>
       </c>
       <c r="J16" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I16,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>K</v>
+        <v>U</v>
       </c>
       <c r="K16" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>D</v>
+        <v>H</v>
       </c>
       <c r="L16" s="44" t="str" cm="1">
         <f t="array" ref="L16">INDEX($B$11:$B$36,MOD(MATCH(K16,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>K</v>
+        <v>H</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="16" t="str" cm="1">
         <f t="array" ref="N16">INDEX($B$11:$B$36,MOD(MATCH($B16,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>H</v>
+        <v>S</v>
       </c>
       <c r="O16" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N16,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>P</v>
+        <v>G</v>
       </c>
       <c r="P16" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>H</v>
+        <v>S</v>
       </c>
       <c r="Q16" s="44" t="str" cm="1">
         <f t="array" ref="Q16">INDEX($B$11:$B$36,MOD(MATCH(P16,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="4">
@@ -2805,95 +2809,95 @@
         <v>5</v>
       </c>
       <c r="Z16" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>F</v>
+      </c>
+      <c r="AA16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="AB16" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AC16" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Z</v>
-      </c>
-      <c r="AA16" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
-      </c>
-      <c r="AB16" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N</v>
-      </c>
-      <c r="AC16" s="45" t="str">
+        <v>X</v>
+      </c>
+      <c r="AD16" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>I</v>
+      </c>
+      <c r="AE16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AF16" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>T</v>
-      </c>
-      <c r="AD16" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>X</v>
-      </c>
-      <c r="AE16" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AF16" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="AG16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AG16" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>E</v>
-      </c>
       <c r="AH16" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="AI16" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <v>B</v>
       </c>
       <c r="AJ16" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AK16" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AL16" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AK16" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="AL16" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>U</v>
-      </c>
       <c r="AM16" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>R</v>
+        <v>M</v>
       </c>
       <c r="AN16" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="AP16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AQ16" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>H</v>
+        <v>S</v>
       </c>
       <c r="AR16" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D</v>
+        <v>X</v>
       </c>
       <c r="AS16" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Z</v>
+        <v>M</v>
       </c>
       <c r="AT16" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>S</v>
+        <v>O</v>
       </c>
       <c r="AU16" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>O</v>
+        <v>M</v>
       </c>
       <c r="AV16" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="AW16" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>S</v>
+        <v>C</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.2">
@@ -2906,53 +2910,53 @@
       <c r="C17" s="5"/>
       <c r="D17" s="16" t="str" cm="1">
         <f t="array" ref="D17">INDEX($B$11:$B$36,MOD(MATCH($B17,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="E17" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D17,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="F17" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="G17" s="44" t="str" cm="1">
         <f t="array" ref="G17">INDEX($B$11:$B$36,MOD(MATCH(F17,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>J</v>
+        <v>G</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="16" t="str" cm="1">
         <f t="array" ref="I17">INDEX($B$11:$B$36,MOD(MATCH($B17,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>E</v>
+        <v>I</v>
       </c>
       <c r="J17" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I17,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>S</v>
+        <v>X</v>
       </c>
       <c r="K17" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>E</v>
+        <v>I</v>
       </c>
       <c r="L17" s="44" t="str" cm="1">
         <f t="array" ref="L17">INDEX($B$11:$B$36,MOD(MATCH(K17,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>L</v>
+        <v>I</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="16" t="str" cm="1">
         <f t="array" ref="N17">INDEX($B$11:$B$36,MOD(MATCH($B17,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>I</v>
+        <v>T</v>
       </c>
       <c r="O17" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N17,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>R</v>
+        <v>A</v>
       </c>
       <c r="P17" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>I</v>
+        <v>T</v>
       </c>
       <c r="Q17" s="44" t="str" cm="1">
         <f t="array" ref="Q17">INDEX($B$11:$B$36,MOD(MATCH(P17,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>N</v>
+        <v>T</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="4">
@@ -2974,95 +2978,95 @@
         <v>6</v>
       </c>
       <c r="Z17" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>G</v>
+      </c>
+      <c r="AA17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AB17" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AC17" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>I</v>
+      </c>
+      <c r="AD17" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>T</v>
+      </c>
+      <c r="AE17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>A</v>
       </c>
-      <c r="AA17" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>E</v>
-      </c>
-      <c r="AB17" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>I</v>
-      </c>
-      <c r="AC17" s="45" t="str">
+      <c r="AF17" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>N</v>
+      </c>
+      <c r="AG17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="AH17" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>X</v>
       </c>
-      <c r="AD17" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>B</v>
-      </c>
-      <c r="AE17" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="AF17" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>B</v>
-      </c>
-      <c r="AG17" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AH17" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
       <c r="AI17" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>J</v>
+        <v>K</v>
       </c>
       <c r="AJ17" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <v>Z</v>
       </c>
       <c r="AK17" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AL17" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="AM17" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <v>H</v>
       </c>
       <c r="AN17" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
+        <v>H</v>
       </c>
       <c r="AP17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AQ17" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>I</v>
+        <v>T</v>
       </c>
       <c r="AR17" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Q</v>
+        <v>J</v>
       </c>
       <c r="AS17" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>M</v>
+        <v>Y</v>
       </c>
       <c r="AT17" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="AU17" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>K</v>
+        <v>T</v>
       </c>
       <c r="AV17" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B</v>
+        <v>L</v>
       </c>
       <c r="AW17" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>H</v>
+        <v>L</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
@@ -3075,53 +3079,53 @@
       <c r="C18" s="5"/>
       <c r="D18" s="16" t="str" cm="1">
         <f t="array" ref="D18">INDEX($B$11:$B$36,MOD(MATCH($B18,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>B</v>
+        <v>H</v>
       </c>
       <c r="E18" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D18,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>K</v>
+        <v>Q</v>
       </c>
       <c r="F18" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v>H</v>
       </c>
       <c r="G18" s="44" t="str" cm="1">
         <f t="array" ref="G18">INDEX($B$11:$B$36,MOD(MATCH(F18,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>K</v>
+        <v>H</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="16" t="str" cm="1">
         <f t="array" ref="I18">INDEX($B$11:$B$36,MOD(MATCH($B18,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>F</v>
+        <v>J</v>
       </c>
       <c r="J18" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I18,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>I</v>
+        <v>B</v>
       </c>
       <c r="K18" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>F</v>
+        <v>J</v>
       </c>
       <c r="L18" s="44" t="str" cm="1">
         <f t="array" ref="L18">INDEX($B$11:$B$36,MOD(MATCH(K18,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="16" t="str" cm="1">
         <f t="array" ref="N18">INDEX($B$11:$B$36,MOD(MATCH($B18,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>J</v>
+        <v>U</v>
       </c>
       <c r="O18" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N18,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>T</v>
+        <v>K</v>
       </c>
       <c r="P18" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>J</v>
+        <v>U</v>
       </c>
       <c r="Q18" s="44" t="str" cm="1">
         <f t="array" ref="Q18">INDEX($B$11:$B$36,MOD(MATCH(P18,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>O</v>
+        <v>U</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="4">
@@ -3143,95 +3147,95 @@
         <v>7</v>
       </c>
       <c r="Z18" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>H</v>
+      </c>
+      <c r="AA18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AB18" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="AC18" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>B</v>
-      </c>
-      <c r="AA18" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
+      </c>
+      <c r="AD18" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>K</v>
       </c>
-      <c r="AB18" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
-      <c r="AC18" s="45" t="str">
+      <c r="AE18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AF18" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>M</v>
-      </c>
-      <c r="AD18" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Q</v>
-      </c>
-      <c r="AE18" s="42" t="str">
+        <v>K</v>
+      </c>
+      <c r="AG18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AH18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AI18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AJ18" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AF18" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AK18" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="AL18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AM18" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>G</v>
       </c>
-      <c r="AG18" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="AH18" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N</v>
-      </c>
-      <c r="AI18" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N</v>
-      </c>
-      <c r="AJ18" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>J</v>
-      </c>
-      <c r="AK18" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>B</v>
-      </c>
-      <c r="AL18" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="AM18" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
       <c r="AN18" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <v>G</v>
       </c>
       <c r="AP18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AQ18" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>J</v>
+        <v>U</v>
       </c>
       <c r="AR18" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>E</v>
+        <v>W</v>
       </c>
       <c r="AS18" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="AT18" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>A</v>
+        <v>K</v>
       </c>
       <c r="AU18" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>W</v>
+        <v>I</v>
       </c>
       <c r="AV18" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>N</v>
+        <v>V</v>
       </c>
       <c r="AW18" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>T</v>
+        <v>V</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.2">
@@ -3244,53 +3248,53 @@
       <c r="C19" s="5"/>
       <c r="D19" s="16" t="str" cm="1">
         <f t="array" ref="D19">INDEX($B$11:$B$36,MOD(MATCH($B19,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>C</v>
+        <v>I</v>
       </c>
       <c r="E19" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D19,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>M</v>
+        <v>V</v>
       </c>
       <c r="F19" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>C</v>
+        <v>I</v>
       </c>
       <c r="G19" s="44" t="str" cm="1">
         <f t="array" ref="G19">INDEX($B$11:$B$36,MOD(MATCH(F19,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>L</v>
+        <v>I</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="16" t="str" cm="1">
         <f t="array" ref="I19">INDEX($B$11:$B$36,MOD(MATCH($B19,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>G</v>
+        <v>K</v>
       </c>
       <c r="J19" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I19,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>R</v>
+        <v>L</v>
       </c>
       <c r="K19" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>G</v>
+        <v>K</v>
       </c>
       <c r="L19" s="44" t="str" cm="1">
         <f t="array" ref="L19">INDEX($B$11:$B$36,MOD(MATCH(K19,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>N</v>
+        <v>K</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="16" t="str" cm="1">
         <f t="array" ref="N19">INDEX($B$11:$B$36,MOD(MATCH($B19,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>K</v>
+        <v>V</v>
       </c>
       <c r="O19" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N19,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>X</v>
+        <v>M</v>
       </c>
       <c r="P19" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>K</v>
+        <v>V</v>
       </c>
       <c r="Q19" s="44" t="str" cm="1">
         <f t="array" ref="Q19">INDEX($B$11:$B$36,MOD(MATCH(P19,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>P</v>
+        <v>V</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="4">
@@ -3312,60 +3316,60 @@
         <v>8</v>
       </c>
       <c r="Z19" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>I</v>
+      </c>
+      <c r="AA19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AB19" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AC19" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>V</v>
+      </c>
+      <c r="AD19" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>G</v>
+      </c>
+      <c r="AE19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AA19" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AB19" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
-      <c r="AC19" s="45" t="str">
+      <c r="AF19" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Q</v>
-      </c>
-      <c r="AD19" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>U</v>
-      </c>
-      <c r="AE19" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>K</v>
-      </c>
-      <c r="AF19" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <v>P</v>
+      </c>
+      <c r="AG19" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>I</v>
       </c>
-      <c r="AG19" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
       <c r="AH19" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>R</v>
+        <v>V</v>
       </c>
       <c r="AI19" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>I</v>
+        <v>L</v>
       </c>
       <c r="AJ19" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="AK19" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
+        <v>A</v>
       </c>
       <c r="AL19" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>V</v>
+        <v>Y</v>
       </c>
       <c r="AM19" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>I</v>
+        <v>O</v>
       </c>
       <c r="AN19" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3376,31 +3380,31 @@
       </c>
       <c r="AQ19" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>K</v>
+        <v>V</v>
       </c>
       <c r="AR19" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>U</v>
+        <v>L</v>
       </c>
       <c r="AS19" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Q</v>
+        <v>A</v>
       </c>
       <c r="AT19" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Q</v>
+        <v>A</v>
       </c>
       <c r="AU19" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>M</v>
+        <v>Y</v>
       </c>
       <c r="AV19" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>C</v>
+        <v>O</v>
       </c>
       <c r="AW19" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>I</v>
+        <v>O</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.2">
@@ -3413,53 +3417,53 @@
       <c r="C20" s="5"/>
       <c r="D20" s="16" t="str" cm="1">
         <f t="array" ref="D20">INDEX($B$11:$B$36,MOD(MATCH($B20,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>D</v>
+        <v>J</v>
       </c>
       <c r="E20" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D20,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>F</v>
+        <v>Z</v>
       </c>
       <c r="F20" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>D</v>
+        <v>J</v>
       </c>
       <c r="G20" s="44" t="str" cm="1">
         <f t="array" ref="G20">INDEX($B$11:$B$36,MOD(MATCH(F20,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="16" t="str" cm="1">
         <f t="array" ref="I20">INDEX($B$11:$B$36,MOD(MATCH($B20,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="J20" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I20,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>U</v>
+        <v>H</v>
       </c>
       <c r="K20" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="L20" s="44" t="str" cm="1">
         <f t="array" ref="L20">INDEX($B$11:$B$36,MOD(MATCH(K20,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>O</v>
+        <v>L</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="16" t="str" cm="1">
         <f t="array" ref="N20">INDEX($B$11:$B$36,MOD(MATCH($B20,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O20" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N20,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>V</v>
+        <v>U</v>
       </c>
       <c r="P20" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q20" s="44" t="str" cm="1">
         <f t="array" ref="Q20">INDEX($B$11:$B$36,MOD(MATCH(P20,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>W</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="4">
@@ -3481,95 +3485,95 @@
         <v>9</v>
       </c>
       <c r="Z20" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>J</v>
+      </c>
+      <c r="AA20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
+      </c>
+      <c r="AB20" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="AC20" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>D</v>
-      </c>
-      <c r="AA20" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AB20" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AC20" s="45" t="str">
+      <c r="AD20" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>U</v>
+      </c>
+      <c r="AE20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="AF20" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>B</v>
-      </c>
-      <c r="AD20" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>F</v>
-      </c>
-      <c r="AE20" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="AF20" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <v>X</v>
+      </c>
+      <c r="AG20" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>J</v>
       </c>
-      <c r="AG20" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
-      </c>
       <c r="AH20" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
+        <v>W</v>
       </c>
       <c r="AI20" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>M</v>
+        <v>R</v>
       </c>
       <c r="AJ20" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>I</v>
+        <v>G</v>
       </c>
       <c r="AK20" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="AL20" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="AM20" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN20" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>C</v>
+        <v>T</v>
       </c>
       <c r="AP20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AQ20" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="AR20" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="AS20" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="AT20" s="45" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>J</v>
+        <v>R</v>
       </c>
       <c r="AU20" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="AV20" s="42" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="AW20" s="41" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>J</v>
+        <v>T</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.2">
@@ -3582,53 +3586,53 @@
       <c r="C21" s="5"/>
       <c r="D21" s="16" t="str" cm="1">
         <f t="array" ref="D21">INDEX($B$11:$B$36,MOD(MATCH($B21,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>E</v>
+        <v>K</v>
       </c>
       <c r="E21" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D21,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="F21" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>E</v>
+        <v>K</v>
       </c>
       <c r="G21" s="44" t="str" cm="1">
         <f t="array" ref="G21">INDEX($B$11:$B$36,MOD(MATCH(F21,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>N</v>
+        <v>K</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="16" t="str" cm="1">
         <f t="array" ref="I21">INDEX($B$11:$B$36,MOD(MATCH($B21,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>I</v>
+        <v>M</v>
       </c>
       <c r="J21" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I21,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>X</v>
+        <v>W</v>
       </c>
       <c r="K21" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>I</v>
+        <v>M</v>
       </c>
       <c r="L21" s="44" t="str" cm="1">
         <f t="array" ref="L21">INDEX($B$11:$B$36,MOD(MATCH(K21,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>P</v>
+        <v>M</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="16" t="str" cm="1">
         <f t="array" ref="N21">INDEX($B$11:$B$36,MOD(MATCH($B21,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N21,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>Z</v>
+        <v>S</v>
       </c>
       <c r="P21" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>M</v>
+        <v>X</v>
       </c>
       <c r="Q21" s="44" t="str" cm="1">
         <f t="array" ref="Q21">INDEX($B$11:$B$36,MOD(MATCH(P21,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>R</v>
+        <v>X</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="4">
@@ -3650,95 +3654,95 @@
         <v>10</v>
       </c>
       <c r="Z21" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>K</v>
+      </c>
+      <c r="AA21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AB21" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AC21" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>E</v>
-      </c>
-      <c r="AA21" s="42" t="str">
+        <v>C</v>
+      </c>
+      <c r="AD21" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>N</v>
+      </c>
+      <c r="AE21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="AF21" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>A</v>
+      </c>
+      <c r="AG21" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AH21" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>L</v>
       </c>
-      <c r="AB21" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
-      <c r="AC21" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>C</v>
-      </c>
-      <c r="AD21" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>G</v>
-      </c>
-      <c r="AE21" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AF21" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>A</v>
-      </c>
-      <c r="AG21" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="AH21" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A</v>
-      </c>
       <c r="AI21" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AJ21" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>P</v>
+        <v>U</v>
       </c>
       <c r="AK21" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>U</v>
+        <v>H</v>
       </c>
       <c r="AL21" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
+        <v>F</v>
       </c>
       <c r="AM21" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>H</v>
+        <v>D</v>
       </c>
       <c r="AN21" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N</v>
+        <v>D</v>
       </c>
       <c r="AP21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AQ21" s="42" t="str">
-        <f t="shared" ref="AQ21:AW30" ca="1" si="13">INDEX(INDIRECT(AQ$8),MATCH(AP21,INDIRECT(AQ$9),0))</f>
-        <v>M</v>
+        <f t="shared" ref="AQ21:AW30" ca="1" si="14">INDEX(INDIRECT(AQ$8),MATCH(AP21,INDIRECT(AQ$9),0))</f>
+        <v>X</v>
       </c>
       <c r="AR21" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>K</v>
       </c>
       <c r="AS21" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Z</v>
       </c>
       <c r="AT21" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>S</v>
       </c>
       <c r="AU21" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Q</v>
       </c>
       <c r="AV21" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
       </c>
       <c r="AW21" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.2">
@@ -3751,53 +3755,53 @@
       <c r="C22" s="5"/>
       <c r="D22" s="16" t="str" cm="1">
         <f t="array" ref="D22">INDEX($B$11:$B$36,MOD(MATCH($B22,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>F</v>
+        <v>L</v>
       </c>
       <c r="E22" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D22,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>G</v>
+        <v>T</v>
       </c>
       <c r="F22" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>F</v>
+        <v>L</v>
       </c>
       <c r="G22" s="44" t="str" cm="1">
         <f t="array" ref="G22">INDEX($B$11:$B$36,MOD(MATCH(F22,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>O</v>
+        <v>L</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="16" t="str" cm="1">
         <f t="array" ref="I22">INDEX($B$11:$B$36,MOD(MATCH($B22,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>J</v>
+        <v>N</v>
       </c>
       <c r="J22" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I22,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="K22" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>J</v>
+        <v>N</v>
       </c>
       <c r="L22" s="44" t="str" cm="1">
         <f t="array" ref="L22">INDEX($B$11:$B$36,MOD(MATCH(K22,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>N</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="16" t="str" cm="1">
         <f t="array" ref="N22">INDEX($B$11:$B$36,MOD(MATCH($B22,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N22,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>N</v>
+        <v>Q</v>
       </c>
       <c r="P22" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="Q22" s="44" t="str" cm="1">
         <f t="array" ref="Q22">INDEX($B$11:$B$36,MOD(MATCH(P22,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>S</v>
+        <v>Y</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="4">
@@ -3819,95 +3823,95 @@
         <v>11</v>
       </c>
       <c r="Z22" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>L</v>
+      </c>
+      <c r="AA22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AB22" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AC22" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>F</v>
-      </c>
-      <c r="AA22" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AD22" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>J</v>
+      </c>
+      <c r="AE22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="AF22" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>G</v>
       </c>
-      <c r="AB22" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>K</v>
-      </c>
-      <c r="AC22" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
+      <c r="AG22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>L</v>
       </c>
-      <c r="AD22" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>P</v>
-      </c>
-      <c r="AE22" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>E</v>
-      </c>
-      <c r="AF22" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AH22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AI22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="AJ22" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AK22" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>C</v>
       </c>
-      <c r="AG22" s="42" t="str">
+      <c r="AL22" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AM22" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>U</v>
       </c>
-      <c r="AH22" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="AI22" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AJ22" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>N</v>
-      </c>
-      <c r="AK22" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="AL22" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
-      <c r="AM22" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
       <c r="AN22" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
+        <v>U</v>
       </c>
       <c r="AP22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AQ22" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Y</v>
       </c>
       <c r="AR22" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>O</v>
       </c>
       <c r="AS22" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>D</v>
       </c>
       <c r="AT22" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>C</v>
       </c>
       <c r="AU22" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AV22" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>U</v>
       </c>
       <c r="AW22" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>U</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.2">
@@ -3920,53 +3924,53 @@
       <c r="C23" s="5"/>
       <c r="D23" s="16" t="str" cm="1">
         <f t="array" ref="D23">INDEX($B$11:$B$36,MOD(MATCH($B23,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>G</v>
+        <v>M</v>
       </c>
       <c r="E23" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D23,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>D</v>
+        <v>O</v>
       </c>
       <c r="F23" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>G</v>
+        <v>M</v>
       </c>
       <c r="G23" s="44" t="str" cm="1">
         <f t="array" ref="G23">INDEX($B$11:$B$36,MOD(MATCH(F23,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>P</v>
+        <v>M</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="16" t="str" cm="1">
         <f t="array" ref="I23">INDEX($B$11:$B$36,MOD(MATCH($B23,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>K</v>
+        <v>O</v>
       </c>
       <c r="J23" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I23,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="K23" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>K</v>
+        <v>O</v>
       </c>
       <c r="L23" s="44" t="str" cm="1">
         <f t="array" ref="L23">INDEX($B$11:$B$36,MOD(MATCH(K23,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>R</v>
+        <v>O</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="16" t="str" cm="1">
         <f t="array" ref="N23">INDEX($B$11:$B$36,MOD(MATCH($B23,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>O</v>
+        <v>Z</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N23,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>Y</v>
+        <v>O</v>
       </c>
       <c r="P23" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>O</v>
+        <v>Z</v>
       </c>
       <c r="Q23" s="44" t="str" cm="1">
         <f t="array" ref="Q23">INDEX($B$11:$B$36,MOD(MATCH(P23,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>T</v>
+        <v>Z</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="4">
@@ -3988,95 +3992,95 @@
         <v>12</v>
       </c>
       <c r="Z23" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>M</v>
+      </c>
+      <c r="AA23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="AB23" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="AC23" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>Q</v>
+      </c>
+      <c r="AD23" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>B</v>
+      </c>
+      <c r="AE23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="AF23" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>Q</v>
+      </c>
+      <c r="AG23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AH23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AI23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AJ23" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AK23" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="AL23" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>G</v>
       </c>
-      <c r="AA23" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="AB23" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>H</v>
-      </c>
-      <c r="AC23" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>U</v>
-      </c>
-      <c r="AD23" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Y</v>
-      </c>
-      <c r="AE23" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
-      <c r="AF23" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>O</v>
-      </c>
-      <c r="AG23" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AH23" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>O</v>
-      </c>
-      <c r="AI23" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
-      </c>
-      <c r="AJ23" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
-      </c>
-      <c r="AK23" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>X</v>
-      </c>
-      <c r="AL23" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
-      </c>
       <c r="AM23" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>L</v>
+        <v>F</v>
       </c>
       <c r="AN23" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="AP23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AQ23" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>O</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>Z</v>
       </c>
       <c r="AR23" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>M</v>
       </c>
       <c r="AS23" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>B</v>
       </c>
       <c r="AT23" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>J</v>
       </c>
       <c r="AU23" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
       </c>
       <c r="AV23" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
       </c>
       <c r="AW23" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.2">
@@ -4089,53 +4093,53 @@
       <c r="C24" s="5"/>
       <c r="D24" s="16" t="str" cm="1">
         <f t="array" ref="D24">INDEX($B$11:$B$36,MOD(MATCH($B24,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="E24" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D24,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>Q</v>
+        <v>W</v>
       </c>
       <c r="F24" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>H</v>
+        <v>N</v>
       </c>
       <c r="G24" s="44" t="str" cm="1">
         <f t="array" ref="G24">INDEX($B$11:$B$36,MOD(MATCH(F24,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>N</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="16" t="str" cm="1">
         <f t="array" ref="I24">INDEX($B$11:$B$36,MOD(MATCH($B24,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>L</v>
+        <v>P</v>
       </c>
       <c r="J24" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I24,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>H</v>
+        <v>C</v>
       </c>
       <c r="K24" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>L</v>
+        <v>P</v>
       </c>
       <c r="L24" s="44" t="str" cm="1">
         <f t="array" ref="L24">INDEX($B$11:$B$36,MOD(MATCH(K24,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>S</v>
+        <v>P</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="16" t="str" cm="1">
         <f t="array" ref="N24">INDEX($B$11:$B$36,MOD(MATCH($B24,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N24,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="P24" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="Q24" s="44" t="str" cm="1">
         <f t="array" ref="Q24">INDEX($B$11:$B$36,MOD(MATCH(P24,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>U</v>
+        <v>A</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="4">
@@ -4157,95 +4161,95 @@
         <v>13</v>
       </c>
       <c r="Z24" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>N</v>
+      </c>
+      <c r="AA24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>W</v>
+      </c>
+      <c r="AB24" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AC24" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>H</v>
-      </c>
-      <c r="AA24" s="42" t="str">
+        <v>O</v>
+      </c>
+      <c r="AD24" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Z</v>
+      </c>
+      <c r="AE24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="AF24" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AG24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="AH24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AI24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="AJ24" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>E</v>
+      </c>
+      <c r="AK24" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Z</v>
+      </c>
+      <c r="AL24" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AM24" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Q</v>
       </c>
-      <c r="AB24" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>U</v>
-      </c>
-      <c r="AC24" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>P</v>
-      </c>
-      <c r="AD24" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>T</v>
-      </c>
-      <c r="AE24" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="AF24" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="AG24" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="AH24" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AI24" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>G</v>
-      </c>
-      <c r="AJ24" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="AK24" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>P</v>
-      </c>
-      <c r="AL24" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="AM24" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>E</v>
-      </c>
       <c r="AN24" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>K</v>
+        <v>Q</v>
       </c>
       <c r="AP24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AQ24" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AR24" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>T</v>
       </c>
       <c r="AS24" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>I</v>
+      </c>
+      <c r="AT24" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>F</v>
+      </c>
+      <c r="AU24" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>D</v>
       </c>
-      <c r="AT24" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>C</v>
-      </c>
-      <c r="AU24" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Y</v>
-      </c>
       <c r="AV24" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>O</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
       </c>
       <c r="AW24" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.2">
@@ -4258,53 +4262,53 @@
       <c r="C25" s="5"/>
       <c r="D25" s="16" t="str" cm="1">
         <f t="array" ref="D25">INDEX($B$11:$B$36,MOD(MATCH($B25,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>I</v>
+        <v>O</v>
       </c>
       <c r="E25" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D25,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>V</v>
+        <v>Y</v>
       </c>
       <c r="F25" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>I</v>
+        <v>O</v>
       </c>
       <c r="G25" s="44" t="str" cm="1">
         <f t="array" ref="G25">INDEX($B$11:$B$36,MOD(MATCH(F25,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>R</v>
+        <v>O</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="16" t="str" cm="1">
         <f t="array" ref="I25">INDEX($B$11:$B$36,MOD(MATCH($B25,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>M</v>
+        <v>Q</v>
       </c>
       <c r="J25" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I25,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>W</v>
+        <v>Q</v>
       </c>
       <c r="K25" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>M</v>
+        <v>Q</v>
       </c>
       <c r="L25" s="44" t="str" cm="1">
         <f t="array" ref="L25">INDEX($B$11:$B$36,MOD(MATCH(K25,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>T</v>
+        <v>Q</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="16" t="str" cm="1">
         <f t="array" ref="N25">INDEX($B$11:$B$36,MOD(MATCH($B25,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>B</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N25,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>I</v>
+        <v>D</v>
       </c>
       <c r="P25" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>Q</v>
+        <v>B</v>
       </c>
       <c r="Q25" s="44" t="str" cm="1">
         <f t="array" ref="Q25">INDEX($B$11:$B$36,MOD(MATCH(P25,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>V</v>
+        <v>B</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="4">
@@ -4326,60 +4330,60 @@
         <v>14</v>
       </c>
       <c r="Z25" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>O</v>
+      </c>
+      <c r="AA25" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="AB25" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="AC25" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>I</v>
-      </c>
-      <c r="AA25" s="42" t="str">
+        <v>A</v>
+      </c>
+      <c r="AD25" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>L</v>
+      </c>
+      <c r="AE25" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>V</v>
       </c>
-      <c r="AB25" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Z</v>
-      </c>
-      <c r="AC25" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>E</v>
-      </c>
-      <c r="AD25" s="42" t="str">
+      <c r="AF25" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>I</v>
       </c>
-      <c r="AE25" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>R</v>
-      </c>
-      <c r="AF25" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AG25" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>P</v>
       </c>
-      <c r="AG25" s="42" t="str">
+      <c r="AH25" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="AI25" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="AJ25" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AK25" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="AL25" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="AM25" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>I</v>
-      </c>
-      <c r="AH25" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>K</v>
-      </c>
-      <c r="AI25" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>U</v>
-      </c>
-      <c r="AJ25" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
-      <c r="AK25" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Q</v>
-      </c>
-      <c r="AL25" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AM25" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>C</v>
       </c>
       <c r="AN25" s="40" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4389,32 +4393,32 @@
         <v>14</v>
       </c>
       <c r="AQ25" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>B</v>
       </c>
       <c r="AR25" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>A</v>
       </c>
       <c r="AS25" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
+      </c>
+      <c r="AT25" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>U</v>
       </c>
-      <c r="AT25" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>H</v>
-      </c>
       <c r="AU25" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>S</v>
       </c>
       <c r="AV25" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>S</v>
       </c>
       <c r="AW25" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>S</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.2">
@@ -4427,53 +4431,53 @@
       <c r="C26" s="5"/>
       <c r="D26" s="16" t="str" cm="1">
         <f t="array" ref="D26">INDEX($B$11:$B$36,MOD(MATCH($B26,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>J</v>
+        <v>P</v>
       </c>
       <c r="E26" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D26,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>Z</v>
+        <v>H</v>
       </c>
       <c r="F26" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>J</v>
+        <v>P</v>
       </c>
       <c r="G26" s="44" t="str" cm="1">
         <f t="array" ref="G26">INDEX($B$11:$B$36,MOD(MATCH(F26,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>S</v>
+        <v>P</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="16" t="str" cm="1">
         <f t="array" ref="I26">INDEX($B$11:$B$36,MOD(MATCH($B26,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="J26" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I26,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>T</v>
+        <v>G</v>
       </c>
       <c r="K26" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="L26" s="44" t="str" cm="1">
         <f t="array" ref="L26">INDEX($B$11:$B$36,MOD(MATCH(K26,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>U</v>
+        <v>R</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="16" t="str" cm="1">
         <f t="array" ref="N26">INDEX($B$11:$B$36,MOD(MATCH($B26,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>R</v>
+        <v>C</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N26,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="P26" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>R</v>
+        <v>C</v>
       </c>
       <c r="Q26" s="44" t="str" cm="1">
         <f t="array" ref="Q26">INDEX($B$11:$B$36,MOD(MATCH(P26,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>W</v>
+        <v>C</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="4">
@@ -4495,95 +4499,95 @@
         <v>15</v>
       </c>
       <c r="Z26" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>P</v>
+      </c>
+      <c r="AA26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="AB26" s="45" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="AC26" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>J</v>
-      </c>
-      <c r="AA26" s="42" t="str">
+        <v>B</v>
+      </c>
+      <c r="AD26" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>M</v>
+      </c>
+      <c r="AE26" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Z</v>
       </c>
-      <c r="AB26" s="45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>D</v>
-      </c>
-      <c r="AC26" s="45" t="str">
+      <c r="AF26" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>K</v>
-      </c>
-      <c r="AD26" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <v>M</v>
+      </c>
+      <c r="AG26" s="42" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>O</v>
       </c>
-      <c r="AE26" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Y</v>
-      </c>
-      <c r="AF26" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>W</v>
-      </c>
-      <c r="AG26" s="42" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>V</v>
-      </c>
       <c r="AH26" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>X</v>
+        <v>B</v>
       </c>
       <c r="AI26" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>K</v>
+        <v>A</v>
       </c>
       <c r="AJ26" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>G</v>
+        <v>P</v>
       </c>
       <c r="AK26" s="45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>R</v>
+        <v>U</v>
       </c>
       <c r="AL26" s="42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>N</v>
+        <v>S</v>
       </c>
       <c r="AM26" s="42" t="str">
-        <f t="shared" ref="AA26:AN36" ca="1" si="14">INDEX(INDIRECT(AM$8),MATCH(AL26,INDIRECT(AM$9),0))</f>
-        <v>K</v>
+        <f t="shared" ref="AA26:AN36" ca="1" si="15">INDEX(INDIRECT(AM$8),MATCH(AL26,INDIRECT(AM$9),0))</f>
+        <v>S</v>
       </c>
       <c r="AN26" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>S</v>
       </c>
       <c r="AP26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AQ26" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>C</v>
       </c>
       <c r="AR26" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>G</v>
+      </c>
+      <c r="AS26" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>V</v>
+      </c>
+      <c r="AT26" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>X</v>
+      </c>
+      <c r="AU26" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>V</v>
+      </c>
+      <c r="AV26" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>I</v>
       </c>
-      <c r="AS26" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>E</v>
-      </c>
-      <c r="AT26" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Z</v>
-      </c>
-      <c r="AU26" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>V</v>
-      </c>
-      <c r="AV26" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="AW26" s="41" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v>I</v>
-      </c>
-      <c r="AW26" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>O</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.2">
@@ -4596,53 +4600,53 @@
       <c r="C27" s="5"/>
       <c r="D27" s="16" t="str" cm="1">
         <f t="array" ref="D27">INDEX($B$11:$B$36,MOD(MATCH($B27,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>K</v>
+        <v>Q</v>
       </c>
       <c r="E27" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D27,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>N</v>
+        <v>X</v>
       </c>
       <c r="F27" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>K</v>
+        <v>Q</v>
       </c>
       <c r="G27" s="44" t="str" cm="1">
         <f t="array" ref="G27">INDEX($B$11:$B$36,MOD(MATCH(F27,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>T</v>
+        <v>Q</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="16" t="str" cm="1">
         <f t="array" ref="I27">INDEX($B$11:$B$36,MOD(MATCH($B27,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>O</v>
+        <v>S</v>
       </c>
       <c r="J27" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I27,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>M</v>
+        <v>Z</v>
       </c>
       <c r="K27" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>O</v>
+        <v>S</v>
       </c>
       <c r="L27" s="44" t="str" cm="1">
         <f t="array" ref="L27">INDEX($B$11:$B$36,MOD(MATCH(K27,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="16" t="str" cm="1">
         <f t="array" ref="N27">INDEX($B$11:$B$36,MOD(MATCH($B27,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N27,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="P27" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="Q27" s="44" t="str" cm="1">
         <f t="array" ref="Q27">INDEX($B$11:$B$36,MOD(MATCH(P27,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>X</v>
+        <v>D</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="4">
@@ -4664,95 +4668,95 @@
         <v>16</v>
       </c>
       <c r="Z27" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Q</v>
+      </c>
+      <c r="AA27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="AB27" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
+      </c>
+      <c r="AC27" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>K</v>
-      </c>
-      <c r="AA27" s="42" t="str">
+        <v>E</v>
+      </c>
+      <c r="AD27" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>P</v>
+      </c>
+      <c r="AE27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>E</v>
+      </c>
+      <c r="AF27" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>R</v>
+      </c>
+      <c r="AG27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AH27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>O</v>
+      </c>
+      <c r="AI27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
+      </c>
+      <c r="AJ27" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>O</v>
+      </c>
+      <c r="AK27" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Y</v>
+      </c>
+      <c r="AL27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
+      </c>
+      <c r="AM27" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
+      </c>
+      <c r="AN27" s="40" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
+      </c>
+      <c r="AP27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ27" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="AB27" s="45" t="str">
+        <v>D</v>
+      </c>
+      <c r="AR27" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>R</v>
-      </c>
-      <c r="AC27" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>G</v>
-      </c>
-      <c r="AD27" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>K</v>
-      </c>
-      <c r="AE27" s="42" t="str">
+        <v>B</v>
+      </c>
+      <c r="AS27" s="45" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="AF27" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>V</v>
-      </c>
-      <c r="AG27" s="42" t="str">
+        <v>Q</v>
+      </c>
+      <c r="AT27" s="45" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>W</v>
-      </c>
-      <c r="AH27" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Y</v>
-      </c>
-      <c r="AI27" s="42" t="str">
+        <v>Q</v>
+      </c>
+      <c r="AU27" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>O</v>
       </c>
-      <c r="AJ27" s="45" t="str">
+      <c r="AV27" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>K</v>
-      </c>
-      <c r="AK27" s="45" t="str">
+        <v>M</v>
+      </c>
+      <c r="AW27" s="41" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="AL27" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Z</v>
-      </c>
-      <c r="AM27" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>J</v>
-      </c>
-      <c r="AN27" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>P</v>
-      </c>
-      <c r="AP27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ27" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>S</v>
-      </c>
-      <c r="AR27" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>X</v>
-      </c>
-      <c r="AS27" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>T</v>
-      </c>
-      <c r="AT27" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>N</v>
-      </c>
-      <c r="AU27" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>J</v>
-      </c>
-      <c r="AV27" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Z</v>
-      </c>
-      <c r="AW27" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>F</v>
+        <v>M</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.2">
@@ -4765,53 +4769,53 @@
       <c r="C28" s="5"/>
       <c r="D28" s="16" t="str" cm="1">
         <f t="array" ref="D28">INDEX($B$11:$B$36,MOD(MATCH($B28,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>L</v>
+        <v>R</v>
       </c>
       <c r="E28" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D28,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>T</v>
+        <v>U</v>
       </c>
       <c r="F28" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>R</v>
       </c>
       <c r="G28" s="44" t="str" cm="1">
         <f t="array" ref="G28">INDEX($B$11:$B$36,MOD(MATCH(F28,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>U</v>
+        <v>R</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="16" t="str" cm="1">
         <f t="array" ref="I28">INDEX($B$11:$B$36,MOD(MATCH($B28,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="J28" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I28,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>C</v>
+        <v>N</v>
       </c>
       <c r="K28" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="L28" s="44" t="str" cm="1">
         <f t="array" ref="L28">INDEX($B$11:$B$36,MOD(MATCH(K28,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="16" t="str" cm="1">
         <f t="array" ref="N28">INDEX($B$11:$B$36,MOD(MATCH($B28,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="O28" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N28,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>A</v>
+        <v>J</v>
       </c>
       <c r="P28" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="Q28" s="44" t="str" cm="1">
         <f t="array" ref="Q28">INDEX($B$11:$B$36,MOD(MATCH(P28,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>E</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="4">
@@ -4833,95 +4837,95 @@
         <v>17</v>
       </c>
       <c r="Z28" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>R</v>
+      </c>
+      <c r="AA28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>U</v>
+      </c>
+      <c r="AB28" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
+      </c>
+      <c r="AC28" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="AD28" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Q</v>
+      </c>
+      <c r="AE28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>I</v>
+      </c>
+      <c r="AF28" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>V</v>
+      </c>
+      <c r="AG28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
+      </c>
+      <c r="AH28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AI28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>E</v>
+      </c>
+      <c r="AJ28" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
+      </c>
+      <c r="AK28" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
+      </c>
+      <c r="AL28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>L</v>
       </c>
-      <c r="AA28" s="42" t="str">
+      <c r="AM28" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>E</v>
+      </c>
+      <c r="AN28" s="40" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>E</v>
+      </c>
+      <c r="AP28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ28" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>T</v>
-      </c>
-      <c r="AB28" s="45" t="str">
+        <v>E</v>
+      </c>
+      <c r="AR28" s="42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>P</v>
+      </c>
+      <c r="AS28" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>E</v>
+      </c>
+      <c r="AT28" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Z</v>
+      </c>
+      <c r="AU28" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>X</v>
       </c>
-      <c r="AC28" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>V</v>
-      </c>
-      <c r="AD28" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Z</v>
-      </c>
-      <c r="AE28" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>O</v>
-      </c>
-      <c r="AF28" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>M</v>
-      </c>
-      <c r="AG28" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>O</v>
-      </c>
-      <c r="AH28" s="42" t="str">
+      <c r="AV28" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>Q</v>
       </c>
-      <c r="AI28" s="42" t="str">
+      <c r="AW28" s="41" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Y</v>
-      </c>
-      <c r="AJ28" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>U</v>
-      </c>
-      <c r="AK28" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>H</v>
-      </c>
-      <c r="AL28" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="AM28" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>G</v>
-      </c>
-      <c r="AN28" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>M</v>
-      </c>
-      <c r="AP28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ28" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>T</v>
-      </c>
-      <c r="AR28" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>J</v>
-      </c>
-      <c r="AS28" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>F</v>
-      </c>
-      <c r="AT28" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>W</v>
-      </c>
-      <c r="AU28" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>S</v>
-      </c>
-      <c r="AV28" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>S</v>
-      </c>
-      <c r="AW28" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>Y</v>
+        <v>Q</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.2">
@@ -4934,53 +4938,53 @@
       <c r="C29" s="5"/>
       <c r="D29" s="16" t="str" cm="1">
         <f t="array" ref="D29">INDEX($B$11:$B$36,MOD(MATCH($B29,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="E29" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D29,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>O</v>
+        <v>S</v>
       </c>
       <c r="F29" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="G29" s="44" t="str" cm="1">
         <f t="array" ref="G29">INDEX($B$11:$B$36,MOD(MATCH(F29,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="16" t="str" cm="1">
         <f t="array" ref="I29">INDEX($B$11:$B$36,MOD(MATCH($B29,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>U</v>
       </c>
       <c r="J29" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I29,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>Q</v>
+        <v>P</v>
       </c>
       <c r="K29" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>Q</v>
+        <v>U</v>
       </c>
       <c r="L29" s="44" t="str" cm="1">
         <f t="array" ref="L29">INDEX($B$11:$B$36,MOD(MATCH(K29,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>X</v>
+        <v>U</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="16" t="str" cm="1">
         <f t="array" ref="N29">INDEX($B$11:$B$36,MOD(MATCH($B29,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>U</v>
+        <v>F</v>
       </c>
       <c r="O29" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N29,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>K</v>
+        <v>L</v>
       </c>
       <c r="P29" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>U</v>
+        <v>F</v>
       </c>
       <c r="Q29" s="44" t="str" cm="1">
         <f t="array" ref="Q29">INDEX($B$11:$B$36,MOD(MATCH(P29,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>F</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4">
@@ -5002,94 +5006,94 @@
         <v>18</v>
       </c>
       <c r="Z29" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>S</v>
+      </c>
+      <c r="AA29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>S</v>
+      </c>
+      <c r="AB29" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>U</v>
+      </c>
+      <c r="AC29" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>P</v>
+      </c>
+      <c r="AD29" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>A</v>
+      </c>
+      <c r="AE29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AF29" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>O</v>
+      </c>
+      <c r="AG29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>M</v>
       </c>
-      <c r="AA29" s="42" t="str">
+      <c r="AH29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
+      </c>
+      <c r="AI29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>M</v>
+      </c>
+      <c r="AJ29" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AK29" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AL29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>H</v>
+      </c>
+      <c r="AM29" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
+      </c>
+      <c r="AN29" s="40" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
+      </c>
+      <c r="AP29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ29" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>O</v>
-      </c>
-      <c r="AB29" s="45" t="str">
+        <v>F</v>
+      </c>
+      <c r="AR29" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>S</v>
-      </c>
-      <c r="AC29" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>Z</v>
-      </c>
-      <c r="AD29" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>D</v>
-      </c>
-      <c r="AE29" s="42" t="str">
+        <v>C</v>
+      </c>
+      <c r="AS29" s="45" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>H</v>
-      </c>
-      <c r="AF29" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>F</v>
-      </c>
-      <c r="AG29" s="42" t="str">
+        <v>R</v>
+      </c>
+      <c r="AT29" s="45" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>S</v>
-      </c>
-      <c r="AH29" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>U</v>
-      </c>
-      <c r="AI29" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>W</v>
-      </c>
-      <c r="AJ29" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>S</v>
-      </c>
-      <c r="AK29" s="45" t="str">
+        <v>G</v>
+      </c>
+      <c r="AU29" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>E</v>
       </c>
-      <c r="AL29" s="42" t="str">
+      <c r="AV29" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>A</v>
       </c>
-      <c r="AM29" s="42" t="str">
+      <c r="AW29" s="41" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>U</v>
-      </c>
-      <c r="AN29" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>A</v>
-      </c>
-      <c r="AP29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ29" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>U</v>
-      </c>
-      <c r="AR29" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>W</v>
-      </c>
-      <c r="AS29" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>S</v>
-      </c>
-      <c r="AT29" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>E</v>
-      </c>
-      <c r="AU29" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AV29" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>U</v>
-      </c>
-      <c r="AW29" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
         <v>A</v>
       </c>
     </row>
@@ -5103,53 +5107,53 @@
       <c r="C30" s="5"/>
       <c r="D30" s="16" t="str" cm="1">
         <f t="array" ref="D30">INDEX($B$11:$B$36,MOD(MATCH($B30,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>N</v>
+        <v>T</v>
       </c>
       <c r="E30" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D30,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>W</v>
+        <v>P</v>
       </c>
       <c r="F30" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v>T</v>
       </c>
       <c r="G30" s="44" t="str" cm="1">
         <f t="array" ref="G30">INDEX($B$11:$B$36,MOD(MATCH(F30,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="16" t="str" cm="1">
         <f t="array" ref="I30">INDEX($B$11:$B$36,MOD(MATCH($B30,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>R</v>
+        <v>V</v>
       </c>
       <c r="J30" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I30,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>G</v>
+        <v>Y</v>
       </c>
       <c r="K30" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>R</v>
+        <v>V</v>
       </c>
       <c r="L30" s="44" t="str" cm="1">
         <f t="array" ref="L30">INDEX($B$11:$B$36,MOD(MATCH(K30,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>V</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="16" t="str" cm="1">
         <f t="array" ref="N30">INDEX($B$11:$B$36,MOD(MATCH($B30,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>V</v>
+        <v>G</v>
       </c>
       <c r="O30" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N30,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>M</v>
+        <v>C</v>
       </c>
       <c r="P30" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>V</v>
+        <v>G</v>
       </c>
       <c r="Q30" s="44" t="str" cm="1">
         <f t="array" ref="Q30">INDEX($B$11:$B$36,MOD(MATCH(P30,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="4">
@@ -5171,95 +5175,95 @@
         <v>19</v>
       </c>
       <c r="Z30" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>T</v>
+      </c>
+      <c r="AA30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
+      </c>
+      <c r="AB30" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>R</v>
+      </c>
+      <c r="AC30" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="AA30" s="42" t="str">
+        <v>G</v>
+      </c>
+      <c r="AD30" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>R</v>
+      </c>
+      <c r="AE30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
+      </c>
+      <c r="AF30" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>J</v>
+      </c>
+      <c r="AG30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="AH30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
+      </c>
+      <c r="AI30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>U</v>
+      </c>
+      <c r="AJ30" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AK30" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AL30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
+      </c>
+      <c r="AM30" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AN30" s="40" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AP30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ30" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>W</v>
-      </c>
-      <c r="AB30" s="45" t="str">
+        <v>G</v>
+      </c>
+      <c r="AR30" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>A</v>
-      </c>
-      <c r="AC30" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>A</v>
-      </c>
-      <c r="AD30" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>E</v>
-      </c>
-      <c r="AE30" s="42" t="str">
+        <v>S</v>
+      </c>
+      <c r="AS30" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>H</v>
+      </c>
+      <c r="AT30" s="45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>L</v>
+      </c>
+      <c r="AU30" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>J</v>
       </c>
-      <c r="AF30" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>H</v>
-      </c>
-      <c r="AG30" s="42" t="str">
+      <c r="AV30" s="42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="AH30" s="42" t="str">
+        <v>Z</v>
+      </c>
+      <c r="AW30" s="41" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>F</v>
-      </c>
-      <c r="AI30" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>C</v>
-      </c>
-      <c r="AJ30" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Y</v>
-      </c>
-      <c r="AK30" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>V</v>
-      </c>
-      <c r="AL30" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>R</v>
-      </c>
-      <c r="AM30" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="AN30" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="AP30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ30" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>V</v>
-      </c>
-      <c r="AR30" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>L</v>
-      </c>
-      <c r="AS30" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>H</v>
-      </c>
-      <c r="AT30" s="45" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>L</v>
-      </c>
-      <c r="AU30" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>H</v>
-      </c>
-      <c r="AV30" s="42" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>P</v>
-      </c>
-      <c r="AW30" s="41" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>V</v>
+        <v>Z</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.2">
@@ -5272,53 +5276,53 @@
       <c r="C31" s="5"/>
       <c r="D31" s="16" t="str" cm="1">
         <f t="array" ref="D31">INDEX($B$11:$B$36,MOD(MATCH($B31,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>O</v>
+        <v>U</v>
       </c>
       <c r="E31" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D31,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>Y</v>
+        <v>A</v>
       </c>
       <c r="F31" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>O</v>
+        <v>U</v>
       </c>
       <c r="G31" s="44" t="str" cm="1">
         <f t="array" ref="G31">INDEX($B$11:$B$36,MOD(MATCH(F31,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>X</v>
+        <v>U</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="16" t="str" cm="1">
         <f t="array" ref="I31">INDEX($B$11:$B$36,MOD(MATCH($B31,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="J31" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I31,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>Z</v>
+        <v>F</v>
       </c>
       <c r="K31" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="L31" s="44" t="str" cm="1">
         <f t="array" ref="L31">INDEX($B$11:$B$36,MOD(MATCH(K31,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>W</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="16" t="str" cm="1">
         <f t="array" ref="N31">INDEX($B$11:$B$36,MOD(MATCH($B31,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>W</v>
+        <v>H</v>
       </c>
       <c r="O31" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N31,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>U</v>
+        <v>P</v>
       </c>
       <c r="P31" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>H</v>
       </c>
       <c r="Q31" s="44" t="str" cm="1">
         <f t="array" ref="Q31">INDEX($B$11:$B$36,MOD(MATCH(P31,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>B</v>
+        <v>H</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="4">
@@ -5340,95 +5344,95 @@
         <v>20</v>
       </c>
       <c r="Z31" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>U</v>
+      </c>
+      <c r="AA31" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>A</v>
+      </c>
+      <c r="AB31" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>C</v>
+      </c>
+      <c r="AC31" s="45" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="AD31" s="42" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>O</v>
       </c>
-      <c r="AA31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="AE31" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>Y</v>
       </c>
-      <c r="AB31" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>C</v>
-      </c>
-      <c r="AC31" s="45" t="str">
+      <c r="AF31" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>D</v>
-      </c>
-      <c r="AD31" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>H</v>
-      </c>
-      <c r="AE31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>P</v>
-      </c>
-      <c r="AF31" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="AG31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>G</v>
       </c>
       <c r="AH31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
       </c>
       <c r="AI31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AJ31" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Y</v>
+      </c>
+      <c r="AK31" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>V</v>
       </c>
-      <c r="AJ31" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>R</v>
-      </c>
-      <c r="AK31" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>G</v>
-      </c>
       <c r="AL31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
       </c>
       <c r="AM31" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>L</v>
       </c>
       <c r="AN31" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>E</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>L</v>
       </c>
       <c r="AP31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AQ31" s="42" t="str">
-        <f t="shared" ref="AQ31:AW36" ca="1" si="15">INDEX(INDIRECT(AQ$8),MATCH(AP31,INDIRECT(AQ$9),0))</f>
-        <v>W</v>
+        <f t="shared" ref="AQ31:AW36" ca="1" si="16">INDEX(INDIRECT(AQ$8),MATCH(AP31,INDIRECT(AQ$9),0))</f>
+        <v>H</v>
       </c>
       <c r="AR31" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>R</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>D</v>
       </c>
       <c r="AS31" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>S</v>
       </c>
       <c r="AT31" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>E</v>
       </c>
       <c r="AU31" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>C</v>
       </c>
       <c r="AV31" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Y</v>
       </c>
       <c r="AW31" s="41" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Y</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.2">
@@ -5441,53 +5445,53 @@
       <c r="C32" s="5"/>
       <c r="D32" s="16" t="str" cm="1">
         <f t="array" ref="D32">INDEX($B$11:$B$36,MOD(MATCH($B32,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>P</v>
+        <v>V</v>
       </c>
       <c r="E32" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D32,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>H</v>
+        <v>I</v>
       </c>
       <c r="F32" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v>V</v>
       </c>
       <c r="G32" s="44" t="str" cm="1">
         <f t="array" ref="G32">INDEX($B$11:$B$36,MOD(MATCH(F32,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>V</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="16" t="str" cm="1">
         <f t="array" ref="I32">INDEX($B$11:$B$36,MOD(MATCH($B32,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>T</v>
+        <v>X</v>
       </c>
       <c r="J32" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I32,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>N</v>
+        <v>V</v>
       </c>
       <c r="K32" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>T</v>
+        <v>X</v>
       </c>
       <c r="L32" s="44" t="str" cm="1">
         <f t="array" ref="L32">INDEX($B$11:$B$36,MOD(MATCH(K32,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>A</v>
+        <v>X</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="16" t="str" cm="1">
         <f t="array" ref="N32">INDEX($B$11:$B$36,MOD(MATCH($B32,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>X</v>
+        <v>I</v>
       </c>
       <c r="O32" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N32,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>S</v>
+        <v>R</v>
       </c>
       <c r="P32" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>X</v>
+        <v>I</v>
       </c>
       <c r="Q32" s="44" t="str" cm="1">
         <f t="array" ref="Q32">INDEX($B$11:$B$36,MOD(MATCH(P32,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>C</v>
+        <v>I</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="4">
@@ -5509,95 +5513,95 @@
         <v>21</v>
       </c>
       <c r="Z32" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>V</v>
+      </c>
+      <c r="AA32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>I</v>
+      </c>
+      <c r="AB32" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
+      </c>
+      <c r="AC32" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>P</v>
-      </c>
-      <c r="AA32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>H</v>
-      </c>
-      <c r="AB32" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
         <v>L</v>
       </c>
-      <c r="AC32" s="45" t="str">
+      <c r="AD32" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>W</v>
+      </c>
+      <c r="AE32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>U</v>
+      </c>
+      <c r="AF32" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>H</v>
       </c>
-      <c r="AD32" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>L</v>
-      </c>
-      <c r="AE32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>V</v>
-      </c>
-      <c r="AF32" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AG32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>D</v>
+      </c>
+      <c r="AH32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Q</v>
+      </c>
+      <c r="AI32" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Y</v>
+      </c>
+      <c r="AJ32" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>N</v>
+      </c>
+      <c r="AK32" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>T</v>
       </c>
-      <c r="AG32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Z</v>
-      </c>
-      <c r="AH32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>B</v>
-      </c>
-      <c r="AI32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>A</v>
-      </c>
-      <c r="AJ32" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>W</v>
-      </c>
-      <c r="AK32" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>M</v>
-      </c>
       <c r="AL32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>I</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>R</v>
       </c>
       <c r="AM32" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>V</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>X</v>
       </c>
       <c r="AN32" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>X</v>
       </c>
       <c r="AP32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AQ32" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>I</v>
       </c>
       <c r="AR32" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>Q</v>
       </c>
       <c r="AS32" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>G</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>F</v>
       </c>
       <c r="AT32" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>W</v>
+      </c>
+      <c r="AU32" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>U</v>
+      </c>
+      <c r="AV32" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>R</v>
       </c>
-      <c r="AU32" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>N</v>
-      </c>
-      <c r="AV32" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>K</v>
-      </c>
       <c r="AW32" s="41" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>R</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.2">
@@ -5610,53 +5614,53 @@
       <c r="C33" s="5"/>
       <c r="D33" s="16" t="str" cm="1">
         <f t="array" ref="D33">INDEX($B$11:$B$36,MOD(MATCH($B33,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>Q</v>
+        <v>W</v>
       </c>
       <c r="E33" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D33,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>X</v>
+        <v>B</v>
       </c>
       <c r="F33" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>Q</v>
+        <v>W</v>
       </c>
       <c r="G33" s="44" t="str" cm="1">
         <f t="array" ref="G33">INDEX($B$11:$B$36,MOD(MATCH(F33,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>W</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="16" t="str" cm="1">
         <f t="array" ref="I33">INDEX($B$11:$B$36,MOD(MATCH($B33,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>U</v>
+        <v>Y</v>
       </c>
       <c r="J33" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I33,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>P</v>
+        <v>O</v>
       </c>
       <c r="K33" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>U</v>
+        <v>Y</v>
       </c>
       <c r="L33" s="44" t="str" cm="1">
         <f t="array" ref="L33">INDEX($B$11:$B$36,MOD(MATCH(K33,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>B</v>
+        <v>Y</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="16" t="str" cm="1">
         <f t="array" ref="N33">INDEX($B$11:$B$36,MOD(MATCH($B33,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>Y</v>
+        <v>J</v>
       </c>
       <c r="O33" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N33,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>Q</v>
+        <v>T</v>
       </c>
       <c r="P33" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>Y</v>
+        <v>J</v>
       </c>
       <c r="Q33" s="44" t="str" cm="1">
         <f t="array" ref="Q33">INDEX($B$11:$B$36,MOD(MATCH(P33,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>D</v>
+        <v>J</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="4">
@@ -5678,95 +5682,95 @@
         <v>22</v>
       </c>
       <c r="Z33" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>W</v>
+      </c>
+      <c r="AA33" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AB33" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>D</v>
+      </c>
+      <c r="AC33" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Q</v>
-      </c>
-      <c r="AA33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="AB33" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>B</v>
-      </c>
-      <c r="AC33" s="45" t="str">
+        <v>K</v>
+      </c>
+      <c r="AD33" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>V</v>
+      </c>
+      <c r="AE33" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>M</v>
+      </c>
+      <c r="AF33" s="46" t="str">
         <f t="shared" ca="1" si="11"/>
+        <v>Z</v>
+      </c>
+      <c r="AG33" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
+      </c>
+      <c r="AH33" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>G</v>
+      </c>
+      <c r="AI33" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>S</v>
+      </c>
+      <c r="AJ33" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>H</v>
+      </c>
+      <c r="AK33" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>L</v>
+      </c>
+      <c r="AL33" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>J</v>
       </c>
-      <c r="AD33" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="AE33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>N</v>
-      </c>
-      <c r="AF33" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>L</v>
-      </c>
-      <c r="AG33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>G</v>
-      </c>
-      <c r="AH33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>I</v>
-      </c>
-      <c r="AI33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Q</v>
-      </c>
-      <c r="AJ33" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>M</v>
-      </c>
-      <c r="AK33" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>O</v>
-      </c>
-      <c r="AL33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>K</v>
-      </c>
       <c r="AM33" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
       </c>
       <c r="AN33" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
       </c>
       <c r="AP33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AQ33" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Y</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>J</v>
       </c>
       <c r="AR33" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>O</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>E</v>
       </c>
       <c r="AS33" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>K</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>T</v>
       </c>
       <c r="AT33" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>D</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>N</v>
       </c>
       <c r="AU33" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>L</v>
       </c>
       <c r="AV33" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>E</v>
       </c>
       <c r="AW33" s="41" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>E</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.2">
@@ -5779,53 +5783,53 @@
       <c r="C34" s="5"/>
       <c r="D34" s="16" t="str" cm="1">
         <f t="array" ref="D34">INDEX($B$11:$B$36,MOD(MATCH($B34,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>R</v>
+        <v>X</v>
       </c>
       <c r="E34" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D34,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>U</v>
+        <v>R</v>
       </c>
       <c r="F34" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>R</v>
+        <v>X</v>
       </c>
       <c r="G34" s="44" t="str" cm="1">
         <f t="array" ref="G34">INDEX($B$11:$B$36,MOD(MATCH(F34,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>A</v>
+        <v>X</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="16" t="str" cm="1">
         <f t="array" ref="I34">INDEX($B$11:$B$36,MOD(MATCH($B34,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>V</v>
+        <v>Z</v>
       </c>
       <c r="J34" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I34,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>Y</v>
+        <v>E</v>
       </c>
       <c r="K34" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>V</v>
+        <v>Z</v>
       </c>
       <c r="L34" s="44" t="str" cm="1">
         <f t="array" ref="L34">INDEX($B$11:$B$36,MOD(MATCH(K34,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>C</v>
+        <v>Z</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="16" t="str" cm="1">
         <f t="array" ref="N34">INDEX($B$11:$B$36,MOD(MATCH($B34,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>Z</v>
+        <v>K</v>
       </c>
       <c r="O34" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N34,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="P34" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>Z</v>
+        <v>K</v>
       </c>
       <c r="Q34" s="44" t="str" cm="1">
         <f t="array" ref="Q34">INDEX($B$11:$B$36,MOD(MATCH(P34,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>E</v>
+        <v>K</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="4">
@@ -5847,95 +5851,95 @@
         <v>23</v>
       </c>
       <c r="Z34" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>X</v>
+      </c>
+      <c r="AA34" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>R</v>
+      </c>
+      <c r="AB34" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>T</v>
+      </c>
+      <c r="AC34" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>R</v>
-      </c>
-      <c r="AA34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <v>N</v>
+      </c>
+      <c r="AD34" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>Y</v>
+      </c>
+      <c r="AE34" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Q</v>
+      </c>
+      <c r="AF34" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>D</v>
+      </c>
+      <c r="AG34" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>H</v>
+      </c>
+      <c r="AH34" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>U</v>
       </c>
-      <c r="AB34" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Y</v>
-      </c>
-      <c r="AC34" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>O</v>
-      </c>
-      <c r="AD34" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>S</v>
-      </c>
-      <c r="AE34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>G</v>
-      </c>
-      <c r="AF34" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>E</v>
-      </c>
-      <c r="AG34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Q</v>
-      </c>
-      <c r="AH34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>S</v>
-      </c>
       <c r="AI34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>X</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
       </c>
       <c r="AJ34" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>L</v>
       </c>
       <c r="AK34" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
       </c>
       <c r="AL34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>J</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>I</v>
       </c>
       <c r="AM34" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>Z</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>V</v>
       </c>
       <c r="AN34" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>V</v>
       </c>
       <c r="AP34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AQ34" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>K</v>
+      </c>
+      <c r="AR34" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>U</v>
+      </c>
+      <c r="AS34" s="45" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>J</v>
+      </c>
+      <c r="AT34" s="45" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="AU34" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>Z</v>
       </c>
-      <c r="AR34" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>M</v>
-      </c>
-      <c r="AS34" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>I</v>
-      </c>
-      <c r="AT34" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>F</v>
-      </c>
-      <c r="AU34" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>B</v>
-      </c>
       <c r="AV34" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>W</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>J</v>
       </c>
       <c r="AW34" s="41" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>C</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>J</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.2">
@@ -5948,53 +5952,53 @@
       <c r="C35" s="5"/>
       <c r="D35" s="16" t="str" cm="1">
         <f t="array" ref="D35">INDEX($B$11:$B$36,MOD(MATCH($B35,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>S</v>
+        <v>Y</v>
       </c>
       <c r="E35" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D35,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="F35" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>S</v>
+        <v>Y</v>
       </c>
       <c r="G35" s="44" t="str" cm="1">
         <f t="array" ref="G35">INDEX($B$11:$B$36,MOD(MATCH(F35,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>B</v>
+        <v>Y</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="16" t="str" cm="1">
         <f t="array" ref="I35">INDEX($B$11:$B$36,MOD(MATCH($B35,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>W</v>
+        <v>A</v>
       </c>
       <c r="J35" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I35,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="K35" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>W</v>
+        <v>A</v>
       </c>
       <c r="L35" s="44" t="str" cm="1">
         <f t="array" ref="L35">INDEX($B$11:$B$36,MOD(MATCH(K35,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="16" t="str" cm="1">
         <f t="array" ref="N35">INDEX($B$11:$B$36,MOD(MATCH($B35,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="O35" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N35,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>B</v>
+        <v>V</v>
       </c>
       <c r="P35" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="Q35" s="44" t="str" cm="1">
         <f t="array" ref="Q35">INDEX($B$11:$B$36,MOD(MATCH(P35,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>F</v>
+        <v>L</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="4">
@@ -6016,95 +6020,95 @@
         <v>24</v>
       </c>
       <c r="Z35" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="AA35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>C</v>
+      </c>
+      <c r="AB35" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>E</v>
+      </c>
+      <c r="AC35" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>S</v>
       </c>
-      <c r="AA35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>S</v>
-      </c>
-      <c r="AB35" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="AD35" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="AE35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>H</v>
+      </c>
+      <c r="AF35" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>U</v>
+      </c>
+      <c r="AG35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>C</v>
+      </c>
+      <c r="AH35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>P</v>
+      </c>
+      <c r="AI35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>H</v>
+      </c>
+      <c r="AJ35" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>W</v>
       </c>
-      <c r="AC35" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>F</v>
-      </c>
-      <c r="AD35" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>J</v>
-      </c>
-      <c r="AE35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>T</v>
-      </c>
-      <c r="AF35" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>R</v>
-      </c>
-      <c r="AG35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="AK35" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>M</v>
+      </c>
+      <c r="AL35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
+      </c>
+      <c r="AM35" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>B</v>
       </c>
-      <c r="AH35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="AI35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="AN35" s="40" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>B</v>
-      </c>
-      <c r="AJ35" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="AK35" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>I</v>
-      </c>
-      <c r="AL35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>E</v>
-      </c>
-      <c r="AM35" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>A</v>
-      </c>
-      <c r="AN35" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>G</v>
       </c>
       <c r="AP35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AQ35" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>A</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>L</v>
       </c>
       <c r="AR35" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>T</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>F</v>
       </c>
       <c r="AS35" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>P</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>U</v>
       </c>
       <c r="AT35" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>U</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>H</v>
       </c>
       <c r="AU35" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Q</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>F</v>
       </c>
       <c r="AV35" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>H</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>D</v>
       </c>
       <c r="AW35" s="41" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>N</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>D</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.2">
@@ -6117,53 +6121,53 @@
       <c r="C36" s="5"/>
       <c r="D36" s="16" t="str" cm="1">
         <f t="array" ref="D36">INDEX($B$11:$B$36,MOD(MATCH($B36,$B$11:$B$36,0)+D$9-G$9-1,26)+1)</f>
-        <v>T</v>
+        <v>Z</v>
       </c>
       <c r="E36" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(D36,rotors!$A$2:$A$27),MATCH(E$9,rotors!$B$1:$D$1,0))</f>
-        <v>P</v>
+        <v>J</v>
       </c>
       <c r="F36" s="25" t="str">
         <f t="shared" si="7"/>
-        <v>T</v>
+        <v>Z</v>
       </c>
       <c r="G36" s="44" t="str" cm="1">
         <f t="array" ref="G36">INDEX($B$11:$B$36,MOD(MATCH(F36,$B$11:$B$36,0)+G$9-1,26)+1)</f>
-        <v>C</v>
+        <v>Z</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="16" t="str" cm="1">
         <f t="array" ref="I36">INDEX($B$11:$B$36,MOD(MATCH($B36,$B$11:$B$36,0)+I$9-L$9-1,26)+1)</f>
-        <v>X</v>
+        <v>B</v>
       </c>
       <c r="J36" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(I36,rotors!$A$2:$A$27),MATCH(J$9,rotors!$B$1:$D$1,0))</f>
-        <v>V</v>
+        <v>J</v>
       </c>
       <c r="K36" s="25" t="str">
         <f t="shared" si="8"/>
-        <v>X</v>
+        <v>B</v>
       </c>
       <c r="L36" s="44" t="str" cm="1">
         <f t="array" ref="L36">INDEX($B$11:$B$36,MOD(MATCH(K36,$B$11:$B$36,0)+L$9-1,26)+1)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="16" t="str" cm="1">
         <f t="array" ref="N36">INDEX($B$11:$B$36,MOD(MATCH($B36,$B$11:$B$36,0)+N$9-Q$9-1,26)+1)</f>
-        <v>B</v>
+        <v>M</v>
       </c>
       <c r="O36" s="16" t="str">
         <f>INDEX(rotors!$B$2:$D$27,MATCH(N36,rotors!$A$2:$A$27),MATCH(O$9,rotors!$B$1:$D$1,0))</f>
-        <v>D</v>
+        <v>Z</v>
       </c>
       <c r="P36" s="25" t="str">
         <f t="shared" si="9"/>
-        <v>B</v>
+        <v>M</v>
       </c>
       <c r="Q36" s="44" t="str" cm="1">
         <f t="array" ref="Q36">INDEX($B$11:$B$36,MOD(MATCH(P36,$B$11:$B$36,0)+Q$9-1,26)+1)</f>
-        <v>G</v>
+        <v>M</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="4">
@@ -6185,95 +6189,95 @@
         <v>25</v>
       </c>
       <c r="Z36" s="45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Z</v>
+      </c>
+      <c r="AA36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>J</v>
+      </c>
+      <c r="AB36" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>L</v>
+      </c>
+      <c r="AC36" s="45" t="str">
         <f t="shared" ca="1" si="10"/>
+        <v>H</v>
+      </c>
+      <c r="AD36" s="42" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="AE36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>G</v>
+      </c>
+      <c r="AF36" s="46" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v>T</v>
       </c>
-      <c r="AA36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>P</v>
-      </c>
-      <c r="AB36" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>T</v>
-      </c>
-      <c r="AC36" s="45" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="AD36" s="42" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>R</v>
-      </c>
-      <c r="AE36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="AG36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Z</v>
+      </c>
+      <c r="AH36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>M</v>
+      </c>
+      <c r="AI36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>V</v>
+      </c>
+      <c r="AJ36" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>K</v>
+      </c>
+      <c r="AK36" s="45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>D</v>
+      </c>
+      <c r="AL36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>B</v>
+      </c>
+      <c r="AM36" s="42" t="str">
+        <f t="shared" ca="1" si="15"/>
         <v>W</v>
       </c>
-      <c r="AF36" s="46" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>U</v>
-      </c>
-      <c r="AG36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>C</v>
-      </c>
-      <c r="AH36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>E</v>
-      </c>
-      <c r="AI36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>P</v>
-      </c>
-      <c r="AJ36" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>L</v>
-      </c>
-      <c r="AK36" s="45" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>K</v>
-      </c>
-      <c r="AL36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>G</v>
-      </c>
-      <c r="AM36" s="42" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>F</v>
-      </c>
       <c r="AN36" s="40" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>L</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>W</v>
       </c>
       <c r="AP36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AQ36" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>M</v>
+      </c>
+      <c r="AR36" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>V</v>
+      </c>
+      <c r="AS36" s="45" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>K</v>
+      </c>
+      <c r="AT36" s="45" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>D</v>
+      </c>
+      <c r="AU36" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>B</v>
       </c>
-      <c r="AR36" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>A</v>
-      </c>
-      <c r="AS36" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
+      <c r="AV36" s="42" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>W</v>
       </c>
-      <c r="AT36" s="45" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>M</v>
-      </c>
-      <c r="AU36" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>I</v>
-      </c>
-      <c r="AV36" s="42" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>V</v>
-      </c>
       <c r="AW36" s="41" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>B</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>W</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.2">
@@ -7084,7 +7088,7 @@
         <v>94</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V14" s="34" t="s">
         <v>95</v>
@@ -7165,8 +7169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF50C79-16D5-6949-8056-A6FABF62AFFF}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
